--- a/Analyze.xlsx
+++ b/Analyze.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Learn\Алгосы\BubbleSort\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AA54A0CC-349A-4ACE-B611-D983D02E2EAF}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{14197992-72E7-4480-8141-C5B271117957}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{104B8E19-ACD8-4989-B5B3-C9A0783B87F8}"/>
+    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{104B8E19-ACD8-4989-B5B3-C9A0783B87F8}"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
@@ -638,382 +638,382 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="127"/>
                 <c:pt idx="0">
-                  <c:v>24.638402896776494</c:v>
+                  <c:v>24.638402879946657</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>24.638402896776494</c:v>
+                  <c:v>24.638402879946657</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>24.638402896776494</c:v>
+                  <c:v>24.638402879946657</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>24.638402896776494</c:v>
+                  <c:v>24.638402879946657</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>98.553611587105976</c:v>
+                  <c:v>98.553611519786628</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>98.553611587105976</c:v>
+                  <c:v>98.553611519786628</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>394.21444634842391</c:v>
+                  <c:v>394.21444607914651</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>394.21444634842391</c:v>
+                  <c:v>394.21444607914651</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>615.96007241941243</c:v>
+                  <c:v>615.96007199866642</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>615.96007241941243</c:v>
+                  <c:v>615.96007199866642</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>1576.8577853936956</c:v>
+                  <c:v>1576.857784316586</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>1576.8577853936956</c:v>
+                  <c:v>1576.857784316586</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>6307.4311415747825</c:v>
+                  <c:v>6307.4311372663442</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>6307.4311415747825</c:v>
+                  <c:v>6307.4311372663442</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>15399.00181048531</c:v>
+                  <c:v>15399.001799966662</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>15399.00181048531</c:v>
+                  <c:v>15399.001799966662</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>25229.72456629913</c:v>
+                  <c:v>25229.724549065377</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>25229.72456629913</c:v>
+                  <c:v>25229.724549065377</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>100918.89826519652</c:v>
+                  <c:v>100918.89819626151</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>100918.89826519652</c:v>
+                  <c:v>100918.89819626151</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>246384.02896776496</c:v>
+                  <c:v>246384.02879946659</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>246384.02896776496</c:v>
+                  <c:v>246384.02879946659</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>246384.02896776496</c:v>
+                  <c:v>246384.02879946659</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>246384.02896776496</c:v>
+                  <c:v>246384.02879946659</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>298124.6750509956</c:v>
+                  <c:v>298124.67484735459</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>298124.6750509956</c:v>
+                  <c:v>298124.67484735459</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>354793.00171358156</c:v>
+                  <c:v>354793.00147123187</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>354793.00171358156</c:v>
+                  <c:v>354793.00147123187</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>384975.04526213277</c:v>
+                  <c:v>384975.04499916651</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>384975.04526213277</c:v>
+                  <c:v>384975.04499916651</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>403675.59306078608</c:v>
+                  <c:v>403675.59278504603</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>403675.59306078608</c:v>
+                  <c:v>403675.59278504603</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>416389.00895552279</c:v>
+                  <c:v>416389.00867109851</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>416389.00895552279</c:v>
+                  <c:v>416389.00867109851</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>482912.6967768193</c:v>
+                  <c:v>482912.69644695451</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>482912.6967768193</c:v>
+                  <c:v>482912.69644695451</c:v>
                 </c:pt>
                 <c:pt idx="36">
-                  <c:v>554364.06517747114</c:v>
+                  <c:v>554364.06479879981</c:v>
                 </c:pt>
                 <c:pt idx="37">
-                  <c:v>554364.06517747114</c:v>
+                  <c:v>554364.06479879981</c:v>
                 </c:pt>
                 <c:pt idx="38">
-                  <c:v>630743.11415747833</c:v>
+                  <c:v>630743.11372663442</c:v>
                 </c:pt>
                 <c:pt idx="39">
-                  <c:v>630743.11415747833</c:v>
+                  <c:v>630743.11372663442</c:v>
                 </c:pt>
                 <c:pt idx="40">
-                  <c:v>712049.84371684073</c:v>
+                  <c:v>712049.84323045844</c:v>
                 </c:pt>
                 <c:pt idx="41">
-                  <c:v>712049.84371684073</c:v>
+                  <c:v>712049.84323045844</c:v>
                 </c:pt>
                 <c:pt idx="42">
-                  <c:v>798284.25385555846</c:v>
+                  <c:v>798284.25331027177</c:v>
                 </c:pt>
                 <c:pt idx="43">
-                  <c:v>798284.25385555846</c:v>
+                  <c:v>798284.25331027177</c:v>
                 </c:pt>
                 <c:pt idx="44">
-                  <c:v>889446.34457363153</c:v>
+                  <c:v>889446.3439660744</c:v>
                 </c:pt>
                 <c:pt idx="45">
-                  <c:v>889446.34457363153</c:v>
+                  <c:v>889446.3439660744</c:v>
                 </c:pt>
                 <c:pt idx="46">
-                  <c:v>985536.11587105982</c:v>
+                  <c:v>985536.11519786634</c:v>
                 </c:pt>
                 <c:pt idx="47">
-                  <c:v>985536.11587105982</c:v>
+                  <c:v>985536.11519786634</c:v>
                 </c:pt>
                 <c:pt idx="48">
-                  <c:v>985536.11587105982</c:v>
+                  <c:v>985536.11519786634</c:v>
                 </c:pt>
                 <c:pt idx="49">
-                  <c:v>985536.11587105982</c:v>
+                  <c:v>985536.11519786634</c:v>
                 </c:pt>
                 <c:pt idx="50">
-                  <c:v>1086553.5677478435</c:v>
+                  <c:v>1086553.5670056476</c:v>
                 </c:pt>
                 <c:pt idx="51">
-                  <c:v>1086553.5677478435</c:v>
+                  <c:v>1086553.5670056476</c:v>
                 </c:pt>
                 <c:pt idx="52">
-                  <c:v>1086553.5677478435</c:v>
+                  <c:v>1086553.5670056476</c:v>
                 </c:pt>
                 <c:pt idx="53">
-                  <c:v>1086553.5677478435</c:v>
+                  <c:v>1086553.5670056476</c:v>
                 </c:pt>
                 <c:pt idx="54">
-                  <c:v>1192498.7002039824</c:v>
+                  <c:v>1192498.6993894184</c:v>
                 </c:pt>
                 <c:pt idx="55">
-                  <c:v>1192498.7002039824</c:v>
+                  <c:v>1192498.6993894184</c:v>
                 </c:pt>
                 <c:pt idx="56">
-                  <c:v>1192498.7002039824</c:v>
+                  <c:v>1192498.6993894184</c:v>
                 </c:pt>
                 <c:pt idx="57">
-                  <c:v>1192498.7002039824</c:v>
+                  <c:v>1192498.6993894184</c:v>
                 </c:pt>
                 <c:pt idx="58">
-                  <c:v>1303371.5132394766</c:v>
+                  <c:v>1303371.5123491783</c:v>
                 </c:pt>
                 <c:pt idx="59">
-                  <c:v>1303371.5132394766</c:v>
+                  <c:v>1303371.5123491783</c:v>
                 </c:pt>
                 <c:pt idx="60">
-                  <c:v>1303371.5132394766</c:v>
+                  <c:v>1303371.5123491783</c:v>
                 </c:pt>
                 <c:pt idx="61">
-                  <c:v>1303371.5132394766</c:v>
+                  <c:v>1303371.5123491783</c:v>
                 </c:pt>
                 <c:pt idx="62">
-                  <c:v>1419172.0068543262</c:v>
+                  <c:v>1419172.0058849275</c:v>
                 </c:pt>
                 <c:pt idx="63">
-                  <c:v>1419172.0068543262</c:v>
+                  <c:v>1419172.0058849275</c:v>
                 </c:pt>
                 <c:pt idx="64">
-                  <c:v>1419172.0068543262</c:v>
+                  <c:v>1419172.0058849275</c:v>
                 </c:pt>
                 <c:pt idx="65">
-                  <c:v>1419172.0068543262</c:v>
+                  <c:v>1419172.0058849275</c:v>
                 </c:pt>
                 <c:pt idx="66">
-                  <c:v>1539900.1810485311</c:v>
+                  <c:v>1539900.179996666</c:v>
                 </c:pt>
                 <c:pt idx="67">
-                  <c:v>1539900.1810485311</c:v>
+                  <c:v>1539900.179996666</c:v>
                 </c:pt>
                 <c:pt idx="68">
-                  <c:v>1539900.1810485311</c:v>
+                  <c:v>1539900.179996666</c:v>
                 </c:pt>
                 <c:pt idx="69">
-                  <c:v>1539900.1810485311</c:v>
+                  <c:v>1539900.179996666</c:v>
                 </c:pt>
                 <c:pt idx="70">
-                  <c:v>1614702.3722431443</c:v>
+                  <c:v>1614702.3711401841</c:v>
                 </c:pt>
                 <c:pt idx="71">
-                  <c:v>1614702.3722431443</c:v>
+                  <c:v>1614702.3711401841</c:v>
                 </c:pt>
                 <c:pt idx="72">
-                  <c:v>1665556.0358220912</c:v>
+                  <c:v>1665556.034684394</c:v>
                 </c:pt>
                 <c:pt idx="73">
-                  <c:v>1665556.0358220912</c:v>
+                  <c:v>1665556.034684394</c:v>
                 </c:pt>
                 <c:pt idx="74">
-                  <c:v>1796139.5711750065</c:v>
+                  <c:v>1796139.5699481114</c:v>
                 </c:pt>
                 <c:pt idx="75">
-                  <c:v>1796139.5711750065</c:v>
+                  <c:v>1796139.5699481114</c:v>
                 </c:pt>
                 <c:pt idx="76">
-                  <c:v>1931650.7871072772</c:v>
+                  <c:v>1931650.785787818</c:v>
                 </c:pt>
                 <c:pt idx="77">
-                  <c:v>1931650.7871072772</c:v>
+                  <c:v>1931650.785787818</c:v>
                 </c:pt>
                 <c:pt idx="78">
-                  <c:v>2072089.6836189034</c:v>
+                  <c:v>2072089.682203514</c:v>
                 </c:pt>
                 <c:pt idx="79">
-                  <c:v>2072089.6836189034</c:v>
+                  <c:v>2072089.682203514</c:v>
                 </c:pt>
                 <c:pt idx="80">
-                  <c:v>2217456.2607098846</c:v>
+                  <c:v>2217456.2591951992</c:v>
                 </c:pt>
                 <c:pt idx="81">
-                  <c:v>2217456.2607098846</c:v>
+                  <c:v>2217456.2591951992</c:v>
                 </c:pt>
                 <c:pt idx="82">
-                  <c:v>2367750.5183802214</c:v>
+                  <c:v>2367750.5167628736</c:v>
                 </c:pt>
                 <c:pt idx="83">
-                  <c:v>2367750.5183802214</c:v>
+                  <c:v>2367750.5167628736</c:v>
                 </c:pt>
                 <c:pt idx="84">
-                  <c:v>2522972.4566299133</c:v>
+                  <c:v>2522972.4549065377</c:v>
                 </c:pt>
                 <c:pt idx="85">
-                  <c:v>2522972.4566299133</c:v>
+                  <c:v>2522972.4549065377</c:v>
                 </c:pt>
                 <c:pt idx="86">
-                  <c:v>2683122.0754589606</c:v>
+                  <c:v>2683122.0736261909</c:v>
                 </c:pt>
                 <c:pt idx="87">
-                  <c:v>2683122.0754589606</c:v>
+                  <c:v>2683122.0736261909</c:v>
                 </c:pt>
                 <c:pt idx="88">
-                  <c:v>2848199.3748673629</c:v>
+                  <c:v>2848199.3729218338</c:v>
                 </c:pt>
                 <c:pt idx="89">
-                  <c:v>2848199.3748673629</c:v>
+                  <c:v>2848199.3729218338</c:v>
                 </c:pt>
                 <c:pt idx="90">
-                  <c:v>3018204.3548551206</c:v>
+                  <c:v>3018204.3527934658</c:v>
                 </c:pt>
                 <c:pt idx="91">
-                  <c:v>3018204.3548551206</c:v>
+                  <c:v>3018204.3527934658</c:v>
                 </c:pt>
                 <c:pt idx="92">
-                  <c:v>3193137.0154222338</c:v>
+                  <c:v>3193137.0132410871</c:v>
                 </c:pt>
                 <c:pt idx="93">
-                  <c:v>3193137.0154222338</c:v>
+                  <c:v>3193137.0132410871</c:v>
                 </c:pt>
                 <c:pt idx="94">
-                  <c:v>3372997.356568702</c:v>
+                  <c:v>3372997.3542646975</c:v>
                 </c:pt>
                 <c:pt idx="95">
-                  <c:v>3372997.356568702</c:v>
+                  <c:v>3372997.3542646975</c:v>
                 </c:pt>
                 <c:pt idx="96">
-                  <c:v>3557785.3782945261</c:v>
+                  <c:v>3557785.3758642976</c:v>
                 </c:pt>
                 <c:pt idx="97">
-                  <c:v>3557785.3782945261</c:v>
+                  <c:v>3557785.3758642976</c:v>
                 </c:pt>
                 <c:pt idx="98">
-                  <c:v>3747501.0805997048</c:v>
+                  <c:v>3747501.0780398869</c:v>
                 </c:pt>
                 <c:pt idx="99">
-                  <c:v>3747501.0805997048</c:v>
+                  <c:v>3747501.0780398869</c:v>
                 </c:pt>
                 <c:pt idx="100">
-                  <c:v>3942144.4634842393</c:v>
+                  <c:v>3942144.4607914654</c:v>
                 </c:pt>
                 <c:pt idx="101">
-                  <c:v>3942144.4634842393</c:v>
+                  <c:v>3942144.4607914654</c:v>
                 </c:pt>
                 <c:pt idx="102">
-                  <c:v>4141715.5269481288</c:v>
+                  <c:v>4141715.524119033</c:v>
                 </c:pt>
                 <c:pt idx="103">
-                  <c:v>4141715.5269481288</c:v>
+                  <c:v>4141715.524119033</c:v>
                 </c:pt>
                 <c:pt idx="104">
-                  <c:v>4346214.2709913738</c:v>
+                  <c:v>4346214.2680225903</c:v>
                 </c:pt>
                 <c:pt idx="105">
-                  <c:v>4346214.2709913738</c:v>
+                  <c:v>4346214.2680225903</c:v>
                 </c:pt>
                 <c:pt idx="106">
-                  <c:v>4555640.6956139738</c:v>
+                  <c:v>4555640.6925021373</c:v>
                 </c:pt>
                 <c:pt idx="107">
-                  <c:v>4555640.6956139738</c:v>
+                  <c:v>4555640.6925021373</c:v>
                 </c:pt>
                 <c:pt idx="108">
-                  <c:v>4769994.8008159297</c:v>
+                  <c:v>4769994.7975576734</c:v>
                 </c:pt>
                 <c:pt idx="109">
-                  <c:v>4769994.8008159297</c:v>
+                  <c:v>4769994.7975576734</c:v>
                 </c:pt>
                 <c:pt idx="110">
-                  <c:v>4989276.5865972405</c:v>
+                  <c:v>4989276.5831891978</c:v>
                 </c:pt>
                 <c:pt idx="111">
-                  <c:v>4989276.5865972405</c:v>
+                  <c:v>4989276.5831891978</c:v>
                 </c:pt>
                 <c:pt idx="112">
-                  <c:v>5213486.0529579064</c:v>
+                  <c:v>5213486.0493967133</c:v>
                 </c:pt>
                 <c:pt idx="113">
-                  <c:v>5213486.0529579064</c:v>
+                  <c:v>5213486.0493967133</c:v>
                 </c:pt>
                 <c:pt idx="114">
-                  <c:v>5442623.1998979282</c:v>
+                  <c:v>5442623.196180217</c:v>
                 </c:pt>
                 <c:pt idx="115">
-                  <c:v>5442623.1998979282</c:v>
+                  <c:v>5442623.196180217</c:v>
                 </c:pt>
                 <c:pt idx="116">
-                  <c:v>5676688.0274173049</c:v>
+                  <c:v>5676688.0235397099</c:v>
                 </c:pt>
                 <c:pt idx="117">
-                  <c:v>5676688.0274173049</c:v>
+                  <c:v>5676688.0235397099</c:v>
                 </c:pt>
                 <c:pt idx="118">
-                  <c:v>5915680.5355160367</c:v>
+                  <c:v>5915680.5314751929</c:v>
                 </c:pt>
                 <c:pt idx="119">
-                  <c:v>5915680.5355160367</c:v>
+                  <c:v>5915680.5314751929</c:v>
                 </c:pt>
                 <c:pt idx="120">
-                  <c:v>6159600.7241941243</c:v>
+                  <c:v>6159600.7199866641</c:v>
                 </c:pt>
                 <c:pt idx="121">
-                  <c:v>6159600.7241941243</c:v>
+                  <c:v>6159600.7199866641</c:v>
                 </c:pt>
                 <c:pt idx="122">
-                  <c:v>6458809.4889725773</c:v>
+                  <c:v>6458809.4845607365</c:v>
                 </c:pt>
                 <c:pt idx="123">
-                  <c:v>6458809.4889725773</c:v>
+                  <c:v>6458809.4845607365</c:v>
                 </c:pt>
                 <c:pt idx="124">
-                  <c:v>9624376.1315533184</c:v>
+                  <c:v>9624376.1249791626</c:v>
                 </c:pt>
                 <c:pt idx="125">
-                  <c:v>9624376.1315533184</c:v>
+                  <c:v>9624376.1249791626</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2123,7 +2123,7 @@
   <dimension ref="A1:G127"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="V12" sqref="V12"/>
+      <selection activeCell="G5" sqref="G5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2162,23 +2162,23 @@
         <v>21</v>
       </c>
       <c r="C2">
-        <f>$G$2*A2^2</f>
-        <v>24.638402896776494</v>
+        <f>($G$2*A2^2)/2</f>
+        <v>24.638402879946657</v>
       </c>
       <c r="D2">
         <f>C2-B2</f>
-        <v>3.6384028967764941</v>
+        <v>3.638402879946657</v>
       </c>
       <c r="E2">
         <f>D2^2</f>
-        <v>13.237975639271584</v>
+        <v>13.237975516804127</v>
       </c>
       <c r="F2">
         <f>SUM(E2:E127)</f>
-        <v>9958771672265.7617</v>
+        <v>9958771672265.7656</v>
       </c>
       <c r="G2">
-        <v>0.24638402896776496</v>
+        <v>0.49276805759893316</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
@@ -2189,16 +2189,16 @@
         <v>21</v>
       </c>
       <c r="C3">
-        <f t="shared" ref="C3:C66" si="0">$G$2*A3^2</f>
-        <v>24.638402896776494</v>
+        <f t="shared" ref="C3:C66" si="0">($G$2*A3^2)/2</f>
+        <v>24.638402879946657</v>
       </c>
       <c r="D3">
         <f t="shared" ref="D3:D66" si="1">C3-B3</f>
-        <v>3.6384028967764941</v>
+        <v>3.638402879946657</v>
       </c>
       <c r="E3">
         <f t="shared" ref="E3:E66" si="2">D3^2</f>
-        <v>13.237975639271584</v>
+        <v>13.237975516804127</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.25">
@@ -2210,15 +2210,15 @@
       </c>
       <c r="C4">
         <f t="shared" si="0"/>
-        <v>24.638402896776494</v>
+        <v>24.638402879946657</v>
       </c>
       <c r="D4">
         <f t="shared" si="1"/>
-        <v>3.6384028967764941</v>
+        <v>3.638402879946657</v>
       </c>
       <c r="E4">
         <f t="shared" si="2"/>
-        <v>13.237975639271584</v>
+        <v>13.237975516804127</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.25">
@@ -2230,15 +2230,15 @@
       </c>
       <c r="C5">
         <f t="shared" si="0"/>
-        <v>24.638402896776494</v>
+        <v>24.638402879946657</v>
       </c>
       <c r="D5">
         <f t="shared" si="1"/>
-        <v>2.6384028967764941</v>
+        <v>2.638402879946657</v>
       </c>
       <c r="E5">
         <f t="shared" si="2"/>
-        <v>6.9611698457185955</v>
+        <v>6.961169756910814</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.25">
@@ -2250,15 +2250,15 @@
       </c>
       <c r="C6">
         <f t="shared" si="0"/>
-        <v>98.553611587105976</v>
+        <v>98.553611519786628</v>
       </c>
       <c r="D6">
         <f t="shared" si="1"/>
-        <v>14.553611587105976</v>
+        <v>14.553611519786628</v>
       </c>
       <c r="E6">
         <f t="shared" si="2"/>
-        <v>211.80761022834534</v>
+        <v>211.80760826886603</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.25">
@@ -2270,15 +2270,15 @@
       </c>
       <c r="C7">
         <f t="shared" si="0"/>
-        <v>98.553611587105976</v>
+        <v>98.553611519786628</v>
       </c>
       <c r="D7">
         <f t="shared" si="1"/>
-        <v>10.553611587105976</v>
+        <v>10.553611519786628</v>
       </c>
       <c r="E7">
         <f t="shared" si="2"/>
-        <v>111.37871753149753</v>
+        <v>111.37871611057302</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.25">
@@ -2290,15 +2290,15 @@
       </c>
       <c r="C8">
         <f t="shared" si="0"/>
-        <v>394.21444634842391</v>
+        <v>394.21444607914651</v>
       </c>
       <c r="D8">
         <f t="shared" si="1"/>
-        <v>43.214446348423905</v>
+        <v>43.214446079146512</v>
       </c>
       <c r="E8">
         <f t="shared" si="2"/>
-        <v>1867.4883732008082</v>
+        <v>1867.4883499274613</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.25">
@@ -2310,15 +2310,15 @@
       </c>
       <c r="C9">
         <f t="shared" si="0"/>
-        <v>394.21444634842391</v>
+        <v>394.21444607914651</v>
       </c>
       <c r="D9">
         <f t="shared" si="1"/>
-        <v>13.214446348423905</v>
+        <v>13.214446079146512</v>
       </c>
       <c r="E9">
         <f t="shared" si="2"/>
-        <v>174.62159229537389</v>
+        <v>174.62158517867061</v>
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.25">
@@ -2330,15 +2330,15 @@
       </c>
       <c r="C10">
         <f t="shared" si="0"/>
-        <v>615.96007241941243</v>
+        <v>615.96007199866642</v>
       </c>
       <c r="D10">
         <f t="shared" si="1"/>
-        <v>0.96007241941242683</v>
+        <v>0.96007199866642168</v>
       </c>
       <c r="E10">
         <f t="shared" si="2"/>
-        <v>0.92173905051643079</v>
+        <v>0.92173824262333759</v>
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.25">
@@ -2350,15 +2350,15 @@
       </c>
       <c r="C11">
         <f t="shared" si="0"/>
-        <v>615.96007241941243</v>
+        <v>615.96007199866642</v>
       </c>
       <c r="D11">
         <f t="shared" si="1"/>
-        <v>-6.0399275805875732</v>
+        <v>-6.0399280013335783</v>
       </c>
       <c r="E11">
         <f t="shared" si="2"/>
-        <v>36.480725178742453</v>
+        <v>36.480730261293431</v>
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.25">
@@ -2370,15 +2370,15 @@
       </c>
       <c r="C12">
         <f t="shared" si="0"/>
-        <v>1576.8577853936956</v>
+        <v>1576.857784316586</v>
       </c>
       <c r="D12">
         <f t="shared" si="1"/>
-        <v>45.857785393695622</v>
+        <v>45.857784316586049</v>
       </c>
       <c r="E12">
         <f t="shared" si="2"/>
-        <v>2102.9364812142435</v>
+        <v>2102.9363824265251</v>
       </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.25">
@@ -2390,15 +2390,15 @@
       </c>
       <c r="C13">
         <f t="shared" si="0"/>
-        <v>1576.8577853936956</v>
+        <v>1576.857784316586</v>
       </c>
       <c r="D13">
         <f t="shared" si="1"/>
-        <v>80.857785393695622</v>
+        <v>80.857784316586049</v>
       </c>
       <c r="E13">
         <f t="shared" si="2"/>
-        <v>6537.981458772937</v>
+        <v>6537.9812845875485</v>
       </c>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.25">
@@ -2410,15 +2410,15 @@
       </c>
       <c r="C14">
         <f t="shared" si="0"/>
-        <v>6307.4311415747825</v>
+        <v>6307.4311372663442</v>
       </c>
       <c r="D14">
         <f t="shared" si="1"/>
-        <v>236.43114157478249</v>
+        <v>236.43113726634419</v>
       </c>
       <c r="E14">
         <f t="shared" si="2"/>
-        <v>55899.684706354841</v>
+        <v>55899.682669056892</v>
       </c>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.25">
@@ -2430,15 +2430,15 @@
       </c>
       <c r="C15">
         <f t="shared" si="0"/>
-        <v>6307.4311415747825</v>
+        <v>6307.4311372663442</v>
       </c>
       <c r="D15">
         <f t="shared" si="1"/>
-        <v>214.43114157478249</v>
+        <v>214.43113726634419</v>
       </c>
       <c r="E15">
         <f t="shared" si="2"/>
-        <v>45980.714477064408</v>
+        <v>45980.712629337744</v>
       </c>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.25">
@@ -2450,15 +2450,15 @@
       </c>
       <c r="C16">
         <f t="shared" si="0"/>
-        <v>15399.00181048531</v>
+        <v>15399.001799966662</v>
       </c>
       <c r="D16">
         <f t="shared" si="1"/>
-        <v>88.001810485309761</v>
+        <v>88.001799966661565</v>
       </c>
       <c r="E16">
         <f t="shared" si="2"/>
-        <v>7744.3186486923751</v>
+        <v>7744.3167973723157</v>
       </c>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.25">
@@ -2470,15 +2470,15 @@
       </c>
       <c r="C17">
         <f t="shared" si="0"/>
-        <v>15399.00181048531</v>
+        <v>15399.001799966662</v>
       </c>
       <c r="D17">
         <f t="shared" si="1"/>
-        <v>41.001810485309761</v>
+        <v>41.001799966661565</v>
       </c>
       <c r="E17">
         <f t="shared" si="2"/>
-        <v>1681.1484630732575</v>
+        <v>1681.1476005061284</v>
       </c>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.25">
@@ -2490,15 +2490,15 @@
       </c>
       <c r="C18">
         <f t="shared" si="0"/>
-        <v>25229.72456629913</v>
+        <v>25229.724549065377</v>
       </c>
       <c r="D18">
         <f t="shared" si="1"/>
-        <v>1453.7245662991299</v>
+        <v>1453.7245490653768</v>
       </c>
       <c r="E18">
         <f t="shared" si="2"/>
-        <v>2113315.1146615935</v>
+        <v>2113315.064555333</v>
       </c>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.25">
@@ -2510,15 +2510,15 @@
       </c>
       <c r="C19">
         <f t="shared" si="0"/>
-        <v>25229.72456629913</v>
+        <v>25229.724549065377</v>
       </c>
       <c r="D19">
         <f t="shared" si="1"/>
-        <v>22824.72456629913</v>
+        <v>22824.724549065377</v>
       </c>
       <c r="E19">
         <f t="shared" si="2"/>
-        <v>520968051.52741903</v>
+        <v>520968050.7407077</v>
       </c>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.25">
@@ -2530,15 +2530,15 @@
       </c>
       <c r="C20">
         <f t="shared" si="0"/>
-        <v>100918.89826519652</v>
+        <v>100918.89819626151</v>
       </c>
       <c r="D20">
         <f t="shared" si="1"/>
-        <v>3805.8982651965198</v>
+        <v>3805.8981962615071</v>
       </c>
       <c r="E20">
         <f t="shared" si="2"/>
-        <v>14484861.605025878</v>
+        <v>14484861.080306593</v>
       </c>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.25">
@@ -2550,15 +2550,15 @@
       </c>
       <c r="C21">
         <f t="shared" si="0"/>
-        <v>100918.89826519652</v>
+        <v>100918.89819626151</v>
       </c>
       <c r="D21">
         <f t="shared" si="1"/>
-        <v>3274.8982651965198</v>
+        <v>3274.8981962615071</v>
       </c>
       <c r="E21">
         <f t="shared" si="2"/>
-        <v>10724958.647387175</v>
+        <v>10724958.195876872</v>
       </c>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.25">
@@ -2570,15 +2570,15 @@
       </c>
       <c r="C22">
         <f t="shared" si="0"/>
-        <v>246384.02896776496</v>
+        <v>246384.02879946659</v>
       </c>
       <c r="D22">
         <f t="shared" si="1"/>
-        <v>-2576.9710322350438</v>
+        <v>-2576.971200533415</v>
       </c>
       <c r="E22">
         <f t="shared" si="2"/>
-        <v>6640779.7009785473</v>
+        <v>6640780.5683786301</v>
       </c>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.25">
@@ -2590,15 +2590,15 @@
       </c>
       <c r="C23">
         <f t="shared" si="0"/>
-        <v>246384.02896776496</v>
+        <v>246384.02879946659</v>
       </c>
       <c r="D23">
         <f t="shared" si="1"/>
-        <v>-2680.9710322350438</v>
+        <v>-2680.971200533415</v>
       </c>
       <c r="E23">
         <f t="shared" si="2"/>
-        <v>7187605.675683436</v>
+        <v>7187606.5780895799</v>
       </c>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.25">
@@ -2610,15 +2610,15 @@
       </c>
       <c r="C24">
         <f t="shared" si="0"/>
-        <v>246384.02896776496</v>
+        <v>246384.02879946659</v>
       </c>
       <c r="D24">
         <f t="shared" si="1"/>
-        <v>-3069.9710322350438</v>
+        <v>-3069.971200533415</v>
       </c>
       <c r="E24">
         <f t="shared" si="2"/>
-        <v>9424722.1387623008</v>
+        <v>9424723.1721045766</v>
       </c>
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.25">
@@ -2630,15 +2630,15 @@
       </c>
       <c r="C25">
         <f t="shared" si="0"/>
-        <v>246384.02896776496</v>
+        <v>246384.02879946659</v>
       </c>
       <c r="D25">
         <f t="shared" si="1"/>
-        <v>221350.02896776496</v>
+        <v>221350.02879946659</v>
       </c>
       <c r="E25">
         <f t="shared" si="2"/>
-        <v>48995835324.030388</v>
+        <v>48995835249.524689</v>
       </c>
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.25">
@@ -2650,15 +2650,15 @@
       </c>
       <c r="C26">
         <f t="shared" si="0"/>
-        <v>298124.6750509956</v>
+        <v>298124.67484735459</v>
       </c>
       <c r="D26">
         <f t="shared" si="1"/>
-        <v>-3058.3249490043963</v>
+        <v>-3058.3251526454114</v>
       </c>
       <c r="E26">
         <f t="shared" si="2"/>
-        <v>9353351.4937027432</v>
+        <v>9353352.7393035796</v>
       </c>
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.25">
@@ -2670,15 +2670,15 @@
       </c>
       <c r="C27">
         <f t="shared" si="0"/>
-        <v>298124.6750509956</v>
+        <v>298124.67484735459</v>
       </c>
       <c r="D27">
         <f t="shared" si="1"/>
-        <v>-2914.3249490043963</v>
+        <v>-2914.3251526454114</v>
       </c>
       <c r="E27">
         <f t="shared" si="2"/>
-        <v>8493289.9083894771</v>
+        <v>8493291.0953417011</v>
       </c>
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.25">
@@ -2690,15 +2690,15 @@
       </c>
       <c r="C28">
         <f t="shared" si="0"/>
-        <v>354793.00171358156</v>
+        <v>354793.00147123187</v>
       </c>
       <c r="D28">
         <f t="shared" si="1"/>
-        <v>-6265.9982864184421</v>
+        <v>-6265.9985287681338</v>
       </c>
       <c r="E28">
         <f t="shared" si="2"/>
-        <v>39262734.52539885</v>
+        <v>39262737.562524416</v>
       </c>
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.25">
@@ -2710,15 +2710,15 @@
       </c>
       <c r="C29">
         <f t="shared" si="0"/>
-        <v>354793.00171358156</v>
+        <v>354793.00147123187</v>
       </c>
       <c r="D29">
         <f t="shared" si="1"/>
-        <v>-3355.9982864184421</v>
+        <v>-3355.9985287681338</v>
       </c>
       <c r="E29">
         <f t="shared" si="2"/>
-        <v>11262724.49844352</v>
+        <v>11262726.125093879</v>
       </c>
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.25">
@@ -2730,15 +2730,15 @@
       </c>
       <c r="C30">
         <f t="shared" si="0"/>
-        <v>384975.04526213277</v>
+        <v>384975.04499916651</v>
       </c>
       <c r="D30">
         <f t="shared" si="1"/>
-        <v>-6672.9547378672287</v>
+        <v>-6672.9550008334918</v>
       </c>
       <c r="E30">
         <f t="shared" si="2"/>
-        <v>44528324.933624692</v>
+        <v>44528328.44314871</v>
       </c>
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.25">
@@ -2750,15 +2750,15 @@
       </c>
       <c r="C31">
         <f t="shared" si="0"/>
-        <v>384975.04526213277</v>
+        <v>384975.04499916651</v>
       </c>
       <c r="D31">
         <f t="shared" si="1"/>
-        <v>-6187.9547378672287</v>
+        <v>-6187.9550008334918</v>
       </c>
       <c r="E31">
         <f t="shared" si="2"/>
-        <v>38290783.837893486</v>
+        <v>38290787.092340216</v>
       </c>
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.25">
@@ -2770,15 +2770,15 @@
       </c>
       <c r="C32">
         <f t="shared" si="0"/>
-        <v>403675.59306078608</v>
+        <v>403675.59278504603</v>
       </c>
       <c r="D32">
         <f t="shared" si="1"/>
-        <v>15619.593060786079</v>
+        <v>15619.592785046028</v>
       </c>
       <c r="E32">
         <f t="shared" si="2"/>
-        <v>243971687.38455665</v>
+        <v>243971678.77066195</v>
       </c>
     </row>
     <row r="33" spans="1:5" x14ac:dyDescent="0.25">
@@ -2790,15 +2790,15 @@
       </c>
       <c r="C33">
         <f t="shared" si="0"/>
-        <v>403675.59306078608</v>
+        <v>403675.59278504603</v>
       </c>
       <c r="D33">
         <f t="shared" si="1"/>
-        <v>12564.593060786079</v>
+        <v>12564.592785046028</v>
       </c>
       <c r="E33">
         <f t="shared" si="2"/>
-        <v>157868998.78315368</v>
+        <v>157868991.8540307</v>
       </c>
     </row>
     <row r="34" spans="1:5" x14ac:dyDescent="0.25">
@@ -2810,15 +2810,15 @@
       </c>
       <c r="C34">
         <f t="shared" si="0"/>
-        <v>416389.00895552279</v>
+        <v>416389.00867109851</v>
       </c>
       <c r="D34">
         <f t="shared" si="1"/>
-        <v>-4217.9910444772104</v>
+        <v>-4217.9913289014949</v>
       </c>
       <c r="E34">
         <f t="shared" si="2"/>
-        <v>17791448.451289948</v>
+        <v>17791450.850688197</v>
       </c>
     </row>
     <row r="35" spans="1:5" x14ac:dyDescent="0.25">
@@ -2830,15 +2830,15 @@
       </c>
       <c r="C35">
         <f t="shared" si="0"/>
-        <v>416389.00895552279</v>
+        <v>416389.00867109851</v>
       </c>
       <c r="D35">
         <f t="shared" si="1"/>
-        <v>-4795.9910444772104</v>
+        <v>-4795.9913289014949</v>
       </c>
       <c r="E35">
         <f t="shared" si="2"/>
-        <v>23001530.098705605</v>
+        <v>23001532.826898325</v>
       </c>
     </row>
     <row r="36" spans="1:5" x14ac:dyDescent="0.25">
@@ -2850,15 +2850,15 @@
       </c>
       <c r="C36">
         <f t="shared" si="0"/>
-        <v>482912.6967768193</v>
+        <v>482912.69644695451</v>
       </c>
       <c r="D36">
         <f t="shared" si="1"/>
-        <v>-9313.303223180701</v>
+        <v>-9313.3035530454945</v>
       </c>
       <c r="E36">
         <f t="shared" si="2"/>
-        <v>86737616.926908031</v>
+        <v>86737623.071169838</v>
       </c>
     </row>
     <row r="37" spans="1:5" x14ac:dyDescent="0.25">
@@ -2870,15 +2870,15 @@
       </c>
       <c r="C37">
         <f t="shared" si="0"/>
-        <v>482912.6967768193</v>
+        <v>482912.69644695451</v>
       </c>
       <c r="D37">
         <f t="shared" si="1"/>
-        <v>-4131.303223180701</v>
+        <v>-4131.3035530454945</v>
       </c>
       <c r="E37">
         <f t="shared" si="2"/>
-        <v>17067666.321863249</v>
+        <v>17067669.047406327</v>
       </c>
     </row>
     <row r="38" spans="1:5" x14ac:dyDescent="0.25">
@@ -2890,15 +2890,15 @@
       </c>
       <c r="C38">
         <f t="shared" si="0"/>
-        <v>554364.06517747114</v>
+        <v>554364.06479879981</v>
       </c>
       <c r="D38">
         <f t="shared" si="1"/>
-        <v>-8558.9348225288559</v>
+        <v>-8558.9352012001909</v>
       </c>
       <c r="E38">
         <f t="shared" si="2"/>
-        <v>73255365.296297058</v>
+        <v>73255371.778343752</v>
       </c>
     </row>
     <row r="39" spans="1:5" x14ac:dyDescent="0.25">
@@ -2910,15 +2910,15 @@
       </c>
       <c r="C39">
         <f t="shared" si="0"/>
-        <v>554364.06517747114</v>
+        <v>554364.06479879981</v>
       </c>
       <c r="D39">
         <f t="shared" si="1"/>
-        <v>-7738.9348225288559</v>
+        <v>-7738.9352012001909</v>
       </c>
       <c r="E39">
         <f t="shared" si="2"/>
-        <v>59891112.187349737</v>
+        <v>59891118.048375443</v>
       </c>
     </row>
     <row r="40" spans="1:5" x14ac:dyDescent="0.25">
@@ -2930,15 +2930,15 @@
       </c>
       <c r="C40">
         <f t="shared" si="0"/>
-        <v>630743.11415747833</v>
+        <v>630743.11372663442</v>
       </c>
       <c r="D40">
         <f t="shared" si="1"/>
-        <v>-7818.8858425216749</v>
+        <v>-7818.8862733655842</v>
       </c>
       <c r="E40">
         <f t="shared" si="2"/>
-        <v>61134975.818385884</v>
+        <v>61134982.555824757</v>
       </c>
     </row>
     <row r="41" spans="1:5" x14ac:dyDescent="0.25">
@@ -2950,15 +2950,15 @@
       </c>
       <c r="C41">
         <f t="shared" si="0"/>
-        <v>630743.11415747833</v>
+        <v>630743.11372663442</v>
       </c>
       <c r="D41">
         <f t="shared" si="1"/>
-        <v>566535.11415747833</v>
+        <v>566535.11372663442</v>
       </c>
       <c r="E41">
         <f t="shared" si="2"/>
-        <v>320962035573.427</v>
+        <v>320962035085.25061</v>
       </c>
     </row>
     <row r="42" spans="1:5" x14ac:dyDescent="0.25">
@@ -2970,15 +2970,15 @@
       </c>
       <c r="C42">
         <f t="shared" si="0"/>
-        <v>712049.84371684073</v>
+        <v>712049.84323045844</v>
       </c>
       <c r="D42">
         <f t="shared" si="1"/>
-        <v>-8449.1562831592746</v>
+        <v>-8449.1567695415579</v>
       </c>
       <c r="E42">
         <f t="shared" si="2"/>
-        <v>71388241.897249848</v>
+        <v>71388250.116289929</v>
       </c>
     </row>
     <row r="43" spans="1:5" x14ac:dyDescent="0.25">
@@ -2990,15 +2990,15 @@
       </c>
       <c r="C43">
         <f t="shared" si="0"/>
-        <v>712049.84371684073</v>
+        <v>712049.84323045844</v>
       </c>
       <c r="D43">
         <f t="shared" si="1"/>
-        <v>-12457.156283159275</v>
+        <v>-12457.156769541558</v>
       </c>
       <c r="E43">
         <f t="shared" si="2"/>
-        <v>155180742.66305459</v>
+        <v>155180754.78093505</v>
       </c>
     </row>
     <row r="44" spans="1:5" x14ac:dyDescent="0.25">
@@ -3010,15 +3010,15 @@
       </c>
       <c r="C44">
         <f t="shared" si="0"/>
-        <v>798284.25385555846</v>
+        <v>798284.25331027177</v>
       </c>
       <c r="D44">
         <f t="shared" si="1"/>
-        <v>-15097.746144441538</v>
+        <v>-15097.746689728228</v>
       </c>
       <c r="E44">
         <f t="shared" si="2"/>
-        <v>227941938.64199933</v>
+        <v>227941955.10719967</v>
       </c>
     </row>
     <row r="45" spans="1:5" x14ac:dyDescent="0.25">
@@ -3030,15 +3030,15 @@
       </c>
       <c r="C45">
         <f t="shared" si="0"/>
-        <v>798284.25385555846</v>
+        <v>798284.25331027177</v>
       </c>
       <c r="D45">
         <f t="shared" si="1"/>
-        <v>-9159.7461444415385</v>
+        <v>-9159.7466897282284</v>
       </c>
       <c r="E45">
         <f t="shared" si="2"/>
-        <v>83900949.430611625</v>
+        <v>83900959.419987231</v>
       </c>
     </row>
     <row r="46" spans="1:5" x14ac:dyDescent="0.25">
@@ -3050,15 +3050,15 @@
       </c>
       <c r="C46">
         <f t="shared" si="0"/>
-        <v>889446.34457363153</v>
+        <v>889446.3439660744</v>
       </c>
       <c r="D46">
         <f t="shared" si="1"/>
-        <v>-7806.6554263684666</v>
+        <v>-7806.6560339255957</v>
       </c>
       <c r="E46">
         <f t="shared" si="2"/>
-        <v>60943868.946048222</v>
+        <v>60943878.432026908</v>
       </c>
     </row>
     <row r="47" spans="1:5" x14ac:dyDescent="0.25">
@@ -3070,15 +3070,15 @@
       </c>
       <c r="C47">
         <f t="shared" si="0"/>
-        <v>889446.34457363153</v>
+        <v>889446.3439660744</v>
       </c>
       <c r="D47">
         <f t="shared" si="1"/>
-        <v>-12031.655426368467</v>
+        <v>-12031.656033925596</v>
       </c>
       <c r="E47">
         <f t="shared" si="2"/>
-        <v>144760732.29886177</v>
+        <v>144760746.91869819</v>
       </c>
     </row>
     <row r="48" spans="1:5" x14ac:dyDescent="0.25">
@@ -3090,15 +3090,15 @@
       </c>
       <c r="C48">
         <f t="shared" si="0"/>
-        <v>985536.11587105982</v>
+        <v>985536.11519786634</v>
       </c>
       <c r="D48">
         <f t="shared" si="1"/>
-        <v>-15220.884128940175</v>
+        <v>-15220.88480213366</v>
       </c>
       <c r="E48">
         <f t="shared" si="2"/>
-        <v>231675313.66662291</v>
+        <v>231675334.15982342</v>
       </c>
     </row>
     <row r="49" spans="1:5" x14ac:dyDescent="0.25">
@@ -3110,15 +3110,15 @@
       </c>
       <c r="C49">
         <f t="shared" si="0"/>
-        <v>985536.11587105982</v>
+        <v>985536.11519786634</v>
       </c>
       <c r="D49">
         <f t="shared" si="1"/>
-        <v>-9379.8841289401753</v>
+        <v>-9379.8848021336598</v>
       </c>
       <c r="E49">
         <f t="shared" si="2"/>
-        <v>87982226.272343785</v>
+        <v>87982238.901298001</v>
       </c>
     </row>
     <row r="50" spans="1:5" x14ac:dyDescent="0.25">
@@ -3130,15 +3130,15 @@
       </c>
       <c r="C50">
         <f t="shared" si="0"/>
-        <v>985536.11587105982</v>
+        <v>985536.11519786634</v>
       </c>
       <c r="D50">
         <f t="shared" si="1"/>
-        <v>-13535.884128940175</v>
+        <v>-13535.88480213366</v>
       </c>
       <c r="E50">
         <f t="shared" si="2"/>
-        <v>183220159.15209451</v>
+        <v>183220177.37663299</v>
       </c>
     </row>
     <row r="51" spans="1:5" x14ac:dyDescent="0.25">
@@ -3150,15 +3150,15 @@
       </c>
       <c r="C51">
         <f t="shared" si="0"/>
-        <v>985536.11587105982</v>
+        <v>985536.11519786634</v>
       </c>
       <c r="D51">
         <f t="shared" si="1"/>
-        <v>-17165.884128940175</v>
+        <v>-17165.88480213366</v>
       </c>
       <c r="E51">
         <f t="shared" si="2"/>
-        <v>294667577.92820019</v>
+        <v>294667601.04012334</v>
       </c>
     </row>
     <row r="52" spans="1:5" x14ac:dyDescent="0.25">
@@ -3170,15 +3170,15 @@
       </c>
       <c r="C52">
         <f t="shared" si="0"/>
-        <v>1086553.5677478435</v>
+        <v>1086553.5670056476</v>
       </c>
       <c r="D52">
         <f t="shared" si="1"/>
-        <v>-10505.432252156548</v>
+        <v>-10505.432994352421</v>
       </c>
       <c r="E52">
         <f t="shared" si="2"/>
-        <v>110364106.80465101</v>
+        <v>110364122.39882848</v>
       </c>
     </row>
     <row r="53" spans="1:5" x14ac:dyDescent="0.25">
@@ -3190,15 +3190,15 @@
       </c>
       <c r="C53">
         <f t="shared" si="0"/>
-        <v>1086553.5677478435</v>
+        <v>1086553.5670056476</v>
       </c>
       <c r="D53">
         <f t="shared" si="1"/>
-        <v>-11649.432252156548</v>
+        <v>-11649.432994352421</v>
       </c>
       <c r="E53">
         <f t="shared" si="2"/>
-        <v>135709271.79758519</v>
+        <v>135709289.08990681</v>
       </c>
     </row>
     <row r="54" spans="1:5" x14ac:dyDescent="0.25">
@@ -3210,15 +3210,15 @@
       </c>
       <c r="C54">
         <f t="shared" si="0"/>
-        <v>1086553.5677478435</v>
+        <v>1086553.5670056476</v>
       </c>
       <c r="D54">
         <f t="shared" si="1"/>
-        <v>976482.56774784345</v>
+        <v>976482.56700564758</v>
       </c>
       <c r="E54">
         <f t="shared" si="2"/>
-        <v>953518205115.42163</v>
+        <v>953518203665.93896</v>
       </c>
     </row>
     <row r="55" spans="1:5" x14ac:dyDescent="0.25">
@@ -3230,15 +3230,15 @@
       </c>
       <c r="C55">
         <f t="shared" si="0"/>
-        <v>1086553.5677478435</v>
+        <v>1086553.5670056476</v>
       </c>
       <c r="D55">
         <f t="shared" si="1"/>
-        <v>-18163.432252156548</v>
+        <v>-18163.432994352421</v>
       </c>
       <c r="E55">
         <f t="shared" si="2"/>
-        <v>329910271.17868072</v>
+        <v>329910298.14033014</v>
       </c>
     </row>
     <row r="56" spans="1:5" x14ac:dyDescent="0.25">
@@ -3250,15 +3250,15 @@
       </c>
       <c r="C56">
         <f t="shared" si="0"/>
-        <v>1192498.7002039824</v>
+        <v>1192498.6993894184</v>
       </c>
       <c r="D56">
         <f t="shared" si="1"/>
-        <v>-18199.299796017585</v>
+        <v>-18199.300610581646</v>
       </c>
       <c r="E56">
         <f t="shared" si="2"/>
-        <v>331214513.06532574</v>
+        <v>331214542.71431744</v>
       </c>
     </row>
     <row r="57" spans="1:5" x14ac:dyDescent="0.25">
@@ -3270,15 +3270,15 @@
       </c>
       <c r="C57">
         <f t="shared" si="0"/>
-        <v>1192498.7002039824</v>
+        <v>1192498.6993894184</v>
       </c>
       <c r="D57">
         <f t="shared" si="1"/>
-        <v>-22960.299796017585</v>
+        <v>-22960.300610581646</v>
       </c>
       <c r="E57">
         <f t="shared" si="2"/>
-        <v>527175366.72300518</v>
+        <v>527175404.12827587</v>
       </c>
     </row>
     <row r="58" spans="1:5" x14ac:dyDescent="0.25">
@@ -3290,15 +3290,15 @@
       </c>
       <c r="C58">
         <f t="shared" si="0"/>
-        <v>1192498.7002039824</v>
+        <v>1192498.6993894184</v>
       </c>
       <c r="D58">
         <f t="shared" si="1"/>
-        <v>-14946.299796017585</v>
+        <v>-14946.300610581646</v>
       </c>
       <c r="E58">
         <f t="shared" si="2"/>
-        <v>223391877.5924353</v>
+        <v>223391901.94187328</v>
       </c>
     </row>
     <row r="59" spans="1:5" x14ac:dyDescent="0.25">
@@ -3310,15 +3310,15 @@
       </c>
       <c r="C59">
         <f t="shared" si="0"/>
-        <v>1192498.7002039824</v>
+        <v>1192498.6993894184</v>
       </c>
       <c r="D59">
         <f t="shared" si="1"/>
-        <v>-19583.299796017585</v>
+        <v>-19583.300610581646</v>
       </c>
       <c r="E59">
         <f t="shared" si="2"/>
-        <v>383505630.90070242</v>
+        <v>383505662.80440748</v>
       </c>
     </row>
     <row r="60" spans="1:5" x14ac:dyDescent="0.25">
@@ -3330,15 +3330,15 @@
       </c>
       <c r="C60">
         <f t="shared" si="0"/>
-        <v>1303371.5132394766</v>
+        <v>1303371.5123491783</v>
       </c>
       <c r="D60">
         <f t="shared" si="1"/>
-        <v>-15861.486760523403</v>
+        <v>-15861.487650821684</v>
       </c>
       <c r="E60">
         <f t="shared" si="2"/>
-        <v>251586762.2542592</v>
+        <v>251586790.49716878</v>
       </c>
     </row>
     <row r="61" spans="1:5" x14ac:dyDescent="0.25">
@@ -3350,15 +3350,15 @@
       </c>
       <c r="C61">
         <f t="shared" si="0"/>
-        <v>1303371.5132394766</v>
+        <v>1303371.5123491783</v>
       </c>
       <c r="D61">
         <f t="shared" si="1"/>
-        <v>-16559.486760523403</v>
+        <v>-16559.487650821684</v>
       </c>
       <c r="E61">
         <f t="shared" si="2"/>
-        <v>274216601.77194989</v>
+        <v>274216631.25771588</v>
       </c>
     </row>
     <row r="62" spans="1:5" x14ac:dyDescent="0.25">
@@ -3370,15 +3370,15 @@
       </c>
       <c r="C62">
         <f t="shared" si="0"/>
-        <v>1303371.5132394766</v>
+        <v>1303371.5123491783</v>
       </c>
       <c r="D62">
         <f t="shared" si="1"/>
-        <v>-19205.486760523403</v>
+        <v>-19205.487650821684</v>
       </c>
       <c r="E62">
         <f t="shared" si="2"/>
-        <v>368850721.70863974</v>
+        <v>368850755.90586418</v>
       </c>
     </row>
     <row r="63" spans="1:5" x14ac:dyDescent="0.25">
@@ -3390,15 +3390,15 @@
       </c>
       <c r="C63">
         <f t="shared" si="0"/>
-        <v>1303371.5132394766</v>
+        <v>1303371.5123491783</v>
       </c>
       <c r="D63">
         <f t="shared" si="1"/>
-        <v>-7202.4867605234031</v>
+        <v>-7202.4876508216839</v>
       </c>
       <c r="E63">
         <f t="shared" si="2"/>
-        <v>51875815.535514906</v>
+        <v>51875828.360238858</v>
       </c>
     </row>
     <row r="64" spans="1:5" x14ac:dyDescent="0.25">
@@ -3410,15 +3410,15 @@
       </c>
       <c r="C64">
         <f t="shared" si="0"/>
-        <v>1419172.0068543262</v>
+        <v>1419172.0058849275</v>
       </c>
       <c r="D64">
         <f t="shared" si="1"/>
-        <v>-14107.993145673769</v>
+        <v>-14107.994115072535</v>
       </c>
       <c r="E64">
         <f t="shared" si="2"/>
-        <v>199035470.59837803</v>
+        <v>199035497.9509213</v>
       </c>
     </row>
     <row r="65" spans="1:5" x14ac:dyDescent="0.25">
@@ -3430,15 +3430,15 @@
       </c>
       <c r="C65">
         <f t="shared" si="0"/>
-        <v>1419172.0068543262</v>
+        <v>1419172.0058849275</v>
       </c>
       <c r="D65">
         <f t="shared" si="1"/>
-        <v>-12749.993145673769</v>
+        <v>-12749.994115072535</v>
       </c>
       <c r="E65">
         <f t="shared" si="2"/>
-        <v>162562325.21472809</v>
+        <v>162562349.93438429</v>
       </c>
     </row>
     <row r="66" spans="1:5" x14ac:dyDescent="0.25">
@@ -3450,15 +3450,15 @@
       </c>
       <c r="C66">
         <f t="shared" si="0"/>
-        <v>1419172.0068543262</v>
+        <v>1419172.0058849275</v>
       </c>
       <c r="D66">
         <f t="shared" si="1"/>
-        <v>-25634.993145673769</v>
+        <v>-25634.994115072535</v>
       </c>
       <c r="E66">
         <f t="shared" si="2"/>
-        <v>657152873.57874107</v>
+        <v>657152923.27980351</v>
       </c>
     </row>
     <row r="67" spans="1:5" x14ac:dyDescent="0.25">
@@ -3469,16 +3469,16 @@
         <v>1446073</v>
       </c>
       <c r="C67">
-        <f t="shared" ref="C67:C127" si="3">$G$2*A67^2</f>
-        <v>1419172.0068543262</v>
+        <f t="shared" ref="C67:C127" si="3">($G$2*A67^2)/2</f>
+        <v>1419172.0058849275</v>
       </c>
       <c r="D67">
         <f t="shared" ref="D67:D127" si="4">C67-B67</f>
-        <v>-26900.993145673769</v>
+        <v>-26900.994115072535</v>
       </c>
       <c r="E67">
         <f t="shared" ref="E67:E127" si="5">D67^2</f>
-        <v>723663432.22358704</v>
+        <v>723663484.3791672</v>
       </c>
     </row>
     <row r="68" spans="1:5" x14ac:dyDescent="0.25">
@@ -3490,15 +3490,15 @@
       </c>
       <c r="C68">
         <f t="shared" si="3"/>
-        <v>1539900.1810485311</v>
+        <v>1539900.179996666</v>
       </c>
       <c r="D68">
         <f t="shared" si="4"/>
-        <v>-17935.818951468915</v>
+        <v>-17935.820003333967</v>
       </c>
       <c r="E68">
         <f t="shared" si="5"/>
-        <v>321693601.45987147</v>
+        <v>321693639.19199485</v>
       </c>
     </row>
     <row r="69" spans="1:5" x14ac:dyDescent="0.25">
@@ -3510,15 +3510,15 @@
       </c>
       <c r="C69">
         <f t="shared" si="3"/>
-        <v>1539900.1810485311</v>
+        <v>1539900.179996666</v>
       </c>
       <c r="D69">
         <f t="shared" si="4"/>
-        <v>-19103.818951468915</v>
+        <v>-19103.820003333967</v>
       </c>
       <c r="E69">
         <f t="shared" si="5"/>
-        <v>364955898.53050286</v>
+        <v>364955938.71978301</v>
       </c>
     </row>
     <row r="70" spans="1:5" x14ac:dyDescent="0.25">
@@ -3530,15 +3530,15 @@
       </c>
       <c r="C70">
         <f t="shared" si="3"/>
-        <v>1539900.1810485311</v>
+        <v>1539900.179996666</v>
       </c>
       <c r="D70">
         <f t="shared" si="4"/>
-        <v>-18912.818951468915</v>
+        <v>-18912.820003333967</v>
       </c>
       <c r="E70">
         <f t="shared" si="5"/>
-        <v>357694720.69104177</v>
+        <v>357694760.47850943</v>
       </c>
     </row>
     <row r="71" spans="1:5" x14ac:dyDescent="0.25">
@@ -3550,15 +3550,15 @@
       </c>
       <c r="C71">
         <f t="shared" si="3"/>
-        <v>1539900.1810485311</v>
+        <v>1539900.179996666</v>
       </c>
       <c r="D71">
         <f t="shared" si="4"/>
-        <v>-11338.818951468915</v>
+        <v>-11338.820003333967</v>
       </c>
       <c r="E71">
         <f t="shared" si="5"/>
-        <v>128568815.21419062</v>
+        <v>128568839.0680065</v>
       </c>
     </row>
     <row r="72" spans="1:5" x14ac:dyDescent="0.25">
@@ -3570,15 +3570,15 @@
       </c>
       <c r="C72">
         <f t="shared" si="3"/>
-        <v>1614702.3722431443</v>
+        <v>1614702.3711401841</v>
       </c>
       <c r="D72">
         <f t="shared" si="4"/>
-        <v>43437.372243144317</v>
+        <v>43437.371140184114</v>
       </c>
       <c r="E72">
         <f t="shared" si="5"/>
-        <v>1886805307.3894844</v>
+        <v>1886805211.5700998</v>
       </c>
     </row>
     <row r="73" spans="1:5" x14ac:dyDescent="0.25">
@@ -3590,15 +3590,15 @@
       </c>
       <c r="C73">
         <f t="shared" si="3"/>
-        <v>1614702.3722431443</v>
+        <v>1614702.3711401841</v>
       </c>
       <c r="D73">
         <f t="shared" si="4"/>
-        <v>54095.372243144317</v>
+        <v>54095.371140184114</v>
       </c>
       <c r="E73">
         <f t="shared" si="5"/>
-        <v>2926309298.1243486</v>
+        <v>2926309178.7942643</v>
       </c>
     </row>
     <row r="74" spans="1:5" x14ac:dyDescent="0.25">
@@ -3610,15 +3610,15 @@
       </c>
       <c r="C74">
         <f t="shared" si="3"/>
-        <v>1665556.0358220912</v>
+        <v>1665556.034684394</v>
       </c>
       <c r="D74">
         <f t="shared" si="4"/>
-        <v>-27076.964177908842</v>
+        <v>-27076.965315605979</v>
       </c>
       <c r="E74">
         <f t="shared" si="5"/>
-        <v>733161989.09175861</v>
+        <v>733162050.70252919</v>
       </c>
     </row>
     <row r="75" spans="1:5" x14ac:dyDescent="0.25">
@@ -3630,15 +3630,15 @@
       </c>
       <c r="C75">
         <f t="shared" si="3"/>
-        <v>1665556.0358220912</v>
+        <v>1665556.034684394</v>
       </c>
       <c r="D75">
         <f t="shared" si="4"/>
-        <v>1497034.0358220912</v>
+        <v>1497034.034684394</v>
       </c>
       <c r="E75">
         <f t="shared" si="5"/>
-        <v>2241110904409.7783</v>
+        <v>2241110901003.4355</v>
       </c>
     </row>
     <row r="76" spans="1:5" x14ac:dyDescent="0.25">
@@ -3650,15 +3650,15 @@
       </c>
       <c r="C76">
         <f t="shared" si="3"/>
-        <v>1796139.5711750065</v>
+        <v>1796139.5699481114</v>
       </c>
       <c r="D76">
         <f t="shared" si="4"/>
-        <v>-25645.428824993549</v>
+        <v>-25645.430051888572</v>
       </c>
       <c r="E76">
         <f t="shared" si="5"/>
-        <v>657688019.61781001</v>
+        <v>657688082.54630947</v>
       </c>
     </row>
     <row r="77" spans="1:5" x14ac:dyDescent="0.25">
@@ -3670,15 +3670,15 @@
       </c>
       <c r="C77">
         <f t="shared" si="3"/>
-        <v>1796139.5711750065</v>
+        <v>1796139.5699481114</v>
       </c>
       <c r="D77">
         <f t="shared" si="4"/>
-        <v>1614313.5711750065</v>
+        <v>1614313.5699481114</v>
       </c>
       <c r="E77">
         <f t="shared" si="5"/>
-        <v>2606008306079.8027</v>
+        <v>2606008302118.6162</v>
       </c>
     </row>
     <row r="78" spans="1:5" x14ac:dyDescent="0.25">
@@ -3690,15 +3690,15 @@
       </c>
       <c r="C78">
         <f t="shared" si="3"/>
-        <v>1931650.7871072772</v>
+        <v>1931650.785787818</v>
       </c>
       <c r="D78">
         <f t="shared" si="4"/>
-        <v>-20341.212892722804</v>
+        <v>-20341.214212181978</v>
       </c>
       <c r="E78">
         <f t="shared" si="5"/>
-        <v>413764941.94707245</v>
+        <v>413764995.6258741</v>
       </c>
     </row>
     <row r="79" spans="1:5" x14ac:dyDescent="0.25">
@@ -3710,15 +3710,15 @@
       </c>
       <c r="C79">
         <f t="shared" si="3"/>
-        <v>1931650.7871072772</v>
+        <v>1931650.785787818</v>
       </c>
       <c r="D79">
         <f t="shared" si="4"/>
-        <v>-37528.212892722804</v>
+        <v>-37528.214212181978</v>
       </c>
       <c r="E79">
         <f t="shared" si="5"/>
-        <v>1408366762.9215262</v>
+        <v>1408366861.9554174</v>
       </c>
     </row>
     <row r="80" spans="1:5" x14ac:dyDescent="0.25">
@@ -3730,15 +3730,15 @@
       </c>
       <c r="C80">
         <f t="shared" si="3"/>
-        <v>2072089.6836189034</v>
+        <v>2072089.682203514</v>
       </c>
       <c r="D80">
         <f t="shared" si="4"/>
-        <v>-20814.316381096607</v>
+        <v>-20814.317796485964</v>
       </c>
       <c r="E80">
         <f t="shared" si="5"/>
-        <v>433235766.41238654</v>
+        <v>433235825.3331123</v>
       </c>
     </row>
     <row r="81" spans="1:5" x14ac:dyDescent="0.25">
@@ -3750,15 +3750,15 @@
       </c>
       <c r="C81">
         <f t="shared" si="3"/>
-        <v>2072089.6836189034</v>
+        <v>2072089.682203514</v>
       </c>
       <c r="D81">
         <f t="shared" si="4"/>
-        <v>1861882.6836189034</v>
+        <v>1861882.682203514</v>
       </c>
       <c r="E81">
         <f t="shared" si="5"/>
-        <v>3466607127559.9297</v>
+        <v>3466607122289.3516</v>
       </c>
     </row>
     <row r="82" spans="1:5" x14ac:dyDescent="0.25">
@@ -3770,15 +3770,15 @@
       </c>
       <c r="C82">
         <f t="shared" si="3"/>
-        <v>2217456.2607098846</v>
+        <v>2217456.2591951992</v>
       </c>
       <c r="D82">
         <f t="shared" si="4"/>
-        <v>-36994.739290115424</v>
+        <v>-36994.740804800764</v>
       </c>
       <c r="E82">
         <f t="shared" si="5"/>
-        <v>1368610735.1436098</v>
+        <v>1368610847.2143908</v>
       </c>
     </row>
     <row r="83" spans="1:5" x14ac:dyDescent="0.25">
@@ -3790,15 +3790,15 @@
       </c>
       <c r="C83">
         <f t="shared" si="3"/>
-        <v>2217456.2607098846</v>
+        <v>2217456.2591951992</v>
       </c>
       <c r="D83">
         <f t="shared" si="4"/>
-        <v>-33436.739290115424</v>
+        <v>-33436.740804800764</v>
       </c>
       <c r="E83">
         <f t="shared" si="5"/>
-        <v>1118015534.3551486</v>
+        <v>1118015635.6474285</v>
       </c>
     </row>
     <row r="84" spans="1:5" x14ac:dyDescent="0.25">
@@ -3810,15 +3810,15 @@
       </c>
       <c r="C84">
         <f t="shared" si="3"/>
-        <v>2367750.5183802214</v>
+        <v>2367750.5167628736</v>
       </c>
       <c r="D84">
         <f t="shared" si="4"/>
-        <v>-22994.481619778555</v>
+        <v>-22994.483237126376</v>
       </c>
       <c r="E84">
         <f t="shared" si="5"/>
-        <v>528746184.9623338</v>
+        <v>528746259.3424859</v>
       </c>
     </row>
     <row r="85" spans="1:5" x14ac:dyDescent="0.25">
@@ -3830,15 +3830,15 @@
       </c>
       <c r="C85">
         <f t="shared" si="3"/>
-        <v>2367750.5183802214</v>
+        <v>2367750.5167628736</v>
       </c>
       <c r="D85">
         <f t="shared" si="4"/>
-        <v>-42342.481619778555</v>
+        <v>-42342.483237126376</v>
       </c>
       <c r="E85">
         <f t="shared" si="5"/>
-        <v>1792885749.7212849</v>
+        <v>1792885886.6863282</v>
       </c>
     </row>
     <row r="86" spans="1:5" x14ac:dyDescent="0.25">
@@ -3850,15 +3850,15 @@
       </c>
       <c r="C86">
         <f t="shared" si="3"/>
-        <v>2522972.4566299133</v>
+        <v>2522972.4549065377</v>
       </c>
       <c r="D86">
         <f t="shared" si="4"/>
-        <v>-50236.5433700867</v>
+        <v>-50236.545093462337</v>
       </c>
       <c r="E86">
         <f t="shared" si="5"/>
-        <v>2523710289.7746019</v>
+        <v>2523710462.927475</v>
       </c>
     </row>
     <row r="87" spans="1:5" x14ac:dyDescent="0.25">
@@ -3870,15 +3870,15 @@
       </c>
       <c r="C87">
         <f t="shared" si="3"/>
-        <v>2522972.4566299133</v>
+        <v>2522972.4549065377</v>
       </c>
       <c r="D87">
         <f t="shared" si="4"/>
-        <v>-27065.5433700867</v>
+        <v>-27065.545093462337</v>
       </c>
       <c r="E87">
         <f t="shared" si="5"/>
-        <v>732543637.91804409</v>
+        <v>732543731.20624316</v>
       </c>
     </row>
     <row r="88" spans="1:5" x14ac:dyDescent="0.25">
@@ -3890,15 +3890,15 @@
       </c>
       <c r="C88">
         <f t="shared" si="3"/>
-        <v>2683122.0754589606</v>
+        <v>2683122.0736261909</v>
       </c>
       <c r="D88">
         <f t="shared" si="4"/>
-        <v>-41216.924541039392</v>
+        <v>-41216.92637380911</v>
       </c>
       <c r="E88">
         <f t="shared" si="5"/>
-        <v>1698834868.6217353</v>
+        <v>1698835019.7040009</v>
       </c>
     </row>
     <row r="89" spans="1:5" x14ac:dyDescent="0.25">
@@ -3910,15 +3910,15 @@
       </c>
       <c r="C89">
         <f t="shared" si="3"/>
-        <v>2683122.0754589606</v>
+        <v>2683122.0736261909</v>
       </c>
       <c r="D89">
         <f t="shared" si="4"/>
-        <v>-12224.924541039392</v>
+        <v>-12224.92637380911</v>
       </c>
       <c r="E89">
         <f t="shared" si="5"/>
-        <v>149448780.03410721</v>
+        <v>149448824.84505355</v>
       </c>
     </row>
     <row r="90" spans="1:5" x14ac:dyDescent="0.25">
@@ -3930,15 +3930,15 @@
       </c>
       <c r="C90">
         <f t="shared" si="3"/>
-        <v>2848199.3748673629</v>
+        <v>2848199.3729218338</v>
       </c>
       <c r="D90">
         <f t="shared" si="4"/>
-        <v>-31027.625132637098</v>
+        <v>-31027.627078166232</v>
       </c>
       <c r="E90">
         <f t="shared" si="5"/>
-        <v>962713521.37145329</v>
+        <v>962713642.10175431</v>
       </c>
     </row>
     <row r="91" spans="1:5" x14ac:dyDescent="0.25">
@@ -3950,15 +3950,15 @@
       </c>
       <c r="C91">
         <f t="shared" si="3"/>
-        <v>2848199.3748673629</v>
+        <v>2848199.3729218338</v>
       </c>
       <c r="D91">
         <f t="shared" si="4"/>
-        <v>-36467.625132637098</v>
+        <v>-36467.627078166232</v>
       </c>
       <c r="E91">
         <f t="shared" si="5"/>
-        <v>1329887682.8145449</v>
+        <v>1329887824.712203</v>
       </c>
     </row>
     <row r="92" spans="1:5" x14ac:dyDescent="0.25">
@@ -3970,15 +3970,15 @@
       </c>
       <c r="C92">
         <f t="shared" si="3"/>
-        <v>3018204.3548551206</v>
+        <v>3018204.3527934658</v>
       </c>
       <c r="D92">
         <f t="shared" si="4"/>
-        <v>-33464.645144879352</v>
+        <v>-33464.647206534166</v>
       </c>
       <c r="E92">
         <f t="shared" si="5"/>
-        <v>1119882474.6726973</v>
+        <v>1119882612.657795</v>
       </c>
     </row>
     <row r="93" spans="1:5" x14ac:dyDescent="0.25">
@@ -3990,15 +3990,15 @@
       </c>
       <c r="C93">
         <f t="shared" si="3"/>
-        <v>3018204.3548551206</v>
+        <v>3018204.3527934658</v>
       </c>
       <c r="D93">
         <f t="shared" si="4"/>
-        <v>-43986.645144879352</v>
+        <v>-43986.647206534166</v>
       </c>
       <c r="E93">
         <f t="shared" si="5"/>
-        <v>1934824951.1015382</v>
+        <v>1934825132.4721</v>
       </c>
     </row>
     <row r="94" spans="1:5" x14ac:dyDescent="0.25">
@@ -4010,15 +4010,15 @@
       </c>
       <c r="C94">
         <f t="shared" si="3"/>
-        <v>3193137.0154222338</v>
+        <v>3193137.0132410871</v>
       </c>
       <c r="D94">
         <f t="shared" si="4"/>
-        <v>-43789.984577766154</v>
+        <v>-43789.986758912914</v>
       </c>
       <c r="E94">
         <f t="shared" si="5"/>
-        <v>1917562749.3209977</v>
+        <v>1917562940.3457682</v>
       </c>
     </row>
     <row r="95" spans="1:5" x14ac:dyDescent="0.25">
@@ -4030,15 +4030,15 @@
       </c>
       <c r="C95">
         <f t="shared" si="3"/>
-        <v>3193137.0154222338</v>
+        <v>3193137.0132410871</v>
       </c>
       <c r="D95">
         <f t="shared" si="4"/>
-        <v>-49165.984577766154</v>
+        <v>-49165.986758912914</v>
       </c>
       <c r="E95">
         <f t="shared" si="5"/>
-        <v>2417294039.5011392</v>
+        <v>2417294253.9776001</v>
       </c>
     </row>
     <row r="96" spans="1:5" x14ac:dyDescent="0.25">
@@ -4050,15 +4050,15 @@
       </c>
       <c r="C96">
         <f t="shared" si="3"/>
-        <v>3372997.356568702</v>
+        <v>3372997.3542646975</v>
       </c>
       <c r="D96">
         <f t="shared" si="4"/>
-        <v>-45046.643431297969</v>
+        <v>-45046.645735302474</v>
       </c>
       <c r="E96">
         <f t="shared" si="5"/>
-        <v>2029200084.4265006</v>
+        <v>2029200292.0018446</v>
       </c>
     </row>
     <row r="97" spans="1:5" x14ac:dyDescent="0.25">
@@ -4070,15 +4070,15 @@
       </c>
       <c r="C97">
         <f t="shared" si="3"/>
-        <v>3372997.356568702</v>
+        <v>3372997.3542646975</v>
       </c>
       <c r="D97">
         <f t="shared" si="4"/>
-        <v>-56555.643431297969</v>
+        <v>-56555.645735302474</v>
       </c>
       <c r="E97">
         <f t="shared" si="5"/>
-        <v>3198540803.9281173</v>
+        <v>3198541064.5370369</v>
       </c>
     </row>
     <row r="98" spans="1:5" x14ac:dyDescent="0.25">
@@ -4090,15 +4090,15 @@
       </c>
       <c r="C98">
         <f t="shared" si="3"/>
-        <v>3557785.3782945261</v>
+        <v>3557785.3758642976</v>
       </c>
       <c r="D98">
         <f t="shared" si="4"/>
-        <v>-53904.621705473866</v>
+        <v>-53904.624135702383</v>
       </c>
       <c r="E98">
         <f t="shared" si="5"/>
-        <v>2905708241.2102442</v>
+        <v>2905708503.2113481</v>
       </c>
     </row>
     <row r="99" spans="1:5" x14ac:dyDescent="0.25">
@@ -4110,15 +4110,15 @@
       </c>
       <c r="C99">
         <f t="shared" si="3"/>
-        <v>3557785.3782945261</v>
+        <v>3557785.3758642976</v>
       </c>
       <c r="D99">
         <f t="shared" si="4"/>
-        <v>-33771.621705473866</v>
+        <v>-33771.624135702383</v>
       </c>
       <c r="E99">
         <f t="shared" si="5"/>
-        <v>1140522432.6176336</v>
+        <v>1140522596.7631557</v>
       </c>
     </row>
     <row r="100" spans="1:5" x14ac:dyDescent="0.25">
@@ -4130,15 +4130,15 @@
       </c>
       <c r="C100">
         <f t="shared" si="3"/>
-        <v>3747501.0805997048</v>
+        <v>3747501.0780398869</v>
       </c>
       <c r="D100">
         <f t="shared" si="4"/>
-        <v>-51470.919400295243</v>
+        <v>-51470.921960113104</v>
       </c>
       <c r="E100">
         <f t="shared" si="5"/>
-        <v>2649255543.9116893</v>
+        <v>2649255807.4240532</v>
       </c>
     </row>
     <row r="101" spans="1:5" x14ac:dyDescent="0.25">
@@ -4150,15 +4150,15 @@
       </c>
       <c r="C101">
         <f t="shared" si="3"/>
-        <v>3747501.0805997048</v>
+        <v>3747501.0780398869</v>
       </c>
       <c r="D101">
         <f t="shared" si="4"/>
-        <v>-60739.919400295243</v>
+        <v>-60739.921960113104</v>
       </c>
       <c r="E101">
         <f t="shared" si="5"/>
-        <v>3689337808.7543626</v>
+        <v>3689338119.7206302</v>
       </c>
     </row>
     <row r="102" spans="1:5" x14ac:dyDescent="0.25">
@@ -4170,15 +4170,15 @@
       </c>
       <c r="C102">
         <f t="shared" si="3"/>
-        <v>3942144.4634842393</v>
+        <v>3942144.4607914654</v>
       </c>
       <c r="D102">
         <f t="shared" si="4"/>
-        <v>-46659.536515760701</v>
+        <v>-46659.539208534639</v>
       </c>
       <c r="E102">
         <f t="shared" si="5"/>
-        <v>2177112347.8656063</v>
+        <v>2177112599.1527815</v>
       </c>
     </row>
     <row r="103" spans="1:5" x14ac:dyDescent="0.25">
@@ -4190,15 +4190,15 @@
       </c>
       <c r="C103">
         <f t="shared" si="3"/>
-        <v>3942144.4634842393</v>
+        <v>3942144.4607914654</v>
       </c>
       <c r="D103">
         <f t="shared" si="4"/>
-        <v>-68514.536515760701</v>
+        <v>-68514.539208534639</v>
       </c>
       <c r="E103">
         <f t="shared" si="5"/>
-        <v>4694241713.9695063</v>
+        <v>4694242082.9578304</v>
       </c>
     </row>
     <row r="104" spans="1:5" x14ac:dyDescent="0.25">
@@ -4210,15 +4210,15 @@
       </c>
       <c r="C104">
         <f t="shared" si="3"/>
-        <v>4141715.5269481288</v>
+        <v>4141715.524119033</v>
       </c>
       <c r="D104">
         <f t="shared" si="4"/>
-        <v>-50751.473051871173</v>
+        <v>-50751.475880966987</v>
       </c>
       <c r="E104">
         <f t="shared" si="5"/>
-        <v>2575712016.9348059</v>
+        <v>2575712304.096374</v>
       </c>
     </row>
     <row r="105" spans="1:5" x14ac:dyDescent="0.25">
@@ -4230,15 +4230,15 @@
       </c>
       <c r="C105">
         <f t="shared" si="3"/>
-        <v>4141715.5269481288</v>
+        <v>4141715.524119033</v>
       </c>
       <c r="D105">
         <f t="shared" si="4"/>
-        <v>-64436.473051871173</v>
+        <v>-64436.475880966987</v>
       </c>
       <c r="E105">
         <f t="shared" si="5"/>
-        <v>4152059059.3645201</v>
+        <v>4152059423.9584403</v>
       </c>
     </row>
     <row r="106" spans="1:5" x14ac:dyDescent="0.25">
@@ -4250,15 +4250,15 @@
       </c>
       <c r="C106">
         <f t="shared" si="3"/>
-        <v>4346214.2709913738</v>
+        <v>4346214.2680225903</v>
       </c>
       <c r="D106">
         <f t="shared" si="4"/>
-        <v>-68017.729008626193</v>
+        <v>-68017.731977409683</v>
       </c>
       <c r="E106">
         <f t="shared" si="5"/>
-        <v>4626411459.4909086</v>
+        <v>4626411863.3507395</v>
       </c>
     </row>
     <row r="107" spans="1:5" x14ac:dyDescent="0.25">
@@ -4270,15 +4270,15 @@
       </c>
       <c r="C107">
         <f t="shared" si="3"/>
-        <v>4346214.2709913738</v>
+        <v>4346214.2680225903</v>
       </c>
       <c r="D107">
         <f t="shared" si="4"/>
-        <v>-80327.729008626193</v>
+        <v>-80327.731977409683</v>
       </c>
       <c r="E107">
         <f t="shared" si="5"/>
-        <v>6452544047.6832857</v>
+        <v>6452544524.6345663</v>
       </c>
     </row>
     <row r="108" spans="1:5" x14ac:dyDescent="0.25">
@@ -4290,15 +4290,15 @@
       </c>
       <c r="C108">
         <f t="shared" si="3"/>
-        <v>4555640.6956139738</v>
+        <v>4555640.6925021373</v>
       </c>
       <c r="D108">
         <f t="shared" si="4"/>
-        <v>-81280.304386026226</v>
+        <v>-81280.307497862726</v>
       </c>
       <c r="E108">
         <f t="shared" si="5"/>
-        <v>6606487881.0850744</v>
+        <v>6606488386.9471197</v>
       </c>
     </row>
     <row r="109" spans="1:5" x14ac:dyDescent="0.25">
@@ -4310,15 +4310,15 @@
       </c>
       <c r="C109">
         <f t="shared" si="3"/>
-        <v>4555640.6956139738</v>
+        <v>4555640.6925021373</v>
       </c>
       <c r="D109">
         <f t="shared" si="4"/>
-        <v>-51457.304386026226</v>
+        <v>-51457.307497862726</v>
       </c>
       <c r="E109">
         <f t="shared" si="5"/>
-        <v>2647854174.6761537</v>
+        <v>2647854494.9295998</v>
       </c>
     </row>
     <row r="110" spans="1:5" x14ac:dyDescent="0.25">
@@ -4330,15 +4330,15 @@
       </c>
       <c r="C110">
         <f t="shared" si="3"/>
-        <v>4769994.8008159297</v>
+        <v>4769994.7975576734</v>
       </c>
       <c r="D110">
         <f t="shared" si="4"/>
-        <v>-72735.199184070341</v>
+        <v>-72735.202442326583</v>
       </c>
       <c r="E110">
         <f t="shared" si="5"/>
-        <v>5290409200.3463869</v>
+        <v>5290409674.326231</v>
       </c>
     </row>
     <row r="111" spans="1:5" x14ac:dyDescent="0.25">
@@ -4350,15 +4350,15 @@
       </c>
       <c r="C111">
         <f t="shared" si="3"/>
-        <v>4769994.8008159297</v>
+        <v>4769994.7975576734</v>
       </c>
       <c r="D111">
         <f t="shared" si="4"/>
-        <v>-89630.199184070341</v>
+        <v>-89630.202442326583</v>
       </c>
       <c r="E111">
         <f t="shared" si="5"/>
-        <v>8033572605.776124</v>
+        <v>8033573189.8524466</v>
       </c>
     </row>
     <row r="112" spans="1:5" x14ac:dyDescent="0.25">
@@ -4370,15 +4370,15 @@
       </c>
       <c r="C112">
         <f t="shared" si="3"/>
-        <v>4989276.5865972405</v>
+        <v>4989276.5831891978</v>
       </c>
       <c r="D112">
         <f t="shared" si="4"/>
-        <v>-49957.41340275947</v>
+        <v>-49957.416810802184</v>
       </c>
       <c r="E112">
         <f t="shared" si="5"/>
-        <v>2495743153.8942118</v>
+        <v>2495743494.4082208</v>
       </c>
     </row>
     <row r="113" spans="1:5" x14ac:dyDescent="0.25">
@@ -4390,15 +4390,15 @@
       </c>
       <c r="C113">
         <f t="shared" si="3"/>
-        <v>4989276.5865972405</v>
+        <v>4989276.5831891978</v>
       </c>
       <c r="D113">
         <f t="shared" si="4"/>
-        <v>-75516.41340275947</v>
+        <v>-75516.416810802184</v>
       </c>
       <c r="E113">
         <f t="shared" si="5"/>
-        <v>5702728693.2164698</v>
+        <v>5702729207.9428062</v>
       </c>
     </row>
     <row r="114" spans="1:5" x14ac:dyDescent="0.25">
@@ -4410,15 +4410,15 @@
       </c>
       <c r="C114">
         <f t="shared" si="3"/>
-        <v>5213486.0529579064</v>
+        <v>5213486.0493967133</v>
       </c>
       <c r="D114">
         <f t="shared" si="4"/>
-        <v>-62749.947042093612</v>
+        <v>-62749.950603286736</v>
       </c>
       <c r="E114">
         <f t="shared" si="5"/>
-        <v>3937555853.785553</v>
+        <v>3937556300.7149253</v>
       </c>
     </row>
     <row r="115" spans="1:5" x14ac:dyDescent="0.25">
@@ -4430,15 +4430,15 @@
       </c>
       <c r="C115">
         <f t="shared" si="3"/>
-        <v>5213486.0529579064</v>
+        <v>5213486.0493967133</v>
       </c>
       <c r="D115">
         <f t="shared" si="4"/>
-        <v>-74729.947042093612</v>
+        <v>-74729.950603286736</v>
       </c>
       <c r="E115">
         <f t="shared" si="5"/>
-        <v>5584564984.9141159</v>
+        <v>5584565517.1696758</v>
       </c>
     </row>
     <row r="116" spans="1:5" x14ac:dyDescent="0.25">
@@ -4450,15 +4450,15 @@
       </c>
       <c r="C116">
         <f t="shared" si="3"/>
-        <v>5442623.1998979282</v>
+        <v>5442623.196180217</v>
       </c>
       <c r="D116">
         <f t="shared" si="4"/>
-        <v>-78876.800102071837</v>
+        <v>-78876.803819783032</v>
       </c>
       <c r="E116">
         <f t="shared" si="5"/>
-        <v>6221549594.3421993</v>
+        <v>6221550180.8245392</v>
       </c>
     </row>
     <row r="117" spans="1:5" x14ac:dyDescent="0.25">
@@ -4470,15 +4470,15 @@
       </c>
       <c r="C117">
         <f t="shared" si="3"/>
-        <v>5442623.1998979282</v>
+        <v>5442623.196180217</v>
       </c>
       <c r="D117">
         <f t="shared" si="4"/>
-        <v>-70240.800102071837</v>
+        <v>-70240.803819783032</v>
       </c>
       <c r="E117">
         <f t="shared" si="5"/>
-        <v>4933769998.9792147</v>
+        <v>4933770521.2492466</v>
       </c>
     </row>
     <row r="118" spans="1:5" x14ac:dyDescent="0.25">
@@ -4490,15 +4490,15 @@
       </c>
       <c r="C118">
         <f t="shared" si="3"/>
-        <v>5676688.0274173049</v>
+        <v>5676688.0235397099</v>
       </c>
       <c r="D118">
         <f t="shared" si="4"/>
-        <v>-76740.972582695074</v>
+        <v>-76740.976460290141</v>
       </c>
       <c r="E118">
         <f t="shared" si="5"/>
-        <v>5889176872.9379568</v>
+        <v>5889177468.0788059</v>
       </c>
     </row>
     <row r="119" spans="1:5" x14ac:dyDescent="0.25">
@@ -4510,15 +4510,15 @@
       </c>
       <c r="C119">
         <f t="shared" si="3"/>
-        <v>5676688.0274173049</v>
+        <v>5676688.0235397099</v>
       </c>
       <c r="D119">
         <f t="shared" si="4"/>
-        <v>-109186.97258269507</v>
+        <v>-109186.97646029014</v>
       </c>
       <c r="E119">
         <f t="shared" si="5"/>
-        <v>11921794981.774206</v>
+        <v>11921795828.539953</v>
       </c>
     </row>
     <row r="120" spans="1:5" x14ac:dyDescent="0.25">
@@ -4530,15 +4530,15 @@
       </c>
       <c r="C120">
         <f t="shared" si="3"/>
-        <v>5915680.5355160367</v>
+        <v>5915680.5314751929</v>
       </c>
       <c r="D120">
         <f t="shared" si="4"/>
-        <v>-57638.464483963326</v>
+        <v>-57638.468524807133</v>
       </c>
       <c r="E120">
         <f t="shared" si="5"/>
-        <v>3322192588.0691018</v>
+        <v>3322193053.8851824</v>
       </c>
     </row>
     <row r="121" spans="1:5" x14ac:dyDescent="0.25">
@@ -4550,15 +4550,15 @@
       </c>
       <c r="C121">
         <f t="shared" si="3"/>
-        <v>5915680.5355160367</v>
+        <v>5915680.5314751929</v>
       </c>
       <c r="D121">
         <f t="shared" si="4"/>
-        <v>-81144.464483963326</v>
+        <v>-81144.468524807133</v>
       </c>
       <c r="E121">
         <f t="shared" si="5"/>
-        <v>6584424116.3891859</v>
+        <v>6584424772.1734152</v>
       </c>
     </row>
     <row r="122" spans="1:5" x14ac:dyDescent="0.25">
@@ -4570,15 +4570,15 @@
       </c>
       <c r="C122">
         <f t="shared" si="3"/>
-        <v>6159600.7241941243</v>
+        <v>6159600.7199866641</v>
       </c>
       <c r="D122">
         <f t="shared" si="4"/>
-        <v>-109863.27580587566</v>
+        <v>-109863.28001333587</v>
       </c>
       <c r="E122">
         <f t="shared" si="5"/>
-        <v>12069939370.797903</v>
+        <v>12069940295.288645</v>
       </c>
     </row>
     <row r="123" spans="1:5" x14ac:dyDescent="0.25">
@@ -4590,15 +4590,15 @@
       </c>
       <c r="C123">
         <f t="shared" si="3"/>
-        <v>6159600.7241941243</v>
+        <v>6159600.7199866641</v>
       </c>
       <c r="D123">
         <f t="shared" si="4"/>
-        <v>-59898.275805875659</v>
+        <v>-59898.280013335869</v>
       </c>
       <c r="E123">
         <f t="shared" si="5"/>
-        <v>3587803444.5167494</v>
+        <v>3587803948.5559912</v>
       </c>
     </row>
     <row r="124" spans="1:5" x14ac:dyDescent="0.25">
@@ -4610,15 +4610,15 @@
       </c>
       <c r="C124">
         <f t="shared" si="3"/>
-        <v>6458809.4889725773</v>
+        <v>6458809.4845607365</v>
       </c>
       <c r="D124">
         <f t="shared" si="4"/>
-        <v>246823.48897257727</v>
+        <v>246823.48456073646</v>
       </c>
       <c r="E124">
         <f t="shared" si="5"/>
-        <v>60921834708.59597</v>
+        <v>60921832530.704109</v>
       </c>
     </row>
     <row r="125" spans="1:5" x14ac:dyDescent="0.25">
@@ -4630,15 +4630,15 @@
       </c>
       <c r="C125">
         <f t="shared" si="3"/>
-        <v>6458809.4889725773</v>
+        <v>6458809.4845607365</v>
       </c>
       <c r="D125">
         <f t="shared" si="4"/>
-        <v>224865.48897257727</v>
+        <v>224865.48456073646</v>
       </c>
       <c r="E125">
         <f t="shared" si="5"/>
-        <v>50564488130.876266</v>
+        <v>50564486146.734802</v>
       </c>
     </row>
     <row r="126" spans="1:5" x14ac:dyDescent="0.25">
@@ -4650,15 +4650,15 @@
       </c>
       <c r="C126">
         <f t="shared" si="3"/>
-        <v>9624376.1315533184</v>
+        <v>9624376.1249791626</v>
       </c>
       <c r="D126">
         <f t="shared" si="4"/>
-        <v>-127142.86844668165</v>
+        <v>-127142.87502083741</v>
       </c>
       <c r="E126">
         <f t="shared" si="5"/>
-        <v>16165308996.850197</v>
+        <v>16165310668.564281</v>
       </c>
     </row>
     <row r="127" spans="1:5" x14ac:dyDescent="0.25">
@@ -4670,15 +4670,15 @@
       </c>
       <c r="C127">
         <f t="shared" si="3"/>
-        <v>9624376.1315533184</v>
+        <v>9624376.1249791626</v>
       </c>
       <c r="D127">
         <f t="shared" si="4"/>
-        <v>-147765.86844668165</v>
+        <v>-147765.87502083741</v>
       </c>
       <c r="E127">
         <f t="shared" si="5"/>
-        <v>21834751877.802029</v>
+        <v>21834753820.67374</v>
       </c>
     </row>
   </sheetData>

--- a/Analyze.xlsx
+++ b/Analyze.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Learn\Алгосы\BubbleSort\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{14197992-72E7-4480-8141-C5B271117957}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{577DE59F-448F-44E0-9ED1-4EC6B6CB4521}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{104B8E19-ACD8-4989-B5B3-C9A0783B87F8}"/>
   </bookViews>
@@ -638,382 +638,382 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="127"/>
                 <c:pt idx="0">
-                  <c:v>24.638402879946657</c:v>
+                  <c:v>24.638402898262179</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>24.638402879946657</c:v>
+                  <c:v>24.638402898262179</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>24.638402879946657</c:v>
+                  <c:v>24.638402898262179</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>24.638402879946657</c:v>
+                  <c:v>24.638402898262179</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>98.553611519786628</c:v>
+                  <c:v>98.553611593048714</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>98.553611519786628</c:v>
+                  <c:v>98.553611593048714</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>394.21444607914651</c:v>
+                  <c:v>394.21444637219486</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>394.21444607914651</c:v>
+                  <c:v>394.21444637219486</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>615.96007199866642</c:v>
+                  <c:v>615.96007245655449</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>615.96007199866642</c:v>
+                  <c:v>615.96007245655449</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>1576.857784316586</c:v>
+                  <c:v>1576.8577854887794</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>1576.857784316586</c:v>
+                  <c:v>1576.8577854887794</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>6307.4311372663442</c:v>
+                  <c:v>6307.4311419551177</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>6307.4311372663442</c:v>
+                  <c:v>6307.4311419551177</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>15399.001799966662</c:v>
+                  <c:v>15399.001811413862</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>15399.001799966662</c:v>
+                  <c:v>15399.001811413862</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>25229.724549065377</c:v>
+                  <c:v>25229.724567820471</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>25229.724549065377</c:v>
+                  <c:v>25229.724567820471</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>100918.89819626151</c:v>
+                  <c:v>100918.89827128188</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>100918.89819626151</c:v>
+                  <c:v>100918.89827128188</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>246384.02879946659</c:v>
+                  <c:v>246384.02898262179</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>246384.02879946659</c:v>
+                  <c:v>246384.02898262179</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>246384.02879946659</c:v>
+                  <c:v>246384.02898262179</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>246384.02879946659</c:v>
+                  <c:v>246384.02898262179</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>298124.67484735459</c:v>
+                  <c:v>298124.6750689724</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>298124.67484735459</c:v>
+                  <c:v>298124.6750689724</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>354793.00147123187</c:v>
+                  <c:v>354793.00173497538</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>354793.00147123187</c:v>
+                  <c:v>354793.00173497538</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>384975.04499916651</c:v>
+                  <c:v>384975.04528534657</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>384975.04499916651</c:v>
+                  <c:v>384975.04528534657</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>403675.59278504603</c:v>
+                  <c:v>403675.59308512753</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>403675.59278504603</c:v>
+                  <c:v>403675.59308512753</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>416389.00867109851</c:v>
+                  <c:v>416389.00898063084</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>416389.00867109851</c:v>
+                  <c:v>416389.00898063084</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>482912.69644695451</c:v>
+                  <c:v>482912.69680593873</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>482912.69644695451</c:v>
+                  <c:v>482912.69680593873</c:v>
                 </c:pt>
                 <c:pt idx="36">
-                  <c:v>554364.06479879981</c:v>
+                  <c:v>554364.06521089899</c:v>
                 </c:pt>
                 <c:pt idx="37">
-                  <c:v>554364.06479879981</c:v>
+                  <c:v>554364.06521089899</c:v>
                 </c:pt>
                 <c:pt idx="38">
-                  <c:v>630743.11372663442</c:v>
+                  <c:v>630743.11419551179</c:v>
                 </c:pt>
                 <c:pt idx="39">
-                  <c:v>630743.11372663442</c:v>
+                  <c:v>630743.11419551179</c:v>
                 </c:pt>
                 <c:pt idx="40">
-                  <c:v>712049.84323045844</c:v>
+                  <c:v>712049.84375977702</c:v>
                 </c:pt>
                 <c:pt idx="41">
-                  <c:v>712049.84323045844</c:v>
+                  <c:v>712049.84375977702</c:v>
                 </c:pt>
                 <c:pt idx="42">
-                  <c:v>798284.25331027177</c:v>
+                  <c:v>798284.25390369457</c:v>
                 </c:pt>
                 <c:pt idx="43">
-                  <c:v>798284.25331027177</c:v>
+                  <c:v>798284.25390369457</c:v>
                 </c:pt>
                 <c:pt idx="44">
-                  <c:v>889446.3439660744</c:v>
+                  <c:v>889446.34462726465</c:v>
                 </c:pt>
                 <c:pt idx="45">
-                  <c:v>889446.3439660744</c:v>
+                  <c:v>889446.34462726465</c:v>
                 </c:pt>
                 <c:pt idx="46">
-                  <c:v>985536.11519786634</c:v>
+                  <c:v>985536.11593048717</c:v>
                 </c:pt>
                 <c:pt idx="47">
-                  <c:v>985536.11519786634</c:v>
+                  <c:v>985536.11593048717</c:v>
                 </c:pt>
                 <c:pt idx="48">
-                  <c:v>985536.11519786634</c:v>
+                  <c:v>985536.11593048717</c:v>
                 </c:pt>
                 <c:pt idx="49">
-                  <c:v>985536.11519786634</c:v>
+                  <c:v>985536.11593048717</c:v>
                 </c:pt>
                 <c:pt idx="50">
-                  <c:v>1086553.5670056476</c:v>
+                  <c:v>1086553.5678133622</c:v>
                 </c:pt>
                 <c:pt idx="51">
-                  <c:v>1086553.5670056476</c:v>
+                  <c:v>1086553.5678133622</c:v>
                 </c:pt>
                 <c:pt idx="52">
-                  <c:v>1086553.5670056476</c:v>
+                  <c:v>1086553.5678133622</c:v>
                 </c:pt>
                 <c:pt idx="53">
-                  <c:v>1086553.5670056476</c:v>
+                  <c:v>1086553.5678133622</c:v>
                 </c:pt>
                 <c:pt idx="54">
-                  <c:v>1192498.6993894184</c:v>
+                  <c:v>1192498.7002758896</c:v>
                 </c:pt>
                 <c:pt idx="55">
-                  <c:v>1192498.6993894184</c:v>
+                  <c:v>1192498.7002758896</c:v>
                 </c:pt>
                 <c:pt idx="56">
-                  <c:v>1192498.6993894184</c:v>
+                  <c:v>1192498.7002758896</c:v>
                 </c:pt>
                 <c:pt idx="57">
-                  <c:v>1192498.6993894184</c:v>
+                  <c:v>1192498.7002758896</c:v>
                 </c:pt>
                 <c:pt idx="58">
-                  <c:v>1303371.5123491783</c:v>
+                  <c:v>1303371.5133180693</c:v>
                 </c:pt>
                 <c:pt idx="59">
-                  <c:v>1303371.5123491783</c:v>
+                  <c:v>1303371.5133180693</c:v>
                 </c:pt>
                 <c:pt idx="60">
-                  <c:v>1303371.5123491783</c:v>
+                  <c:v>1303371.5133180693</c:v>
                 </c:pt>
                 <c:pt idx="61">
-                  <c:v>1303371.5123491783</c:v>
+                  <c:v>1303371.5133180693</c:v>
                 </c:pt>
                 <c:pt idx="62">
-                  <c:v>1419172.0058849275</c:v>
+                  <c:v>1419172.0069399015</c:v>
                 </c:pt>
                 <c:pt idx="63">
-                  <c:v>1419172.0058849275</c:v>
+                  <c:v>1419172.0069399015</c:v>
                 </c:pt>
                 <c:pt idx="64">
-                  <c:v>1419172.0058849275</c:v>
+                  <c:v>1419172.0069399015</c:v>
                 </c:pt>
                 <c:pt idx="65">
-                  <c:v>1419172.0058849275</c:v>
+                  <c:v>1419172.0069399015</c:v>
                 </c:pt>
                 <c:pt idx="66">
-                  <c:v>1539900.179996666</c:v>
+                  <c:v>1539900.1811413863</c:v>
                 </c:pt>
                 <c:pt idx="67">
-                  <c:v>1539900.179996666</c:v>
+                  <c:v>1539900.1811413863</c:v>
                 </c:pt>
                 <c:pt idx="68">
-                  <c:v>1539900.179996666</c:v>
+                  <c:v>1539900.1811413863</c:v>
                 </c:pt>
                 <c:pt idx="69">
-                  <c:v>1539900.179996666</c:v>
+                  <c:v>1539900.1811413863</c:v>
                 </c:pt>
                 <c:pt idx="70">
-                  <c:v>1614702.3711401841</c:v>
+                  <c:v>1614702.3723405101</c:v>
                 </c:pt>
                 <c:pt idx="71">
-                  <c:v>1614702.3711401841</c:v>
+                  <c:v>1614702.3723405101</c:v>
                 </c:pt>
                 <c:pt idx="72">
-                  <c:v>1665556.034684394</c:v>
+                  <c:v>1665556.0359225234</c:v>
                 </c:pt>
                 <c:pt idx="73">
-                  <c:v>1665556.034684394</c:v>
+                  <c:v>1665556.0359225234</c:v>
                 </c:pt>
                 <c:pt idx="74">
-                  <c:v>1796139.5699481114</c:v>
+                  <c:v>1796139.571283313</c:v>
                 </c:pt>
                 <c:pt idx="75">
-                  <c:v>1796139.5699481114</c:v>
+                  <c:v>1796139.571283313</c:v>
                 </c:pt>
                 <c:pt idx="76">
-                  <c:v>1931650.785787818</c:v>
+                  <c:v>1931650.7872237549</c:v>
                 </c:pt>
                 <c:pt idx="77">
-                  <c:v>1931650.785787818</c:v>
+                  <c:v>1931650.7872237549</c:v>
                 </c:pt>
                 <c:pt idx="78">
-                  <c:v>2072089.682203514</c:v>
+                  <c:v>2072089.6837438494</c:v>
                 </c:pt>
                 <c:pt idx="79">
-                  <c:v>2072089.682203514</c:v>
+                  <c:v>2072089.6837438494</c:v>
                 </c:pt>
                 <c:pt idx="80">
-                  <c:v>2217456.2591951992</c:v>
+                  <c:v>2217456.260843596</c:v>
                 </c:pt>
                 <c:pt idx="81">
-                  <c:v>2217456.2591951992</c:v>
+                  <c:v>2217456.260843596</c:v>
                 </c:pt>
                 <c:pt idx="82">
-                  <c:v>2367750.5167628736</c:v>
+                  <c:v>2367750.5185229955</c:v>
                 </c:pt>
                 <c:pt idx="83">
-                  <c:v>2367750.5167628736</c:v>
+                  <c:v>2367750.5185229955</c:v>
                 </c:pt>
                 <c:pt idx="84">
-                  <c:v>2522972.4549065377</c:v>
+                  <c:v>2522972.4567820472</c:v>
                 </c:pt>
                 <c:pt idx="85">
-                  <c:v>2522972.4549065377</c:v>
+                  <c:v>2522972.4567820472</c:v>
                 </c:pt>
                 <c:pt idx="86">
-                  <c:v>2683122.0736261909</c:v>
+                  <c:v>2683122.0756207514</c:v>
                 </c:pt>
                 <c:pt idx="87">
-                  <c:v>2683122.0736261909</c:v>
+                  <c:v>2683122.0756207514</c:v>
                 </c:pt>
                 <c:pt idx="88">
-                  <c:v>2848199.3729218338</c:v>
+                  <c:v>2848199.3750391081</c:v>
                 </c:pt>
                 <c:pt idx="89">
-                  <c:v>2848199.3729218338</c:v>
+                  <c:v>2848199.3750391081</c:v>
                 </c:pt>
                 <c:pt idx="90">
-                  <c:v>3018204.3527934658</c:v>
+                  <c:v>3018204.3550371169</c:v>
                 </c:pt>
                 <c:pt idx="91">
-                  <c:v>3018204.3527934658</c:v>
+                  <c:v>3018204.3550371169</c:v>
                 </c:pt>
                 <c:pt idx="92">
-                  <c:v>3193137.0132410871</c:v>
+                  <c:v>3193137.0156147783</c:v>
                 </c:pt>
                 <c:pt idx="93">
-                  <c:v>3193137.0132410871</c:v>
+                  <c:v>3193137.0156147783</c:v>
                 </c:pt>
                 <c:pt idx="94">
-                  <c:v>3372997.3542646975</c:v>
+                  <c:v>3372997.3567720922</c:v>
                 </c:pt>
                 <c:pt idx="95">
-                  <c:v>3372997.3542646975</c:v>
+                  <c:v>3372997.3567720922</c:v>
                 </c:pt>
                 <c:pt idx="96">
-                  <c:v>3557785.3758642976</c:v>
+                  <c:v>3557785.3785090586</c:v>
                 </c:pt>
                 <c:pt idx="97">
-                  <c:v>3557785.3758642976</c:v>
+                  <c:v>3557785.3785090586</c:v>
                 </c:pt>
                 <c:pt idx="98">
-                  <c:v>3747501.0780398869</c:v>
+                  <c:v>3747501.0808256776</c:v>
                 </c:pt>
                 <c:pt idx="99">
-                  <c:v>3747501.0780398869</c:v>
+                  <c:v>3747501.0808256776</c:v>
                 </c:pt>
                 <c:pt idx="100">
-                  <c:v>3942144.4607914654</c:v>
+                  <c:v>3942144.4637219487</c:v>
                 </c:pt>
                 <c:pt idx="101">
-                  <c:v>3942144.4607914654</c:v>
+                  <c:v>3942144.4637219487</c:v>
                 </c:pt>
                 <c:pt idx="102">
-                  <c:v>4141715.524119033</c:v>
+                  <c:v>4141715.5271978723</c:v>
                 </c:pt>
                 <c:pt idx="103">
-                  <c:v>4141715.524119033</c:v>
+                  <c:v>4141715.5271978723</c:v>
                 </c:pt>
                 <c:pt idx="104">
-                  <c:v>4346214.2680225903</c:v>
+                  <c:v>4346214.2712534489</c:v>
                 </c:pt>
                 <c:pt idx="105">
-                  <c:v>4346214.2680225903</c:v>
+                  <c:v>4346214.2712534489</c:v>
                 </c:pt>
                 <c:pt idx="106">
-                  <c:v>4555640.6925021373</c:v>
+                  <c:v>4555640.6958886767</c:v>
                 </c:pt>
                 <c:pt idx="107">
-                  <c:v>4555640.6925021373</c:v>
+                  <c:v>4555640.6958886767</c:v>
                 </c:pt>
                 <c:pt idx="108">
-                  <c:v>4769994.7975576734</c:v>
+                  <c:v>4769994.8011035584</c:v>
                 </c:pt>
                 <c:pt idx="109">
-                  <c:v>4769994.7975576734</c:v>
+                  <c:v>4769994.8011035584</c:v>
                 </c:pt>
                 <c:pt idx="110">
-                  <c:v>4989276.5831891978</c:v>
+                  <c:v>4989276.5868980912</c:v>
                 </c:pt>
                 <c:pt idx="111">
-                  <c:v>4989276.5831891978</c:v>
+                  <c:v>4989276.5868980912</c:v>
                 </c:pt>
                 <c:pt idx="112">
-                  <c:v>5213486.0493967133</c:v>
+                  <c:v>5213486.0532722771</c:v>
                 </c:pt>
                 <c:pt idx="113">
-                  <c:v>5213486.0493967133</c:v>
+                  <c:v>5213486.0532722771</c:v>
                 </c:pt>
                 <c:pt idx="114">
-                  <c:v>5442623.196180217</c:v>
+                  <c:v>5442623.2002261151</c:v>
                 </c:pt>
                 <c:pt idx="115">
-                  <c:v>5442623.196180217</c:v>
+                  <c:v>5442623.2002261151</c:v>
                 </c:pt>
                 <c:pt idx="116">
-                  <c:v>5676688.0235397099</c:v>
+                  <c:v>5676688.027759606</c:v>
                 </c:pt>
                 <c:pt idx="117">
-                  <c:v>5676688.0235397099</c:v>
+                  <c:v>5676688.027759606</c:v>
                 </c:pt>
                 <c:pt idx="118">
-                  <c:v>5915680.5314751929</c:v>
+                  <c:v>5915680.5358727491</c:v>
                 </c:pt>
                 <c:pt idx="119">
-                  <c:v>5915680.5314751929</c:v>
+                  <c:v>5915680.5358727491</c:v>
                 </c:pt>
                 <c:pt idx="120">
-                  <c:v>6159600.7199866641</c:v>
+                  <c:v>6159600.7245655451</c:v>
                 </c:pt>
                 <c:pt idx="121">
-                  <c:v>6159600.7199866641</c:v>
+                  <c:v>6159600.7245655451</c:v>
                 </c:pt>
                 <c:pt idx="122">
-                  <c:v>6458809.4845607365</c:v>
+                  <c:v>6458809.4893620405</c:v>
                 </c:pt>
                 <c:pt idx="123">
-                  <c:v>6458809.4845607365</c:v>
+                  <c:v>6458809.4893620405</c:v>
                 </c:pt>
                 <c:pt idx="124">
-                  <c:v>9624376.1249791626</c:v>
+                  <c:v>9624376.1321336646</c:v>
                 </c:pt>
                 <c:pt idx="125">
-                  <c:v>9624376.1249791626</c:v>
+                  <c:v>9624376.1321336646</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2123,7 +2123,7 @@
   <dimension ref="A1:G127"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G5" sqref="G5"/>
+      <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2163,22 +2163,22 @@
       </c>
       <c r="C2">
         <f>($G$2*A2^2)/2</f>
-        <v>24.638402879946657</v>
+        <v>24.638402898262179</v>
       </c>
       <c r="D2">
         <f>C2-B2</f>
-        <v>3.638402879946657</v>
+        <v>3.6384028982621786</v>
       </c>
       <c r="E2">
         <f>D2^2</f>
-        <v>13.237975516804127</v>
+        <v>13.237975650082621</v>
       </c>
       <c r="F2">
         <f>SUM(E2:E127)</f>
-        <v>9958771672265.7656</v>
+        <v>9958771672265.7637</v>
       </c>
       <c r="G2">
-        <v>0.49276805759893316</v>
+        <v>0.49276805796524359</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
@@ -2190,15 +2190,15 @@
       </c>
       <c r="C3">
         <f t="shared" ref="C3:C66" si="0">($G$2*A3^2)/2</f>
-        <v>24.638402879946657</v>
+        <v>24.638402898262179</v>
       </c>
       <c r="D3">
         <f t="shared" ref="D3:D66" si="1">C3-B3</f>
-        <v>3.638402879946657</v>
+        <v>3.6384028982621786</v>
       </c>
       <c r="E3">
         <f t="shared" ref="E3:E66" si="2">D3^2</f>
-        <v>13.237975516804127</v>
+        <v>13.237975650082621</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.25">
@@ -2210,15 +2210,15 @@
       </c>
       <c r="C4">
         <f t="shared" si="0"/>
-        <v>24.638402879946657</v>
+        <v>24.638402898262179</v>
       </c>
       <c r="D4">
         <f t="shared" si="1"/>
-        <v>3.638402879946657</v>
+        <v>3.6384028982621786</v>
       </c>
       <c r="E4">
         <f t="shared" si="2"/>
-        <v>13.237975516804127</v>
+        <v>13.237975650082621</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.25">
@@ -2230,15 +2230,15 @@
       </c>
       <c r="C5">
         <f t="shared" si="0"/>
-        <v>24.638402879946657</v>
+        <v>24.638402898262179</v>
       </c>
       <c r="D5">
         <f t="shared" si="1"/>
-        <v>2.638402879946657</v>
+        <v>2.6384028982621786</v>
       </c>
       <c r="E5">
         <f t="shared" si="2"/>
-        <v>6.961169756910814</v>
+        <v>6.961169853558264</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.25">
@@ -2250,15 +2250,15 @@
       </c>
       <c r="C6">
         <f t="shared" si="0"/>
-        <v>98.553611519786628</v>
+        <v>98.553611593048714</v>
       </c>
       <c r="D6">
         <f t="shared" si="1"/>
-        <v>14.553611519786628</v>
+        <v>14.553611593048714</v>
       </c>
       <c r="E6">
         <f t="shared" si="2"/>
-        <v>211.80760826886603</v>
+        <v>211.80761040132194</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.25">
@@ -2270,15 +2270,15 @@
       </c>
       <c r="C7">
         <f t="shared" si="0"/>
-        <v>98.553611519786628</v>
+        <v>98.553611593048714</v>
       </c>
       <c r="D7">
         <f t="shared" si="1"/>
-        <v>10.553611519786628</v>
+        <v>10.553611593048714</v>
       </c>
       <c r="E7">
         <f t="shared" si="2"/>
-        <v>111.37871611057302</v>
+        <v>111.37871765693222</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.25">
@@ -2290,15 +2290,15 @@
       </c>
       <c r="C8">
         <f t="shared" si="0"/>
-        <v>394.21444607914651</v>
+        <v>394.21444637219486</v>
       </c>
       <c r="D8">
         <f t="shared" si="1"/>
-        <v>43.214446079146512</v>
+        <v>43.214446372194857</v>
       </c>
       <c r="E8">
         <f t="shared" si="2"/>
-        <v>1867.4883499274613</v>
+        <v>1867.4883752553053</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.25">
@@ -2310,15 +2310,15 @@
       </c>
       <c r="C9">
         <f t="shared" si="0"/>
-        <v>394.21444607914651</v>
+        <v>394.21444637219486</v>
       </c>
       <c r="D9">
         <f t="shared" si="1"/>
-        <v>13.214446079146512</v>
+        <v>13.214446372194857</v>
       </c>
       <c r="E9">
         <f t="shared" si="2"/>
-        <v>174.62158517867061</v>
+        <v>174.6215929236138</v>
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.25">
@@ -2330,15 +2330,15 @@
       </c>
       <c r="C10">
         <f t="shared" si="0"/>
-        <v>615.96007199866642</v>
+        <v>615.96007245655449</v>
       </c>
       <c r="D10">
         <f t="shared" si="1"/>
-        <v>0.96007199866642168</v>
+        <v>0.96007245655448514</v>
       </c>
       <c r="E10">
         <f t="shared" si="2"/>
-        <v>0.92173824262333759</v>
+        <v>0.92173912183456375</v>
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.25">
@@ -2350,15 +2350,15 @@
       </c>
       <c r="C11">
         <f t="shared" si="0"/>
-        <v>615.96007199866642</v>
+        <v>615.96007245655449</v>
       </c>
       <c r="D11">
         <f t="shared" si="1"/>
-        <v>-6.0399280013335783</v>
+        <v>-6.0399275434455149</v>
       </c>
       <c r="E11">
         <f t="shared" si="2"/>
-        <v>36.480730261293431</v>
+        <v>36.480724730071771</v>
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.25">
@@ -2370,15 +2370,15 @@
       </c>
       <c r="C12">
         <f t="shared" si="0"/>
-        <v>1576.857784316586</v>
+        <v>1576.8577854887794</v>
       </c>
       <c r="D12">
         <f t="shared" si="1"/>
-        <v>45.857784316586049</v>
+        <v>45.857785488779427</v>
       </c>
       <c r="E12">
         <f t="shared" si="2"/>
-        <v>2102.9363824265251</v>
+        <v>2102.9364899349089</v>
       </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.25">
@@ -2390,15 +2390,15 @@
       </c>
       <c r="C13">
         <f t="shared" si="0"/>
-        <v>1576.857784316586</v>
+        <v>1576.8577854887794</v>
       </c>
       <c r="D13">
         <f t="shared" si="1"/>
-        <v>80.857784316586049</v>
+        <v>80.857785488779427</v>
       </c>
       <c r="E13">
         <f t="shared" si="2"/>
-        <v>6537.9812845875485</v>
+        <v>6537.9814741494692</v>
       </c>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.25">
@@ -2410,15 +2410,15 @@
       </c>
       <c r="C14">
         <f t="shared" si="0"/>
-        <v>6307.4311372663442</v>
+        <v>6307.4311419551177</v>
       </c>
       <c r="D14">
         <f t="shared" si="1"/>
-        <v>236.43113726634419</v>
+        <v>236.43114195511771</v>
       </c>
       <c r="E14">
         <f t="shared" si="2"/>
-        <v>55899.682669056892</v>
+        <v>55899.684886201023</v>
       </c>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.25">
@@ -2430,15 +2430,15 @@
       </c>
       <c r="C15">
         <f t="shared" si="0"/>
-        <v>6307.4311372663442</v>
+        <v>6307.4311419551177</v>
       </c>
       <c r="D15">
         <f t="shared" si="1"/>
-        <v>214.43113726634419</v>
+        <v>214.43114195511771</v>
       </c>
       <c r="E15">
         <f t="shared" si="2"/>
-        <v>45980.712629337744</v>
+        <v>45980.714640175844</v>
       </c>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.25">
@@ -2450,15 +2450,15 @@
       </c>
       <c r="C16">
         <f t="shared" si="0"/>
-        <v>15399.001799966662</v>
+        <v>15399.001811413862</v>
       </c>
       <c r="D16">
         <f t="shared" si="1"/>
-        <v>88.001799966661565</v>
+        <v>88.001811413862015</v>
       </c>
       <c r="E16">
         <f t="shared" si="2"/>
-        <v>7744.3167973723157</v>
+        <v>7744.318812120935</v>
       </c>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.25">
@@ -2470,15 +2470,15 @@
       </c>
       <c r="C17">
         <f t="shared" si="0"/>
-        <v>15399.001799966662</v>
+        <v>15399.001811413862</v>
       </c>
       <c r="D17">
         <f t="shared" si="1"/>
-        <v>41.001799966661565</v>
+        <v>41.001811413862015</v>
       </c>
       <c r="E17">
         <f t="shared" si="2"/>
-        <v>1681.1476005061284</v>
+        <v>1681.1485392179054</v>
       </c>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.25">
@@ -2490,15 +2490,15 @@
       </c>
       <c r="C18">
         <f t="shared" si="0"/>
-        <v>25229.724549065377</v>
+        <v>25229.724567820471</v>
       </c>
       <c r="D18">
         <f t="shared" si="1"/>
-        <v>1453.7245490653768</v>
+        <v>1453.7245678204708</v>
       </c>
       <c r="E18">
         <f t="shared" si="2"/>
-        <v>2113315.064555333</v>
+        <v>2113315.1190848146</v>
       </c>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.25">
@@ -2510,15 +2510,15 @@
       </c>
       <c r="C19">
         <f t="shared" si="0"/>
-        <v>25229.724549065377</v>
+        <v>25229.724567820471</v>
       </c>
       <c r="D19">
         <f t="shared" si="1"/>
-        <v>22824.724549065377</v>
+        <v>22824.724567820471</v>
       </c>
       <c r="E19">
         <f t="shared" si="2"/>
-        <v>520968050.7407077</v>
+        <v>520968051.59686738</v>
       </c>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.25">
@@ -2530,15 +2530,15 @@
       </c>
       <c r="C20">
         <f t="shared" si="0"/>
-        <v>100918.89819626151</v>
+        <v>100918.89827128188</v>
       </c>
       <c r="D20">
         <f t="shared" si="1"/>
-        <v>3805.8981962615071</v>
+        <v>3805.8982712818834</v>
       </c>
       <c r="E20">
         <f t="shared" si="2"/>
-        <v>14484861.080306593</v>
+        <v>14484861.651346428</v>
       </c>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.25">
@@ -2550,15 +2550,15 @@
       </c>
       <c r="C21">
         <f t="shared" si="0"/>
-        <v>100918.89819626151</v>
+        <v>100918.89827128188</v>
       </c>
       <c r="D21">
         <f t="shared" si="1"/>
-        <v>3274.8981962615071</v>
+        <v>3274.8982712818834</v>
       </c>
       <c r="E21">
         <f t="shared" si="2"/>
-        <v>10724958.195876872</v>
+        <v>10724958.687245067</v>
       </c>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.25">
@@ -2570,15 +2570,15 @@
       </c>
       <c r="C22">
         <f t="shared" si="0"/>
-        <v>246384.02879946659</v>
+        <v>246384.02898262179</v>
       </c>
       <c r="D22">
         <f t="shared" si="1"/>
-        <v>-2576.971200533415</v>
+        <v>-2576.9710173782078</v>
       </c>
       <c r="E22">
         <f t="shared" si="2"/>
-        <v>6640780.5683786301</v>
+        <v>6640779.6244072756</v>
       </c>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.25">
@@ -2590,15 +2590,15 @@
       </c>
       <c r="C23">
         <f t="shared" si="0"/>
-        <v>246384.02879946659</v>
+        <v>246384.02898262179</v>
       </c>
       <c r="D23">
         <f t="shared" si="1"/>
-        <v>-2680.971200533415</v>
+        <v>-2680.9710173782078</v>
       </c>
       <c r="E23">
         <f t="shared" si="2"/>
-        <v>7187606.5780895799</v>
+        <v>7187605.5960219428</v>
       </c>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.25">
@@ -2610,15 +2610,15 @@
       </c>
       <c r="C24">
         <f t="shared" si="0"/>
-        <v>246384.02879946659</v>
+        <v>246384.02898262179</v>
       </c>
       <c r="D24">
         <f t="shared" si="1"/>
-        <v>-3069.971200533415</v>
+        <v>-3069.9710173782078</v>
       </c>
       <c r="E24">
         <f t="shared" si="2"/>
-        <v>9424723.1721045766</v>
+        <v>9424722.0475421883</v>
       </c>
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.25">
@@ -2630,15 +2630,15 @@
       </c>
       <c r="C25">
         <f t="shared" si="0"/>
-        <v>246384.02879946659</v>
+        <v>246384.02898262179</v>
       </c>
       <c r="D25">
         <f t="shared" si="1"/>
-        <v>221350.02879946659</v>
+        <v>221350.02898262179</v>
       </c>
       <c r="E25">
         <f t="shared" si="2"/>
-        <v>48995835249.524689</v>
+        <v>48995835330.607506</v>
       </c>
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.25">
@@ -2650,15 +2650,15 @@
       </c>
       <c r="C26">
         <f t="shared" si="0"/>
-        <v>298124.67484735459</v>
+        <v>298124.6750689724</v>
       </c>
       <c r="D26">
         <f t="shared" si="1"/>
-        <v>-3058.3251526454114</v>
+        <v>-3058.3249310276005</v>
       </c>
       <c r="E26">
         <f t="shared" si="2"/>
-        <v>9353352.7393035796</v>
+        <v>9353351.3837449774</v>
       </c>
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.25">
@@ -2670,15 +2670,15 @@
       </c>
       <c r="C27">
         <f t="shared" si="0"/>
-        <v>298124.67484735459</v>
+        <v>298124.6750689724</v>
       </c>
       <c r="D27">
         <f t="shared" si="1"/>
-        <v>-2914.3251526454114</v>
+        <v>-2914.3249310276005</v>
       </c>
       <c r="E27">
         <f t="shared" si="2"/>
-        <v>8493291.0953417011</v>
+        <v>8493289.8036090285</v>
       </c>
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.25">
@@ -2690,15 +2690,15 @@
       </c>
       <c r="C28">
         <f t="shared" si="0"/>
-        <v>354793.00147123187</v>
+        <v>354793.00173497538</v>
       </c>
       <c r="D28">
         <f t="shared" si="1"/>
-        <v>-6265.9985287681338</v>
+        <v>-6265.9982650246238</v>
       </c>
       <c r="E28">
         <f t="shared" si="2"/>
-        <v>39262737.562524416</v>
+        <v>39262734.257291593</v>
       </c>
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.25">
@@ -2710,15 +2710,15 @@
       </c>
       <c r="C29">
         <f t="shared" si="0"/>
-        <v>354793.00147123187</v>
+        <v>354793.00173497538</v>
       </c>
       <c r="D29">
         <f t="shared" si="1"/>
-        <v>-3355.9985287681338</v>
+        <v>-3355.9982650246238</v>
       </c>
       <c r="E29">
         <f t="shared" si="2"/>
-        <v>11262726.125093879</v>
+        <v>11262724.354848286</v>
       </c>
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.25">
@@ -2730,15 +2730,15 @@
       </c>
       <c r="C30">
         <f t="shared" si="0"/>
-        <v>384975.04499916651</v>
+        <v>384975.04528534657</v>
       </c>
       <c r="D30">
         <f t="shared" si="1"/>
-        <v>-6672.9550008334918</v>
+        <v>-6672.9547146534314</v>
       </c>
       <c r="E30">
         <f t="shared" si="2"/>
-        <v>44528328.44314871</v>
+        <v>44528324.623815462</v>
       </c>
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.25">
@@ -2750,15 +2750,15 @@
       </c>
       <c r="C31">
         <f t="shared" si="0"/>
-        <v>384975.04499916651</v>
+        <v>384975.04528534657</v>
       </c>
       <c r="D31">
         <f t="shared" si="1"/>
-        <v>-6187.9550008334918</v>
+        <v>-6187.9547146534314</v>
       </c>
       <c r="E31">
         <f t="shared" si="2"/>
-        <v>38290787.092340216</v>
+        <v>38290783.550601631</v>
       </c>
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.25">
@@ -2770,15 +2770,15 @@
       </c>
       <c r="C32">
         <f t="shared" si="0"/>
-        <v>403675.59278504603</v>
+        <v>403675.59308512753</v>
       </c>
       <c r="D32">
         <f t="shared" si="1"/>
-        <v>15619.592785046028</v>
+        <v>15619.593085127533</v>
       </c>
       <c r="E32">
         <f t="shared" si="2"/>
-        <v>243971678.77066195</v>
+        <v>243971688.14496386</v>
       </c>
     </row>
     <row r="33" spans="1:5" x14ac:dyDescent="0.25">
@@ -2790,15 +2790,15 @@
       </c>
       <c r="C33">
         <f t="shared" si="0"/>
-        <v>403675.59278504603</v>
+        <v>403675.59308512753</v>
       </c>
       <c r="D33">
         <f t="shared" si="1"/>
-        <v>12564.592785046028</v>
+        <v>12564.593085127533</v>
       </c>
       <c r="E33">
         <f t="shared" si="2"/>
-        <v>157868991.8540307</v>
+        <v>157868999.39483464</v>
       </c>
     </row>
     <row r="34" spans="1:5" x14ac:dyDescent="0.25">
@@ -2810,15 +2810,15 @@
       </c>
       <c r="C34">
         <f t="shared" si="0"/>
-        <v>416389.00867109851</v>
+        <v>416389.00898063084</v>
       </c>
       <c r="D34">
         <f t="shared" si="1"/>
-        <v>-4217.9913289014949</v>
+        <v>-4217.9910193691612</v>
       </c>
       <c r="E34">
         <f t="shared" si="2"/>
-        <v>17791450.850688197</v>
+        <v>17791448.239478897</v>
       </c>
     </row>
     <row r="35" spans="1:5" x14ac:dyDescent="0.25">
@@ -2830,15 +2830,15 @@
       </c>
       <c r="C35">
         <f t="shared" si="0"/>
-        <v>416389.00867109851</v>
+        <v>416389.00898063084</v>
       </c>
       <c r="D35">
         <f t="shared" si="1"/>
-        <v>-4795.9913289014949</v>
+        <v>-4795.9910193691612</v>
       </c>
       <c r="E35">
         <f t="shared" si="2"/>
-        <v>23001532.826898325</v>
+        <v>23001529.857869647</v>
       </c>
     </row>
     <row r="36" spans="1:5" x14ac:dyDescent="0.25">
@@ -2850,15 +2850,15 @@
       </c>
       <c r="C36">
         <f t="shared" si="0"/>
-        <v>482912.69644695451</v>
+        <v>482912.69680593873</v>
       </c>
       <c r="D36">
         <f t="shared" si="1"/>
-        <v>-9313.3035530454945</v>
+        <v>-9313.3031940612709</v>
       </c>
       <c r="E36">
         <f t="shared" si="2"/>
-        <v>86737623.071169838</v>
+        <v>86737616.384511873</v>
       </c>
     </row>
     <row r="37" spans="1:5" x14ac:dyDescent="0.25">
@@ -2870,15 +2870,15 @@
       </c>
       <c r="C37">
         <f t="shared" si="0"/>
-        <v>482912.69644695451</v>
+        <v>482912.69680593873</v>
       </c>
       <c r="D37">
         <f t="shared" si="1"/>
-        <v>-4131.3035530454945</v>
+        <v>-4131.3031940612709</v>
       </c>
       <c r="E37">
         <f t="shared" si="2"/>
-        <v>17067669.047406327</v>
+        <v>17067666.08126086</v>
       </c>
     </row>
     <row r="38" spans="1:5" x14ac:dyDescent="0.25">
@@ -2890,15 +2890,15 @@
       </c>
       <c r="C38">
         <f t="shared" si="0"/>
-        <v>554364.06479879981</v>
+        <v>554364.06521089899</v>
       </c>
       <c r="D38">
         <f t="shared" si="1"/>
-        <v>-8558.9352012001909</v>
+        <v>-8558.9347891010111</v>
       </c>
       <c r="E38">
         <f t="shared" si="2"/>
-        <v>73255371.778343752</v>
+        <v>73255364.724083573</v>
       </c>
     </row>
     <row r="39" spans="1:5" x14ac:dyDescent="0.25">
@@ -2910,15 +2910,15 @@
       </c>
       <c r="C39">
         <f t="shared" si="0"/>
-        <v>554364.06479879981</v>
+        <v>554364.06521089899</v>
       </c>
       <c r="D39">
         <f t="shared" si="1"/>
-        <v>-7738.9352012001909</v>
+        <v>-7738.9347891010111</v>
       </c>
       <c r="E39">
         <f t="shared" si="2"/>
-        <v>59891118.048375443</v>
+        <v>59891111.669957913</v>
       </c>
     </row>
     <row r="40" spans="1:5" x14ac:dyDescent="0.25">
@@ -2930,15 +2930,15 @@
       </c>
       <c r="C40">
         <f t="shared" si="0"/>
-        <v>630743.11372663442</v>
+        <v>630743.11419551179</v>
       </c>
       <c r="D40">
         <f t="shared" si="1"/>
-        <v>-7818.8862733655842</v>
+        <v>-7818.8858044882072</v>
       </c>
       <c r="E40">
         <f t="shared" si="2"/>
-        <v>61134982.555824757</v>
+        <v>61134975.223627202</v>
       </c>
     </row>
     <row r="41" spans="1:5" x14ac:dyDescent="0.25">
@@ -2950,15 +2950,15 @@
       </c>
       <c r="C41">
         <f t="shared" si="0"/>
-        <v>630743.11372663442</v>
+        <v>630743.11419551179</v>
       </c>
       <c r="D41">
         <f t="shared" si="1"/>
-        <v>566535.11372663442</v>
+        <v>566535.11419551179</v>
       </c>
       <c r="E41">
         <f t="shared" si="2"/>
-        <v>320962035085.25061</v>
+        <v>320962035616.52161</v>
       </c>
     </row>
     <row r="42" spans="1:5" x14ac:dyDescent="0.25">
@@ -2970,15 +2970,15 @@
       </c>
       <c r="C42">
         <f t="shared" si="0"/>
-        <v>712049.84323045844</v>
+        <v>712049.84375977702</v>
       </c>
       <c r="D42">
         <f t="shared" si="1"/>
-        <v>-8449.1567695415579</v>
+        <v>-8449.1562402229756</v>
       </c>
       <c r="E42">
         <f t="shared" si="2"/>
-        <v>71388250.116289929</v>
+        <v>71388241.171698853</v>
       </c>
     </row>
     <row r="43" spans="1:5" x14ac:dyDescent="0.25">
@@ -2990,15 +2990,15 @@
       </c>
       <c r="C43">
         <f t="shared" si="0"/>
-        <v>712049.84323045844</v>
+        <v>712049.84375977702</v>
       </c>
       <c r="D43">
         <f t="shared" si="1"/>
-        <v>-12457.156769541558</v>
+        <v>-12457.156240222976</v>
       </c>
       <c r="E43">
         <f t="shared" si="2"/>
-        <v>155180754.78093505</v>
+        <v>155180741.59332621</v>
       </c>
     </row>
     <row r="44" spans="1:5" x14ac:dyDescent="0.25">
@@ -3010,15 +3010,15 @@
       </c>
       <c r="C44">
         <f t="shared" si="0"/>
-        <v>798284.25331027177</v>
+        <v>798284.25390369457</v>
       </c>
       <c r="D44">
         <f t="shared" si="1"/>
-        <v>-15097.746689728228</v>
+        <v>-15097.746096305433</v>
       </c>
       <c r="E44">
         <f t="shared" si="2"/>
-        <v>227941955.10719967</v>
+        <v>227941937.18850595</v>
       </c>
     </row>
     <row r="45" spans="1:5" x14ac:dyDescent="0.25">
@@ -3030,15 +3030,15 @@
       </c>
       <c r="C45">
         <f t="shared" si="0"/>
-        <v>798284.25331027177</v>
+        <v>798284.25390369457</v>
       </c>
       <c r="D45">
         <f t="shared" si="1"/>
-        <v>-9159.7466897282284</v>
+        <v>-9159.7460963054327</v>
       </c>
       <c r="E45">
         <f t="shared" si="2"/>
-        <v>83900959.419987231</v>
+        <v>83900948.548782617</v>
       </c>
     </row>
     <row r="46" spans="1:5" x14ac:dyDescent="0.25">
@@ -3050,15 +3050,15 @@
       </c>
       <c r="C46">
         <f t="shared" si="0"/>
-        <v>889446.3439660744</v>
+        <v>889446.34462726465</v>
       </c>
       <c r="D46">
         <f t="shared" si="1"/>
-        <v>-7806.6560339255957</v>
+        <v>-7806.6553727353457</v>
       </c>
       <c r="E46">
         <f t="shared" si="2"/>
-        <v>60943878.432026908</v>
+        <v>60943868.108657643</v>
       </c>
     </row>
     <row r="47" spans="1:5" x14ac:dyDescent="0.25">
@@ -3070,15 +3070,15 @@
       </c>
       <c r="C47">
         <f t="shared" si="0"/>
-        <v>889446.3439660744</v>
+        <v>889446.34462726465</v>
       </c>
       <c r="D47">
         <f t="shared" si="1"/>
-        <v>-12031.656033925596</v>
+        <v>-12031.655372735346</v>
       </c>
       <c r="E47">
         <f t="shared" si="2"/>
-        <v>144760746.91869819</v>
+        <v>144760731.00827131</v>
       </c>
     </row>
     <row r="48" spans="1:5" x14ac:dyDescent="0.25">
@@ -3090,15 +3090,15 @@
       </c>
       <c r="C48">
         <f t="shared" si="0"/>
-        <v>985536.11519786634</v>
+        <v>985536.11593048717</v>
       </c>
       <c r="D48">
         <f t="shared" si="1"/>
-        <v>-15220.88480213366</v>
+        <v>-15220.884069512831</v>
       </c>
       <c r="E48">
         <f t="shared" si="2"/>
-        <v>231675334.15982342</v>
+        <v>231675311.85754949</v>
       </c>
     </row>
     <row r="49" spans="1:5" x14ac:dyDescent="0.25">
@@ -3110,15 +3110,15 @@
       </c>
       <c r="C49">
         <f t="shared" si="0"/>
-        <v>985536.11519786634</v>
+        <v>985536.11593048717</v>
       </c>
       <c r="D49">
         <f t="shared" si="1"/>
-        <v>-9379.8848021336598</v>
+        <v>-9379.884069512831</v>
       </c>
       <c r="E49">
         <f t="shared" si="2"/>
-        <v>87982238.901298001</v>
+        <v>87982225.157500595</v>
       </c>
     </row>
     <row r="50" spans="1:5" x14ac:dyDescent="0.25">
@@ -3130,15 +3130,15 @@
       </c>
       <c r="C50">
         <f t="shared" si="0"/>
-        <v>985536.11519786634</v>
+        <v>985536.11593048717</v>
       </c>
       <c r="D50">
         <f t="shared" si="1"/>
-        <v>-13535.88480213366</v>
+        <v>-13535.884069512831</v>
       </c>
       <c r="E50">
         <f t="shared" si="2"/>
-        <v>183220177.37663299</v>
+        <v>183220157.54329124</v>
       </c>
     </row>
     <row r="51" spans="1:5" x14ac:dyDescent="0.25">
@@ -3150,15 +3150,15 @@
       </c>
       <c r="C51">
         <f t="shared" si="0"/>
-        <v>985536.11519786634</v>
+        <v>985536.11593048717</v>
       </c>
       <c r="D51">
         <f t="shared" si="1"/>
-        <v>-17165.88480213366</v>
+        <v>-17165.884069512831</v>
       </c>
       <c r="E51">
         <f t="shared" si="2"/>
-        <v>294667601.04012334</v>
+        <v>294667575.88795441</v>
       </c>
     </row>
     <row r="52" spans="1:5" x14ac:dyDescent="0.25">
@@ -3170,15 +3170,15 @@
       </c>
       <c r="C52">
         <f t="shared" si="0"/>
-        <v>1086553.5670056476</v>
+        <v>1086553.5678133622</v>
       </c>
       <c r="D52">
         <f t="shared" si="1"/>
-        <v>-10505.432994352421</v>
+        <v>-10505.432186637772</v>
       </c>
       <c r="E52">
         <f t="shared" si="2"/>
-        <v>110364122.39882848</v>
+        <v>110364105.42804489</v>
       </c>
     </row>
     <row r="53" spans="1:5" x14ac:dyDescent="0.25">
@@ -3190,15 +3190,15 @@
       </c>
       <c r="C53">
         <f t="shared" si="0"/>
-        <v>1086553.5670056476</v>
+        <v>1086553.5678133622</v>
       </c>
       <c r="D53">
         <f t="shared" si="1"/>
-        <v>-11649.432994352421</v>
+        <v>-11649.432186637772</v>
       </c>
       <c r="E53">
         <f t="shared" si="2"/>
-        <v>135709289.08990681</v>
+        <v>135709270.27107212</v>
       </c>
     </row>
     <row r="54" spans="1:5" x14ac:dyDescent="0.25">
@@ -3210,15 +3210,15 @@
       </c>
       <c r="C54">
         <f t="shared" si="0"/>
-        <v>1086553.5670056476</v>
+        <v>1086553.5678133622</v>
       </c>
       <c r="D54">
         <f t="shared" si="1"/>
-        <v>976482.56700564758</v>
+        <v>976482.56781336223</v>
       </c>
       <c r="E54">
         <f t="shared" si="2"/>
-        <v>953518203665.93896</v>
+        <v>953518205243.37756</v>
       </c>
     </row>
     <row r="55" spans="1:5" x14ac:dyDescent="0.25">
@@ -3230,15 +3230,15 @@
       </c>
       <c r="C55">
         <f t="shared" si="0"/>
-        <v>1086553.5670056476</v>
+        <v>1086553.5678133622</v>
       </c>
       <c r="D55">
         <f t="shared" si="1"/>
-        <v>-18163.432994352421</v>
+        <v>-18163.432186637772</v>
       </c>
       <c r="E55">
         <f t="shared" si="2"/>
-        <v>329910298.14033014</v>
+        <v>329910268.79858899</v>
       </c>
     </row>
     <row r="56" spans="1:5" x14ac:dyDescent="0.25">
@@ -3250,15 +3250,15 @@
       </c>
       <c r="C56">
         <f t="shared" si="0"/>
-        <v>1192498.6993894184</v>
+        <v>1192498.7002758896</v>
       </c>
       <c r="D56">
         <f t="shared" si="1"/>
-        <v>-18199.300610581646</v>
+        <v>-18199.299724110402</v>
       </c>
       <c r="E56">
         <f t="shared" si="2"/>
-        <v>331214542.71431744</v>
+        <v>331214510.44800496</v>
       </c>
     </row>
     <row r="57" spans="1:5" x14ac:dyDescent="0.25">
@@ -3270,15 +3270,15 @@
       </c>
       <c r="C57">
         <f t="shared" si="0"/>
-        <v>1192498.6993894184</v>
+        <v>1192498.7002758896</v>
       </c>
       <c r="D57">
         <f t="shared" si="1"/>
-        <v>-22960.300610581646</v>
+        <v>-22960.299724110402</v>
       </c>
       <c r="E57">
         <f t="shared" si="2"/>
-        <v>527175404.12827587</v>
+        <v>527175363.42098421</v>
       </c>
     </row>
     <row r="58" spans="1:5" x14ac:dyDescent="0.25">
@@ -3290,15 +3290,15 @@
       </c>
       <c r="C58">
         <f t="shared" si="0"/>
-        <v>1192498.6993894184</v>
+        <v>1192498.7002758896</v>
       </c>
       <c r="D58">
         <f t="shared" si="1"/>
-        <v>-14946.300610581646</v>
+        <v>-14946.299724110402</v>
       </c>
       <c r="E58">
         <f t="shared" si="2"/>
-        <v>223391901.94187328</v>
+        <v>223391875.44294268</v>
       </c>
     </row>
     <row r="59" spans="1:5" x14ac:dyDescent="0.25">
@@ -3310,15 +3310,15 @@
       </c>
       <c r="C59">
         <f t="shared" si="0"/>
-        <v>1192498.6993894184</v>
+        <v>1192498.7002758896</v>
       </c>
       <c r="D59">
         <f t="shared" si="1"/>
-        <v>-19583.300610581646</v>
+        <v>-19583.299724110402</v>
       </c>
       <c r="E59">
         <f t="shared" si="2"/>
-        <v>383505662.80440748</v>
+        <v>383505628.08434254</v>
       </c>
     </row>
     <row r="60" spans="1:5" x14ac:dyDescent="0.25">
@@ -3330,15 +3330,15 @@
       </c>
       <c r="C60">
         <f t="shared" si="0"/>
-        <v>1303371.5123491783</v>
+        <v>1303371.5133180693</v>
       </c>
       <c r="D60">
         <f t="shared" si="1"/>
-        <v>-15861.487650821684</v>
+        <v>-15861.486681930721</v>
       </c>
       <c r="E60">
         <f t="shared" si="2"/>
-        <v>251586790.49716878</v>
+        <v>251586759.76106563</v>
       </c>
     </row>
     <row r="61" spans="1:5" x14ac:dyDescent="0.25">
@@ -3350,15 +3350,15 @@
       </c>
       <c r="C61">
         <f t="shared" si="0"/>
-        <v>1303371.5123491783</v>
+        <v>1303371.5133180693</v>
       </c>
       <c r="D61">
         <f t="shared" si="1"/>
-        <v>-16559.487650821684</v>
+        <v>-16559.486681930721</v>
       </c>
       <c r="E61">
         <f t="shared" si="2"/>
-        <v>274216631.25771588</v>
+        <v>274216599.16904092</v>
       </c>
     </row>
     <row r="62" spans="1:5" x14ac:dyDescent="0.25">
@@ -3370,15 +3370,15 @@
       </c>
       <c r="C62">
         <f t="shared" si="0"/>
-        <v>1303371.5123491783</v>
+        <v>1303371.5133180693</v>
       </c>
       <c r="D62">
         <f t="shared" si="1"/>
-        <v>-19205.487650821684</v>
+        <v>-19205.486681930721</v>
       </c>
       <c r="E62">
         <f t="shared" si="2"/>
-        <v>368850755.90586418</v>
+        <v>368850718.68981826</v>
       </c>
     </row>
     <row r="63" spans="1:5" x14ac:dyDescent="0.25">
@@ -3390,15 +3390,15 @@
       </c>
       <c r="C63">
         <f t="shared" si="0"/>
-        <v>1303371.5123491783</v>
+        <v>1303371.5133180693</v>
       </c>
       <c r="D63">
         <f t="shared" si="1"/>
-        <v>-7202.4876508216839</v>
+        <v>-7202.4866819307208</v>
       </c>
       <c r="E63">
         <f t="shared" si="2"/>
-        <v>51875828.360238858</v>
+        <v>51875814.403389402</v>
       </c>
     </row>
     <row r="64" spans="1:5" x14ac:dyDescent="0.25">
@@ -3410,15 +3410,15 @@
       </c>
       <c r="C64">
         <f t="shared" si="0"/>
-        <v>1419172.0058849275</v>
+        <v>1419172.0069399015</v>
       </c>
       <c r="D64">
         <f t="shared" si="1"/>
-        <v>-14107.994115072535</v>
+        <v>-14107.993060098495</v>
       </c>
       <c r="E64">
         <f t="shared" si="2"/>
-        <v>199035497.9509213</v>
+        <v>199035468.18378732</v>
       </c>
     </row>
     <row r="65" spans="1:5" x14ac:dyDescent="0.25">
@@ -3430,15 +3430,15 @@
       </c>
       <c r="C65">
         <f t="shared" si="0"/>
-        <v>1419172.0058849275</v>
+        <v>1419172.0069399015</v>
       </c>
       <c r="D65">
         <f t="shared" si="1"/>
-        <v>-12749.994115072535</v>
+        <v>-12749.993060098495</v>
       </c>
       <c r="E65">
         <f t="shared" si="2"/>
-        <v>162562349.93438429</v>
+        <v>162562323.03255978</v>
       </c>
     </row>
     <row r="66" spans="1:5" x14ac:dyDescent="0.25">
@@ -3450,15 +3450,15 @@
       </c>
       <c r="C66">
         <f t="shared" si="0"/>
-        <v>1419172.0058849275</v>
+        <v>1419172.0069399015</v>
       </c>
       <c r="D66">
         <f t="shared" si="1"/>
-        <v>-25634.994115072535</v>
+        <v>-25634.993060098495</v>
       </c>
       <c r="E66">
         <f t="shared" si="2"/>
-        <v>657152923.27980351</v>
+        <v>657152869.19129801</v>
       </c>
     </row>
     <row r="67" spans="1:5" x14ac:dyDescent="0.25">
@@ -3470,15 +3470,15 @@
       </c>
       <c r="C67">
         <f t="shared" ref="C67:C127" si="3">($G$2*A67^2)/2</f>
-        <v>1419172.0058849275</v>
+        <v>1419172.0069399015</v>
       </c>
       <c r="D67">
         <f t="shared" ref="D67:D127" si="4">C67-B67</f>
-        <v>-26900.994115072535</v>
+        <v>-26900.993060098495</v>
       </c>
       <c r="E67">
         <f t="shared" ref="E67:E127" si="5">D67^2</f>
-        <v>723663484.3791672</v>
+        <v>723663427.61946738</v>
       </c>
     </row>
     <row r="68" spans="1:5" x14ac:dyDescent="0.25">
@@ -3490,15 +3490,15 @@
       </c>
       <c r="C68">
         <f t="shared" si="3"/>
-        <v>1539900.179996666</v>
+        <v>1539900.1811413863</v>
       </c>
       <c r="D68">
         <f t="shared" si="4"/>
-        <v>-17935.820003333967</v>
+        <v>-17935.818858613726</v>
       </c>
       <c r="E68">
         <f t="shared" si="5"/>
-        <v>321693639.19199485</v>
+        <v>321693598.12900376</v>
       </c>
     </row>
     <row r="69" spans="1:5" x14ac:dyDescent="0.25">
@@ -3510,15 +3510,15 @@
       </c>
       <c r="C69">
         <f t="shared" si="3"/>
-        <v>1539900.179996666</v>
+        <v>1539900.1811413863</v>
       </c>
       <c r="D69">
         <f t="shared" si="4"/>
-        <v>-19103.820003333967</v>
+        <v>-19103.818858613726</v>
       </c>
       <c r="E69">
         <f t="shared" si="5"/>
-        <v>364955938.71978301</v>
+        <v>364955894.98272544</v>
       </c>
     </row>
     <row r="70" spans="1:5" x14ac:dyDescent="0.25">
@@ -3530,15 +3530,15 @@
       </c>
       <c r="C70">
         <f t="shared" si="3"/>
-        <v>1539900.179996666</v>
+        <v>1539900.1811413863</v>
       </c>
       <c r="D70">
         <f t="shared" si="4"/>
-        <v>-18912.820003333967</v>
+        <v>-18912.818858613726</v>
       </c>
       <c r="E70">
         <f t="shared" si="5"/>
-        <v>357694760.47850943</v>
+        <v>357694717.17873502</v>
       </c>
     </row>
     <row r="71" spans="1:5" x14ac:dyDescent="0.25">
@@ -3550,15 +3550,15 @@
       </c>
       <c r="C71">
         <f t="shared" si="3"/>
-        <v>1539900.179996666</v>
+        <v>1539900.1811413863</v>
       </c>
       <c r="D71">
         <f t="shared" si="4"/>
-        <v>-11338.820003333967</v>
+        <v>-11338.818858613726</v>
       </c>
       <c r="E71">
         <f t="shared" si="5"/>
-        <v>128568839.0680065</v>
+        <v>128568813.10845427</v>
       </c>
     </row>
     <row r="72" spans="1:5" x14ac:dyDescent="0.25">
@@ -3570,15 +3570,15 @@
       </c>
       <c r="C72">
         <f t="shared" si="3"/>
-        <v>1614702.3711401841</v>
+        <v>1614702.3723405101</v>
       </c>
       <c r="D72">
         <f t="shared" si="4"/>
-        <v>43437.371140184114</v>
+        <v>43437.372340510134</v>
       </c>
       <c r="E72">
         <f t="shared" si="5"/>
-        <v>1886805211.5700998</v>
+        <v>1886805315.8481147</v>
       </c>
     </row>
     <row r="73" spans="1:5" x14ac:dyDescent="0.25">
@@ -3590,15 +3590,15 @@
       </c>
       <c r="C73">
         <f t="shared" si="3"/>
-        <v>1614702.3711401841</v>
+        <v>1614702.3723405101</v>
       </c>
       <c r="D73">
         <f t="shared" si="4"/>
-        <v>54095.371140184114</v>
+        <v>54095.372340510134</v>
       </c>
       <c r="E73">
         <f t="shared" si="5"/>
-        <v>2926309178.7942643</v>
+        <v>2926309308.6584287</v>
       </c>
     </row>
     <row r="74" spans="1:5" x14ac:dyDescent="0.25">
@@ -3610,15 +3610,15 @@
       </c>
       <c r="C74">
         <f t="shared" si="3"/>
-        <v>1665556.034684394</v>
+        <v>1665556.0359225234</v>
       </c>
       <c r="D74">
         <f t="shared" si="4"/>
-        <v>-27076.965315605979</v>
+        <v>-27076.964077476645</v>
       </c>
       <c r="E74">
         <f t="shared" si="5"/>
-        <v>733162050.70252919</v>
+        <v>733161983.65296066</v>
       </c>
     </row>
     <row r="75" spans="1:5" x14ac:dyDescent="0.25">
@@ -3630,15 +3630,15 @@
       </c>
       <c r="C75">
         <f t="shared" si="3"/>
-        <v>1665556.034684394</v>
+        <v>1665556.0359225234</v>
       </c>
       <c r="D75">
         <f t="shared" si="4"/>
-        <v>1497034.034684394</v>
+        <v>1497034.0359225234</v>
       </c>
       <c r="E75">
         <f t="shared" si="5"/>
-        <v>2241110901003.4355</v>
+        <v>2241110904710.479</v>
       </c>
     </row>
     <row r="76" spans="1:5" x14ac:dyDescent="0.25">
@@ -3650,15 +3650,15 @@
       </c>
       <c r="C76">
         <f t="shared" si="3"/>
-        <v>1796139.5699481114</v>
+        <v>1796139.571283313</v>
       </c>
       <c r="D76">
         <f t="shared" si="4"/>
-        <v>-25645.430051888572</v>
+        <v>-25645.42871668702</v>
       </c>
       <c r="E76">
         <f t="shared" si="5"/>
-        <v>657688082.54630947</v>
+        <v>657688014.06267524</v>
       </c>
     </row>
     <row r="77" spans="1:5" x14ac:dyDescent="0.25">
@@ -3670,15 +3670,15 @@
       </c>
       <c r="C77">
         <f t="shared" si="3"/>
-        <v>1796139.5699481114</v>
+        <v>1796139.571283313</v>
       </c>
       <c r="D77">
         <f t="shared" si="4"/>
-        <v>1614313.5699481114</v>
+        <v>1614313.571283313</v>
       </c>
       <c r="E77">
         <f t="shared" si="5"/>
-        <v>2606008302118.6162</v>
+        <v>2606008306429.4839</v>
       </c>
     </row>
     <row r="78" spans="1:5" x14ac:dyDescent="0.25">
@@ -3690,15 +3690,15 @@
       </c>
       <c r="C78">
         <f t="shared" si="3"/>
-        <v>1931650.785787818</v>
+        <v>1931650.7872237549</v>
       </c>
       <c r="D78">
         <f t="shared" si="4"/>
-        <v>-20341.214212181978</v>
+        <v>-20341.212776245084</v>
       </c>
       <c r="E78">
         <f t="shared" si="5"/>
-        <v>413764995.6258741</v>
+        <v>413764937.20847625</v>
       </c>
     </row>
     <row r="79" spans="1:5" x14ac:dyDescent="0.25">
@@ -3710,15 +3710,15 @@
       </c>
       <c r="C79">
         <f t="shared" si="3"/>
-        <v>1931650.785787818</v>
+        <v>1931650.7872237549</v>
       </c>
       <c r="D79">
         <f t="shared" si="4"/>
-        <v>-37528.214212181978</v>
+        <v>-37528.212776245084</v>
       </c>
       <c r="E79">
         <f t="shared" si="5"/>
-        <v>1408366861.9554174</v>
+        <v>1408366754.1791248</v>
       </c>
     </row>
     <row r="80" spans="1:5" x14ac:dyDescent="0.25">
@@ -3730,15 +3730,15 @@
       </c>
       <c r="C80">
         <f t="shared" si="3"/>
-        <v>2072089.682203514</v>
+        <v>2072089.6837438494</v>
       </c>
       <c r="D80">
         <f t="shared" si="4"/>
-        <v>-20814.317796485964</v>
+        <v>-20814.316256150603</v>
       </c>
       <c r="E80">
         <f t="shared" si="5"/>
-        <v>433235825.3331123</v>
+        <v>433235761.21105528</v>
       </c>
     </row>
     <row r="81" spans="1:5" x14ac:dyDescent="0.25">
@@ -3750,15 +3750,15 @@
       </c>
       <c r="C81">
         <f t="shared" si="3"/>
-        <v>2072089.682203514</v>
+        <v>2072089.6837438494</v>
       </c>
       <c r="D81">
         <f t="shared" si="4"/>
-        <v>1861882.682203514</v>
+        <v>1861882.6837438494</v>
       </c>
       <c r="E81">
         <f t="shared" si="5"/>
-        <v>3466607122289.3516</v>
+        <v>3466607128025.1992</v>
       </c>
     </row>
     <row r="82" spans="1:5" x14ac:dyDescent="0.25">
@@ -3770,15 +3770,15 @@
       </c>
       <c r="C82">
         <f t="shared" si="3"/>
-        <v>2217456.2591951992</v>
+        <v>2217456.260843596</v>
       </c>
       <c r="D82">
         <f t="shared" si="4"/>
-        <v>-36994.740804800764</v>
+        <v>-36994.739156404044</v>
       </c>
       <c r="E82">
         <f t="shared" si="5"/>
-        <v>1368610847.2143908</v>
+        <v>1368610725.2503746</v>
       </c>
     </row>
     <row r="83" spans="1:5" x14ac:dyDescent="0.25">
@@ -3790,15 +3790,15 @@
       </c>
       <c r="C83">
         <f t="shared" si="3"/>
-        <v>2217456.2591951992</v>
+        <v>2217456.260843596</v>
       </c>
       <c r="D83">
         <f t="shared" si="4"/>
-        <v>-33436.740804800764</v>
+        <v>-33436.739156404044</v>
       </c>
       <c r="E83">
         <f t="shared" si="5"/>
-        <v>1118015635.6474285</v>
+        <v>1118015525.4134035</v>
       </c>
     </row>
     <row r="84" spans="1:5" x14ac:dyDescent="0.25">
@@ -3810,15 +3810,15 @@
       </c>
       <c r="C84">
         <f t="shared" si="3"/>
-        <v>2367750.5167628736</v>
+        <v>2367750.5185229955</v>
       </c>
       <c r="D84">
         <f t="shared" si="4"/>
-        <v>-22994.483237126376</v>
+        <v>-22994.481477004476</v>
       </c>
       <c r="E84">
         <f t="shared" si="5"/>
-        <v>528746259.3424859</v>
+        <v>528746178.39630193</v>
       </c>
     </row>
     <row r="85" spans="1:5" x14ac:dyDescent="0.25">
@@ -3830,15 +3830,15 @@
       </c>
       <c r="C85">
         <f t="shared" si="3"/>
-        <v>2367750.5167628736</v>
+        <v>2367750.5185229955</v>
       </c>
       <c r="D85">
         <f t="shared" si="4"/>
-        <v>-42342.483237126376</v>
+        <v>-42342.481477004476</v>
       </c>
       <c r="E85">
         <f t="shared" si="5"/>
-        <v>1792885886.6863282</v>
+        <v>1792885737.6304672</v>
       </c>
     </row>
     <row r="86" spans="1:5" x14ac:dyDescent="0.25">
@@ -3850,15 +3850,15 @@
       </c>
       <c r="C86">
         <f t="shared" si="3"/>
-        <v>2522972.4549065377</v>
+        <v>2522972.4567820472</v>
       </c>
       <c r="D86">
         <f t="shared" si="4"/>
-        <v>-50236.545093462337</v>
+        <v>-50236.543217952829</v>
       </c>
       <c r="E86">
         <f t="shared" si="5"/>
-        <v>2523710462.927475</v>
+        <v>2523710274.4892426</v>
       </c>
     </row>
     <row r="87" spans="1:5" x14ac:dyDescent="0.25">
@@ -3870,15 +3870,15 @@
       </c>
       <c r="C87">
         <f t="shared" si="3"/>
-        <v>2522972.4549065377</v>
+        <v>2522972.4567820472</v>
       </c>
       <c r="D87">
         <f t="shared" si="4"/>
-        <v>-27065.545093462337</v>
+        <v>-27065.543217952829</v>
       </c>
       <c r="E87">
         <f t="shared" si="5"/>
-        <v>732543731.20624316</v>
+        <v>732543629.68287241</v>
       </c>
     </row>
     <row r="88" spans="1:5" x14ac:dyDescent="0.25">
@@ -3890,15 +3890,15 @@
       </c>
       <c r="C88">
         <f t="shared" si="3"/>
-        <v>2683122.0736261909</v>
+        <v>2683122.0756207514</v>
       </c>
       <c r="D88">
         <f t="shared" si="4"/>
-        <v>-41216.92637380911</v>
+        <v>-41216.924379248638</v>
       </c>
       <c r="E88">
         <f t="shared" si="5"/>
-        <v>1698835019.7040009</v>
+        <v>1698834855.2847006</v>
       </c>
     </row>
     <row r="89" spans="1:5" x14ac:dyDescent="0.25">
@@ -3910,15 +3910,15 @@
       </c>
       <c r="C89">
         <f t="shared" si="3"/>
-        <v>2683122.0736261909</v>
+        <v>2683122.0756207514</v>
       </c>
       <c r="D89">
         <f t="shared" si="4"/>
-        <v>-12224.92637380911</v>
+        <v>-12224.924379248638</v>
       </c>
       <c r="E89">
         <f t="shared" si="5"/>
-        <v>149448824.84505355</v>
+        <v>149448776.07834768</v>
       </c>
     </row>
     <row r="90" spans="1:5" x14ac:dyDescent="0.25">
@@ -3930,15 +3930,15 @@
       </c>
       <c r="C90">
         <f t="shared" si="3"/>
-        <v>2848199.3729218338</v>
+        <v>2848199.3750391081</v>
       </c>
       <c r="D90">
         <f t="shared" si="4"/>
-        <v>-31027.627078166232</v>
+        <v>-31027.624960891902</v>
       </c>
       <c r="E90">
         <f t="shared" si="5"/>
-        <v>962713642.10175431</v>
+        <v>962713510.71376228</v>
       </c>
     </row>
     <row r="91" spans="1:5" x14ac:dyDescent="0.25">
@@ -3950,15 +3950,15 @@
       </c>
       <c r="C91">
         <f t="shared" si="3"/>
-        <v>2848199.3729218338</v>
+        <v>2848199.3750391081</v>
       </c>
       <c r="D91">
         <f t="shared" si="4"/>
-        <v>-36467.627078166232</v>
+        <v>-36467.624960891902</v>
       </c>
       <c r="E91">
         <f t="shared" si="5"/>
-        <v>1329887824.712203</v>
+        <v>1329887670.2882662</v>
       </c>
     </row>
     <row r="92" spans="1:5" x14ac:dyDescent="0.25">
@@ -3970,15 +3970,15 @@
       </c>
       <c r="C92">
         <f t="shared" si="3"/>
-        <v>3018204.3527934658</v>
+        <v>3018204.3550371169</v>
       </c>
       <c r="D92">
         <f t="shared" si="4"/>
-        <v>-33464.647206534166</v>
+        <v>-33464.644962883089</v>
       </c>
       <c r="E92">
         <f t="shared" si="5"/>
-        <v>1119882612.657795</v>
+        <v>1119882462.4918165</v>
       </c>
     </row>
     <row r="93" spans="1:5" x14ac:dyDescent="0.25">
@@ -3990,15 +3990,15 @@
       </c>
       <c r="C93">
         <f t="shared" si="3"/>
-        <v>3018204.3527934658</v>
+        <v>3018204.3550371169</v>
       </c>
       <c r="D93">
         <f t="shared" si="4"/>
-        <v>-43986.647206534166</v>
+        <v>-43986.644962883089</v>
       </c>
       <c r="E93">
         <f t="shared" si="5"/>
-        <v>1934825132.4721</v>
+        <v>1934824935.0907283</v>
       </c>
     </row>
     <row r="94" spans="1:5" x14ac:dyDescent="0.25">
@@ -4010,15 +4010,15 @@
       </c>
       <c r="C94">
         <f t="shared" si="3"/>
-        <v>3193137.0132410871</v>
+        <v>3193137.0156147783</v>
       </c>
       <c r="D94">
         <f t="shared" si="4"/>
-        <v>-43789.986758912914</v>
+        <v>-43789.984385221731</v>
       </c>
       <c r="E94">
         <f t="shared" si="5"/>
-        <v>1917562940.3457682</v>
+        <v>1917562732.457963</v>
       </c>
     </row>
     <row r="95" spans="1:5" x14ac:dyDescent="0.25">
@@ -4030,15 +4030,15 @@
       </c>
       <c r="C95">
         <f t="shared" si="3"/>
-        <v>3193137.0132410871</v>
+        <v>3193137.0156147783</v>
       </c>
       <c r="D95">
         <f t="shared" si="4"/>
-        <v>-49165.986758912914</v>
+        <v>-49165.984385221731</v>
       </c>
       <c r="E95">
         <f t="shared" si="5"/>
-        <v>2417294253.9776001</v>
+        <v>2417294020.5678673</v>
       </c>
     </row>
     <row r="96" spans="1:5" x14ac:dyDescent="0.25">
@@ -4050,15 +4050,15 @@
       </c>
       <c r="C96">
         <f t="shared" si="3"/>
-        <v>3372997.3542646975</v>
+        <v>3372997.3567720922</v>
       </c>
       <c r="D96">
         <f t="shared" si="4"/>
-        <v>-45046.645735302474</v>
+        <v>-45046.643227907829</v>
       </c>
       <c r="E96">
         <f t="shared" si="5"/>
-        <v>2029200292.0018446</v>
+        <v>2029200066.1024144</v>
       </c>
     </row>
     <row r="97" spans="1:5" x14ac:dyDescent="0.25">
@@ -4070,15 +4070,15 @@
       </c>
       <c r="C97">
         <f t="shared" si="3"/>
-        <v>3372997.3542646975</v>
+        <v>3372997.3567720922</v>
       </c>
       <c r="D97">
         <f t="shared" si="4"/>
-        <v>-56555.645735302474</v>
+        <v>-56555.643227907829</v>
       </c>
       <c r="E97">
         <f t="shared" si="5"/>
-        <v>3198541064.5370369</v>
+        <v>3198540780.9223967</v>
       </c>
     </row>
     <row r="98" spans="1:5" x14ac:dyDescent="0.25">
@@ -4090,15 +4090,15 @@
       </c>
       <c r="C98">
         <f t="shared" si="3"/>
-        <v>3557785.3758642976</v>
+        <v>3557785.3785090586</v>
       </c>
       <c r="D98">
         <f t="shared" si="4"/>
-        <v>-53904.624135702383</v>
+        <v>-53904.621490941383</v>
       </c>
       <c r="E98">
         <f t="shared" si="5"/>
-        <v>2905708503.2113481</v>
+        <v>2905708218.0816598</v>
       </c>
     </row>
     <row r="99" spans="1:5" x14ac:dyDescent="0.25">
@@ -4110,15 +4110,15 @@
       </c>
       <c r="C99">
         <f t="shared" si="3"/>
-        <v>3557785.3758642976</v>
+        <v>3557785.3785090586</v>
       </c>
       <c r="D99">
         <f t="shared" si="4"/>
-        <v>-33771.624135702383</v>
+        <v>-33771.621490941383</v>
       </c>
       <c r="E99">
         <f t="shared" si="5"/>
-        <v>1140522596.7631557</v>
+        <v>1140522418.127414</v>
       </c>
     </row>
     <row r="100" spans="1:5" x14ac:dyDescent="0.25">
@@ -4130,15 +4130,15 @@
       </c>
       <c r="C100">
         <f t="shared" si="3"/>
-        <v>3747501.0780398869</v>
+        <v>3747501.0808256776</v>
       </c>
       <c r="D100">
         <f t="shared" si="4"/>
-        <v>-51470.921960113104</v>
+        <v>-51470.919174322393</v>
       </c>
       <c r="E100">
         <f t="shared" si="5"/>
-        <v>2649255807.4240532</v>
+        <v>2649255520.6496286</v>
       </c>
     </row>
     <row r="101" spans="1:5" x14ac:dyDescent="0.25">
@@ -4150,15 +4150,15 @@
       </c>
       <c r="C101">
         <f t="shared" si="3"/>
-        <v>3747501.0780398869</v>
+        <v>3747501.0808256776</v>
       </c>
       <c r="D101">
         <f t="shared" si="4"/>
-        <v>-60739.921960113104</v>
+        <v>-60739.919174322393</v>
       </c>
       <c r="E101">
         <f t="shared" si="5"/>
-        <v>3689338119.7206302</v>
+        <v>3689337781.3032169</v>
       </c>
     </row>
     <row r="102" spans="1:5" x14ac:dyDescent="0.25">
@@ -4170,15 +4170,15 @@
       </c>
       <c r="C102">
         <f t="shared" si="3"/>
-        <v>3942144.4607914654</v>
+        <v>3942144.4637219487</v>
       </c>
       <c r="D102">
         <f t="shared" si="4"/>
-        <v>-46659.539208534639</v>
+        <v>-46659.536278051324</v>
       </c>
       <c r="E102">
         <f t="shared" si="5"/>
-        <v>2177112599.1527815</v>
+        <v>2177112325.6827874</v>
       </c>
     </row>
     <row r="103" spans="1:5" x14ac:dyDescent="0.25">
@@ -4190,15 +4190,15 @@
       </c>
       <c r="C103">
         <f t="shared" si="3"/>
-        <v>3942144.4607914654</v>
+        <v>3942144.4637219487</v>
       </c>
       <c r="D103">
         <f t="shared" si="4"/>
-        <v>-68514.539208534639</v>
+        <v>-68514.536278051324</v>
       </c>
       <c r="E103">
         <f t="shared" si="5"/>
-        <v>4694242082.9578304</v>
+        <v>4694241681.3964109</v>
       </c>
     </row>
     <row r="104" spans="1:5" x14ac:dyDescent="0.25">
@@ -4210,15 +4210,15 @@
       </c>
       <c r="C104">
         <f t="shared" si="3"/>
-        <v>4141715.524119033</v>
+        <v>4141715.5271978723</v>
       </c>
       <c r="D104">
         <f t="shared" si="4"/>
-        <v>-50751.475880966987</v>
+        <v>-50751.472802127711</v>
       </c>
       <c r="E104">
         <f t="shared" si="5"/>
-        <v>2575712304.096374</v>
+        <v>2575711991.5851088</v>
       </c>
     </row>
     <row r="105" spans="1:5" x14ac:dyDescent="0.25">
@@ -4230,15 +4230,15 @@
       </c>
       <c r="C105">
         <f t="shared" si="3"/>
-        <v>4141715.524119033</v>
+        <v>4141715.5271978723</v>
       </c>
       <c r="D105">
         <f t="shared" si="4"/>
-        <v>-64436.475880966987</v>
+        <v>-64436.472802127711</v>
       </c>
       <c r="E105">
         <f t="shared" si="5"/>
-        <v>4152059423.9584403</v>
+        <v>4152059027.1793442</v>
       </c>
     </row>
     <row r="106" spans="1:5" x14ac:dyDescent="0.25">
@@ -4250,15 +4250,15 @@
       </c>
       <c r="C106">
         <f t="shared" si="3"/>
-        <v>4346214.2680225903</v>
+        <v>4346214.2712534489</v>
       </c>
       <c r="D106">
         <f t="shared" si="4"/>
-        <v>-68017.731977409683</v>
+        <v>-68017.728746551089</v>
       </c>
       <c r="E106">
         <f t="shared" si="5"/>
-        <v>4626411863.3507395</v>
+        <v>4626411423.8394022</v>
       </c>
     </row>
     <row r="107" spans="1:5" x14ac:dyDescent="0.25">
@@ -4270,15 +4270,15 @@
       </c>
       <c r="C107">
         <f t="shared" si="3"/>
-        <v>4346214.2680225903</v>
+        <v>4346214.2712534489</v>
       </c>
       <c r="D107">
         <f t="shared" si="4"/>
-        <v>-80327.731977409683</v>
+        <v>-80327.728746551089</v>
       </c>
       <c r="E107">
         <f t="shared" si="5"/>
-        <v>6452544524.6345663</v>
+        <v>6452544005.5794907</v>
       </c>
     </row>
     <row r="108" spans="1:5" x14ac:dyDescent="0.25">
@@ -4290,15 +4290,15 @@
       </c>
       <c r="C108">
         <f t="shared" si="3"/>
-        <v>4555640.6925021373</v>
+        <v>4555640.6958886767</v>
       </c>
       <c r="D108">
         <f t="shared" si="4"/>
-        <v>-81280.307497862726</v>
+        <v>-81280.304111323319</v>
       </c>
       <c r="E108">
         <f t="shared" si="5"/>
-        <v>6606488386.9471197</v>
+        <v>6606487836.4292021</v>
       </c>
     </row>
     <row r="109" spans="1:5" x14ac:dyDescent="0.25">
@@ -4310,15 +4310,15 @@
       </c>
       <c r="C109">
         <f t="shared" si="3"/>
-        <v>4555640.6925021373</v>
+        <v>4555640.6958886767</v>
       </c>
       <c r="D109">
         <f t="shared" si="4"/>
-        <v>-51457.307497862726</v>
+        <v>-51457.304111323319</v>
       </c>
       <c r="E109">
         <f t="shared" si="5"/>
-        <v>2647854494.9295998</v>
+        <v>2647854146.4052119</v>
       </c>
     </row>
     <row r="110" spans="1:5" x14ac:dyDescent="0.25">
@@ -4330,15 +4330,15 @@
       </c>
       <c r="C110">
         <f t="shared" si="3"/>
-        <v>4769994.7975576734</v>
+        <v>4769994.8011035584</v>
       </c>
       <c r="D110">
         <f t="shared" si="4"/>
-        <v>-72735.202442326583</v>
+        <v>-72735.198896441609</v>
       </c>
       <c r="E110">
         <f t="shared" si="5"/>
-        <v>5290409674.326231</v>
+        <v>5290409158.504921</v>
       </c>
     </row>
     <row r="111" spans="1:5" x14ac:dyDescent="0.25">
@@ -4350,15 +4350,15 @@
       </c>
       <c r="C111">
         <f t="shared" si="3"/>
-        <v>4769994.7975576734</v>
+        <v>4769994.8011035584</v>
       </c>
       <c r="D111">
         <f t="shared" si="4"/>
-        <v>-89630.202442326583</v>
+        <v>-89630.198896441609</v>
       </c>
       <c r="E111">
         <f t="shared" si="5"/>
-        <v>8033573189.8524466</v>
+        <v>8033572554.215683</v>
       </c>
     </row>
     <row r="112" spans="1:5" x14ac:dyDescent="0.25">
@@ -4370,15 +4370,15 @@
       </c>
       <c r="C112">
         <f t="shared" si="3"/>
-        <v>4989276.5831891978</v>
+        <v>4989276.5868980912</v>
       </c>
       <c r="D112">
         <f t="shared" si="4"/>
-        <v>-49957.416810802184</v>
+        <v>-49957.413101908751</v>
       </c>
       <c r="E112">
         <f t="shared" si="5"/>
-        <v>2495743494.4082208</v>
+        <v>2495743123.834764</v>
       </c>
     </row>
     <row r="113" spans="1:5" x14ac:dyDescent="0.25">
@@ -4390,15 +4390,15 @@
       </c>
       <c r="C113">
         <f t="shared" si="3"/>
-        <v>4989276.5831891978</v>
+        <v>4989276.5868980912</v>
       </c>
       <c r="D113">
         <f t="shared" si="4"/>
-        <v>-75516.416810802184</v>
+        <v>-75516.413101908751</v>
       </c>
       <c r="E113">
         <f t="shared" si="5"/>
-        <v>5702729207.9428062</v>
+        <v>5702728647.7781353</v>
       </c>
     </row>
     <row r="114" spans="1:5" x14ac:dyDescent="0.25">
@@ -4410,15 +4410,15 @@
       </c>
       <c r="C114">
         <f t="shared" si="3"/>
-        <v>5213486.0493967133</v>
+        <v>5213486.0532722771</v>
       </c>
       <c r="D114">
         <f t="shared" si="4"/>
-        <v>-62749.950603286736</v>
+        <v>-62749.946727722883</v>
       </c>
       <c r="E114">
         <f t="shared" si="5"/>
-        <v>3937556300.7149253</v>
+        <v>3937555814.3320599</v>
       </c>
     </row>
     <row r="115" spans="1:5" x14ac:dyDescent="0.25">
@@ -4430,15 +4430,15 @@
       </c>
       <c r="C115">
         <f t="shared" si="3"/>
-        <v>5213486.0493967133</v>
+        <v>5213486.0532722771</v>
       </c>
       <c r="D115">
         <f t="shared" si="4"/>
-        <v>-74729.950603286736</v>
+        <v>-74729.946727722883</v>
       </c>
       <c r="E115">
         <f t="shared" si="5"/>
-        <v>5584565517.1696758</v>
+        <v>5584564937.9282999</v>
       </c>
     </row>
     <row r="116" spans="1:5" x14ac:dyDescent="0.25">
@@ -4450,15 +4450,15 @@
       </c>
       <c r="C116">
         <f t="shared" si="3"/>
-        <v>5442623.196180217</v>
+        <v>5442623.2002261151</v>
       </c>
       <c r="D116">
         <f t="shared" si="4"/>
-        <v>-78876.803819783032</v>
+        <v>-78876.799773884937</v>
       </c>
       <c r="E116">
         <f t="shared" si="5"/>
-        <v>6221550180.8245392</v>
+        <v>6221549542.5695353</v>
       </c>
     </row>
     <row r="117" spans="1:5" x14ac:dyDescent="0.25">
@@ -4470,15 +4470,15 @@
       </c>
       <c r="C117">
         <f t="shared" si="3"/>
-        <v>5442623.196180217</v>
+        <v>5442623.2002261151</v>
       </c>
       <c r="D117">
         <f t="shared" si="4"/>
-        <v>-70240.803819783032</v>
+        <v>-70240.799773884937</v>
       </c>
       <c r="E117">
         <f t="shared" si="5"/>
-        <v>4933770521.2492466</v>
+        <v>4933769952.8749943</v>
       </c>
     </row>
     <row r="118" spans="1:5" x14ac:dyDescent="0.25">
@@ -4490,15 +4490,15 @@
       </c>
       <c r="C118">
         <f t="shared" si="3"/>
-        <v>5676688.0235397099</v>
+        <v>5676688.027759606</v>
       </c>
       <c r="D118">
         <f t="shared" si="4"/>
-        <v>-76740.976460290141</v>
+        <v>-76740.972240393981</v>
       </c>
       <c r="E118">
         <f t="shared" si="5"/>
-        <v>5889177468.0788059</v>
+        <v>5889176820.4009199</v>
       </c>
     </row>
     <row r="119" spans="1:5" x14ac:dyDescent="0.25">
@@ -4510,15 +4510,15 @@
       </c>
       <c r="C119">
         <f t="shared" si="3"/>
-        <v>5676688.0235397099</v>
+        <v>5676688.027759606</v>
       </c>
       <c r="D119">
         <f t="shared" si="4"/>
-        <v>-109186.97646029014</v>
+        <v>-109186.97224039398</v>
       </c>
       <c r="E119">
         <f t="shared" si="5"/>
-        <v>11921795828.539953</v>
+        <v>11921794907.024567</v>
       </c>
     </row>
     <row r="120" spans="1:5" x14ac:dyDescent="0.25">
@@ -4530,15 +4530,15 @@
       </c>
       <c r="C120">
         <f t="shared" si="3"/>
-        <v>5915680.5314751929</v>
+        <v>5915680.5358727491</v>
       </c>
       <c r="D120">
         <f t="shared" si="4"/>
-        <v>-57638.468524807133</v>
+        <v>-57638.464127250947</v>
       </c>
       <c r="E120">
         <f t="shared" si="5"/>
-        <v>3322193053.8851824</v>
+        <v>3322192546.9483943</v>
       </c>
     </row>
     <row r="121" spans="1:5" x14ac:dyDescent="0.25">
@@ -4550,15 +4550,15 @@
       </c>
       <c r="C121">
         <f t="shared" si="3"/>
-        <v>5915680.5314751929</v>
+        <v>5915680.5358727491</v>
       </c>
       <c r="D121">
         <f t="shared" si="4"/>
-        <v>-81144.468524807133</v>
+        <v>-81144.464127250947</v>
       </c>
       <c r="E121">
         <f t="shared" si="5"/>
-        <v>6584424772.1734152</v>
+        <v>6584424058.4987154</v>
       </c>
     </row>
     <row r="122" spans="1:5" x14ac:dyDescent="0.25">
@@ -4570,15 +4570,15 @@
       </c>
       <c r="C122">
         <f t="shared" si="3"/>
-        <v>6159600.7199866641</v>
+        <v>6159600.7245655451</v>
       </c>
       <c r="D122">
         <f t="shared" si="4"/>
-        <v>-109863.28001333587</v>
+        <v>-109863.2754344549</v>
       </c>
       <c r="E122">
         <f t="shared" si="5"/>
-        <v>12069940295.288645</v>
+        <v>12069939289.186903</v>
       </c>
     </row>
     <row r="123" spans="1:5" x14ac:dyDescent="0.25">
@@ -4590,15 +4590,15 @@
       </c>
       <c r="C123">
         <f t="shared" si="3"/>
-        <v>6159600.7199866641</v>
+        <v>6159600.7245655451</v>
       </c>
       <c r="D123">
         <f t="shared" si="4"/>
-        <v>-59898.280013335869</v>
+        <v>-59898.275434454903</v>
       </c>
       <c r="E123">
         <f t="shared" si="5"/>
-        <v>3587803948.5559912</v>
+        <v>3587803400.0218239</v>
       </c>
     </row>
     <row r="124" spans="1:5" x14ac:dyDescent="0.25">
@@ -4610,15 +4610,15 @@
       </c>
       <c r="C124">
         <f t="shared" si="3"/>
-        <v>6458809.4845607365</v>
+        <v>6458809.4893620405</v>
       </c>
       <c r="D124">
         <f t="shared" si="4"/>
-        <v>246823.48456073646</v>
+        <v>246823.48936204053</v>
       </c>
       <c r="E124">
         <f t="shared" si="5"/>
-        <v>60921832530.704109</v>
+        <v>60921834900.85334</v>
       </c>
     </row>
     <row r="125" spans="1:5" x14ac:dyDescent="0.25">
@@ -4630,15 +4630,15 @@
       </c>
       <c r="C125">
         <f t="shared" si="3"/>
-        <v>6458809.4845607365</v>
+        <v>6458809.4893620405</v>
       </c>
       <c r="D125">
         <f t="shared" si="4"/>
-        <v>224865.48456073646</v>
+        <v>224865.48936204053</v>
       </c>
       <c r="E125">
         <f t="shared" si="5"/>
-        <v>50564486146.734802</v>
+        <v>50564488306.029968</v>
       </c>
     </row>
     <row r="126" spans="1:5" x14ac:dyDescent="0.25">
@@ -4650,15 +4650,15 @@
       </c>
       <c r="C126">
         <f t="shared" si="3"/>
-        <v>9624376.1249791626</v>
+        <v>9624376.1321336646</v>
       </c>
       <c r="D126">
         <f t="shared" si="4"/>
-        <v>-127142.87502083741</v>
+        <v>-127142.86786633544</v>
       </c>
       <c r="E126">
         <f t="shared" si="5"/>
-        <v>16165310668.564281</v>
+        <v>16165308849.276432</v>
       </c>
     </row>
     <row r="127" spans="1:5" x14ac:dyDescent="0.25">
@@ -4670,15 +4670,15 @@
       </c>
       <c r="C127">
         <f t="shared" si="3"/>
-        <v>9624376.1249791626</v>
+        <v>9624376.1321336646</v>
       </c>
       <c r="D127">
         <f t="shared" si="4"/>
-        <v>-147765.87502083741</v>
+        <v>-147765.86786633544</v>
       </c>
       <c r="E127">
         <f t="shared" si="5"/>
-        <v>21834753820.67374</v>
+        <v>21834751706.291302</v>
       </c>
     </row>
   </sheetData>

--- a/Analyze.xlsx
+++ b/Analyze.xlsx
@@ -8,42 +8,70 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Learn\Алгосы\BubbleSort\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{577DE59F-448F-44E0-9ED1-4EC6B6CB4521}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C16D4627-E050-41C1-A72C-A4207345B798}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{104B8E19-ACD8-4989-B5B3-C9A0783B87F8}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{104B8E19-ACD8-4989-B5B3-C9A0783B87F8}"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
+    <sheet name="Лист2" sheetId="2" r:id="rId2"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Лист1!$A$1:$B$127</definedName>
     <definedName name="solver_adj" localSheetId="0" hidden="1">Лист1!$G$2</definedName>
+    <definedName name="solver_adj" localSheetId="1" hidden="1">Лист2!$G$2</definedName>
     <definedName name="solver_cvg" localSheetId="0" hidden="1">0.0001</definedName>
+    <definedName name="solver_cvg" localSheetId="1" hidden="1">0.0001</definedName>
     <definedName name="solver_drv" localSheetId="0" hidden="1">1</definedName>
+    <definedName name="solver_drv" localSheetId="1" hidden="1">1</definedName>
     <definedName name="solver_eng" localSheetId="0" hidden="1">1</definedName>
+    <definedName name="solver_eng" localSheetId="1" hidden="1">1</definedName>
     <definedName name="solver_est" localSheetId="0" hidden="1">1</definedName>
+    <definedName name="solver_est" localSheetId="1" hidden="1">1</definedName>
     <definedName name="solver_itr" localSheetId="0" hidden="1">2147483647</definedName>
+    <definedName name="solver_itr" localSheetId="1" hidden="1">2147483647</definedName>
     <definedName name="solver_mip" localSheetId="0" hidden="1">2147483647</definedName>
+    <definedName name="solver_mip" localSheetId="1" hidden="1">2147483647</definedName>
     <definedName name="solver_mni" localSheetId="0" hidden="1">30</definedName>
+    <definedName name="solver_mni" localSheetId="1" hidden="1">30</definedName>
     <definedName name="solver_mrt" localSheetId="0" hidden="1">0.075</definedName>
+    <definedName name="solver_mrt" localSheetId="1" hidden="1">0.075</definedName>
     <definedName name="solver_msl" localSheetId="0" hidden="1">2</definedName>
+    <definedName name="solver_msl" localSheetId="1" hidden="1">2</definedName>
     <definedName name="solver_neg" localSheetId="0" hidden="1">1</definedName>
+    <definedName name="solver_neg" localSheetId="1" hidden="1">1</definedName>
     <definedName name="solver_nod" localSheetId="0" hidden="1">2147483647</definedName>
+    <definedName name="solver_nod" localSheetId="1" hidden="1">2147483647</definedName>
     <definedName name="solver_num" localSheetId="0" hidden="1">0</definedName>
+    <definedName name="solver_num" localSheetId="1" hidden="1">0</definedName>
     <definedName name="solver_nwt" localSheetId="0" hidden="1">1</definedName>
+    <definedName name="solver_nwt" localSheetId="1" hidden="1">1</definedName>
     <definedName name="solver_opt" localSheetId="0" hidden="1">Лист1!$F$2</definedName>
+    <definedName name="solver_opt" localSheetId="1" hidden="1">Лист2!$F$2</definedName>
     <definedName name="solver_pre" localSheetId="0" hidden="1">0.000001</definedName>
+    <definedName name="solver_pre" localSheetId="1" hidden="1">0.000001</definedName>
     <definedName name="solver_rbv" localSheetId="0" hidden="1">1</definedName>
+    <definedName name="solver_rbv" localSheetId="1" hidden="1">1</definedName>
     <definedName name="solver_rlx" localSheetId="0" hidden="1">2</definedName>
+    <definedName name="solver_rlx" localSheetId="1" hidden="1">2</definedName>
     <definedName name="solver_rsd" localSheetId="0" hidden="1">0</definedName>
+    <definedName name="solver_rsd" localSheetId="1" hidden="1">0</definedName>
     <definedName name="solver_scl" localSheetId="0" hidden="1">1</definedName>
+    <definedName name="solver_scl" localSheetId="1" hidden="1">1</definedName>
     <definedName name="solver_sho" localSheetId="0" hidden="1">2</definedName>
+    <definedName name="solver_sho" localSheetId="1" hidden="1">2</definedName>
     <definedName name="solver_ssz" localSheetId="0" hidden="1">100</definedName>
+    <definedName name="solver_ssz" localSheetId="1" hidden="1">100</definedName>
     <definedName name="solver_tim" localSheetId="0" hidden="1">2147483647</definedName>
+    <definedName name="solver_tim" localSheetId="1" hidden="1">2147483647</definedName>
     <definedName name="solver_tol" localSheetId="0" hidden="1">0.01</definedName>
+    <definedName name="solver_tol" localSheetId="1" hidden="1">0.01</definedName>
     <definedName name="solver_typ" localSheetId="0" hidden="1">2</definedName>
+    <definedName name="solver_typ" localSheetId="1" hidden="1">2</definedName>
     <definedName name="solver_val" localSheetId="0" hidden="1">0</definedName>
+    <definedName name="solver_val" localSheetId="1" hidden="1">0</definedName>
     <definedName name="solver_ver" localSheetId="0" hidden="1">3</definedName>
+    <definedName name="solver_ver" localSheetId="1" hidden="1">3</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -61,7 +89,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="13">
   <si>
     <t>SwapCount</t>
   </si>
@@ -82,6 +110,24 @@
   </si>
   <si>
     <t>Array Length</t>
+  </si>
+  <si>
+    <t>Length</t>
+  </si>
+  <si>
+    <t>Swap Counts</t>
+  </si>
+  <si>
+    <t>Model</t>
+  </si>
+  <si>
+    <t>diff</t>
+  </si>
+  <si>
+    <t>diff^2</t>
+  </si>
+  <si>
+    <t>Summary</t>
   </si>
 </sst>
 </file>
@@ -118,8 +164,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -1226,7 +1275,2441 @@
 </c:chartSpace>
 </file>
 
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="ru-RU"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="ru-RU"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Лист2!$A$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Length</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="25400" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Лист2!$A$2:$A$149</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="148"/>
+                <c:pt idx="0">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>40</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>40</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>40</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>40</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>80</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>80</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>80</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>80</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>160</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>160</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>160</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>160</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>250</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>250</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>250</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>250</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>320</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>320</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>320</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>320</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>640</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>640</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>640</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>640</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>1000</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>1000</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>1000</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>1000</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>1000</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>1000</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>1000</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>1000</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>1050</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>1050</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>1050</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>1050</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>1100</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>1100</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>1100</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>1100</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>1100</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>1100</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>1100</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>1100</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>1150</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>1150</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>1150</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>1150</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>1200</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>1200</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>1200</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>1200</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>1200</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>1200</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>1200</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>1200</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>1250</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>1250</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>1250</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>1250</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>1250</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>1250</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>1250</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>1250</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>1280</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>1280</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>1280</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>1280</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>1300</c:v>
+                </c:pt>
+                <c:pt idx="85">
+                  <c:v>1300</c:v>
+                </c:pt>
+                <c:pt idx="86">
+                  <c:v>1300</c:v>
+                </c:pt>
+                <c:pt idx="87">
+                  <c:v>1300</c:v>
+                </c:pt>
+                <c:pt idx="88">
+                  <c:v>1300</c:v>
+                </c:pt>
+                <c:pt idx="89">
+                  <c:v>1300</c:v>
+                </c:pt>
+                <c:pt idx="90">
+                  <c:v>1300</c:v>
+                </c:pt>
+                <c:pt idx="91">
+                  <c:v>1300</c:v>
+                </c:pt>
+                <c:pt idx="92">
+                  <c:v>1400</c:v>
+                </c:pt>
+                <c:pt idx="93">
+                  <c:v>1400</c:v>
+                </c:pt>
+                <c:pt idx="94">
+                  <c:v>1400</c:v>
+                </c:pt>
+                <c:pt idx="95">
+                  <c:v>1400</c:v>
+                </c:pt>
+                <c:pt idx="96">
+                  <c:v>1500</c:v>
+                </c:pt>
+                <c:pt idx="97">
+                  <c:v>1500</c:v>
+                </c:pt>
+                <c:pt idx="98">
+                  <c:v>1500</c:v>
+                </c:pt>
+                <c:pt idx="99">
+                  <c:v>1500</c:v>
+                </c:pt>
+                <c:pt idx="100">
+                  <c:v>1600</c:v>
+                </c:pt>
+                <c:pt idx="101">
+                  <c:v>1600</c:v>
+                </c:pt>
+                <c:pt idx="102">
+                  <c:v>1600</c:v>
+                </c:pt>
+                <c:pt idx="103">
+                  <c:v>1600</c:v>
+                </c:pt>
+                <c:pt idx="104">
+                  <c:v>1700</c:v>
+                </c:pt>
+                <c:pt idx="105">
+                  <c:v>1700</c:v>
+                </c:pt>
+                <c:pt idx="106">
+                  <c:v>1700</c:v>
+                </c:pt>
+                <c:pt idx="107">
+                  <c:v>1700</c:v>
+                </c:pt>
+                <c:pt idx="108">
+                  <c:v>1800</c:v>
+                </c:pt>
+                <c:pt idx="109">
+                  <c:v>1800</c:v>
+                </c:pt>
+                <c:pt idx="110">
+                  <c:v>1800</c:v>
+                </c:pt>
+                <c:pt idx="111">
+                  <c:v>1800</c:v>
+                </c:pt>
+                <c:pt idx="112">
+                  <c:v>1900</c:v>
+                </c:pt>
+                <c:pt idx="113">
+                  <c:v>1900</c:v>
+                </c:pt>
+                <c:pt idx="114">
+                  <c:v>1900</c:v>
+                </c:pt>
+                <c:pt idx="115">
+                  <c:v>1900</c:v>
+                </c:pt>
+                <c:pt idx="116">
+                  <c:v>2000</c:v>
+                </c:pt>
+                <c:pt idx="117">
+                  <c:v>2000</c:v>
+                </c:pt>
+                <c:pt idx="118">
+                  <c:v>2000</c:v>
+                </c:pt>
+                <c:pt idx="119">
+                  <c:v>2000</c:v>
+                </c:pt>
+                <c:pt idx="120">
+                  <c:v>2000</c:v>
+                </c:pt>
+                <c:pt idx="121">
+                  <c:v>2000</c:v>
+                </c:pt>
+                <c:pt idx="122">
+                  <c:v>2000</c:v>
+                </c:pt>
+                <c:pt idx="123">
+                  <c:v>2000</c:v>
+                </c:pt>
+                <c:pt idx="124">
+                  <c:v>2100</c:v>
+                </c:pt>
+                <c:pt idx="125">
+                  <c:v>2100</c:v>
+                </c:pt>
+                <c:pt idx="126">
+                  <c:v>2100</c:v>
+                </c:pt>
+                <c:pt idx="127">
+                  <c:v>2100</c:v>
+                </c:pt>
+                <c:pt idx="128">
+                  <c:v>2200</c:v>
+                </c:pt>
+                <c:pt idx="129">
+                  <c:v>2200</c:v>
+                </c:pt>
+                <c:pt idx="130">
+                  <c:v>2200</c:v>
+                </c:pt>
+                <c:pt idx="131">
+                  <c:v>2200</c:v>
+                </c:pt>
+                <c:pt idx="132">
+                  <c:v>2300</c:v>
+                </c:pt>
+                <c:pt idx="133">
+                  <c:v>2300</c:v>
+                </c:pt>
+                <c:pt idx="134">
+                  <c:v>2300</c:v>
+                </c:pt>
+                <c:pt idx="135">
+                  <c:v>2300</c:v>
+                </c:pt>
+                <c:pt idx="136">
+                  <c:v>2560</c:v>
+                </c:pt>
+                <c:pt idx="137">
+                  <c:v>2560</c:v>
+                </c:pt>
+                <c:pt idx="138">
+                  <c:v>2560</c:v>
+                </c:pt>
+                <c:pt idx="139">
+                  <c:v>2560</c:v>
+                </c:pt>
+                <c:pt idx="140">
+                  <c:v>5120</c:v>
+                </c:pt>
+                <c:pt idx="141">
+                  <c:v>5120</c:v>
+                </c:pt>
+                <c:pt idx="142">
+                  <c:v>5120</c:v>
+                </c:pt>
+                <c:pt idx="143">
+                  <c:v>5120</c:v>
+                </c:pt>
+                <c:pt idx="144">
+                  <c:v>6250</c:v>
+                </c:pt>
+                <c:pt idx="145">
+                  <c:v>6250</c:v>
+                </c:pt>
+                <c:pt idx="146">
+                  <c:v>6250</c:v>
+                </c:pt>
+                <c:pt idx="147">
+                  <c:v>6250</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Лист2!$B$2:$B$149</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="148"/>
+                <c:pt idx="0">
+                  <c:v>22</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>25</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>32</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>26</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>18</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>91</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>67</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>82</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>391</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>354</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>342</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>405</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>612</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>626</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>526</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>569</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>1412</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>1573</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>1436</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>1288</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>6611</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>706</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>5474</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>581</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>15318</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>15509</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>16998</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>16022</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>23965</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>23943</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>23697</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>24316</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>94705</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>96736</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>101589</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>96925</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>256784</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>249461</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>25007</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>246685</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>254518</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>243197</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>248279</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>249544</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>27672</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>274186</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>268765</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>271934</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>296036</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>29803</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>29884</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>306935</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>305598</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>298582</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>295794</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>308025</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>333772</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>329904</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>330967</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>325513</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>366895</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>354967</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>358419</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>365176</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>35663</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>361886</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>359263</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>35473</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>385639</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>384115</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>397066</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>392708</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>376552</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>386868</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>388408</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>385033</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>380873</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>382365</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>389973</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>382346</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>41893</c:v>
+                </c:pt>
+                <c:pt idx="85">
+                  <c:v>413853</c:v>
+                </c:pt>
+                <c:pt idx="86">
+                  <c:v>410922</c:v>
+                </c:pt>
+                <c:pt idx="87">
+                  <c:v>407456</c:v>
+                </c:pt>
+                <c:pt idx="88">
+                  <c:v>427894</c:v>
+                </c:pt>
+                <c:pt idx="89">
+                  <c:v>427512</c:v>
+                </c:pt>
+                <c:pt idx="90">
+                  <c:v>420154</c:v>
+                </c:pt>
+                <c:pt idx="91">
+                  <c:v>427788</c:v>
+                </c:pt>
+                <c:pt idx="92">
+                  <c:v>478075</c:v>
+                </c:pt>
+                <c:pt idx="93">
+                  <c:v>482121</c:v>
+                </c:pt>
+                <c:pt idx="94">
+                  <c:v>499829</c:v>
+                </c:pt>
+                <c:pt idx="95">
+                  <c:v>47737</c:v>
+                </c:pt>
+                <c:pt idx="96">
+                  <c:v>562751</c:v>
+                </c:pt>
+                <c:pt idx="97">
+                  <c:v>544034</c:v>
+                </c:pt>
+                <c:pt idx="98">
+                  <c:v>554532</c:v>
+                </c:pt>
+                <c:pt idx="99">
+                  <c:v>546829</c:v>
+                </c:pt>
+                <c:pt idx="100">
+                  <c:v>64272</c:v>
+                </c:pt>
+                <c:pt idx="101">
+                  <c:v>640111</c:v>
+                </c:pt>
+                <c:pt idx="102">
+                  <c:v>621981</c:v>
+                </c:pt>
+                <c:pt idx="103">
+                  <c:v>649332</c:v>
+                </c:pt>
+                <c:pt idx="104">
+                  <c:v>714493</c:v>
+                </c:pt>
+                <c:pt idx="105">
+                  <c:v>70962</c:v>
+                </c:pt>
+                <c:pt idx="106">
+                  <c:v>731895</c:v>
+                </c:pt>
+                <c:pt idx="107">
+                  <c:v>715599</c:v>
+                </c:pt>
+                <c:pt idx="108">
+                  <c:v>824006</c:v>
+                </c:pt>
+                <c:pt idx="109">
+                  <c:v>815508</c:v>
+                </c:pt>
+                <c:pt idx="110">
+                  <c:v>801986</c:v>
+                </c:pt>
+                <c:pt idx="111">
+                  <c:v>818894</c:v>
+                </c:pt>
+                <c:pt idx="112">
+                  <c:v>908253</c:v>
+                </c:pt>
+                <c:pt idx="113">
+                  <c:v>925529</c:v>
+                </c:pt>
+                <c:pt idx="114">
+                  <c:v>885891</c:v>
+                </c:pt>
+                <c:pt idx="115">
+                  <c:v>9099</c:v>
+                </c:pt>
+                <c:pt idx="116">
+                  <c:v>995229</c:v>
+                </c:pt>
+                <c:pt idx="117">
+                  <c:v>1009027</c:v>
+                </c:pt>
+                <c:pt idx="118">
+                  <c:v>983814</c:v>
+                </c:pt>
+                <c:pt idx="119">
+                  <c:v>993108</c:v>
+                </c:pt>
+                <c:pt idx="120">
+                  <c:v>1007254</c:v>
+                </c:pt>
+                <c:pt idx="121">
+                  <c:v>1008806</c:v>
+                </c:pt>
+                <c:pt idx="122">
+                  <c:v>981646</c:v>
+                </c:pt>
+                <c:pt idx="123">
+                  <c:v>1008194</c:v>
+                </c:pt>
+                <c:pt idx="124">
+                  <c:v>1118695</c:v>
+                </c:pt>
+                <c:pt idx="125">
+                  <c:v>1065904</c:v>
+                </c:pt>
+                <c:pt idx="126">
+                  <c:v>1124311</c:v>
+                </c:pt>
+                <c:pt idx="127">
+                  <c:v>1102654</c:v>
+                </c:pt>
+                <c:pt idx="128">
+                  <c:v>1184204</c:v>
+                </c:pt>
+                <c:pt idx="129">
+                  <c:v>1233999</c:v>
+                </c:pt>
+                <c:pt idx="130">
+                  <c:v>1185565</c:v>
+                </c:pt>
+                <c:pt idx="131">
+                  <c:v>1218555</c:v>
+                </c:pt>
+                <c:pt idx="132">
+                  <c:v>1316825</c:v>
+                </c:pt>
+                <c:pt idx="133">
+                  <c:v>1286322</c:v>
+                </c:pt>
+                <c:pt idx="134">
+                  <c:v>1270672</c:v>
+                </c:pt>
+                <c:pt idx="135">
+                  <c:v>1308453</c:v>
+                </c:pt>
+                <c:pt idx="136">
+                  <c:v>1509115</c:v>
+                </c:pt>
+                <c:pt idx="137">
+                  <c:v>1542117</c:v>
+                </c:pt>
+                <c:pt idx="138">
+                  <c:v>153235</c:v>
+                </c:pt>
+                <c:pt idx="139">
+                  <c:v>1539195</c:v>
+                </c:pt>
+                <c:pt idx="140">
+                  <c:v>6325796</c:v>
+                </c:pt>
+                <c:pt idx="141">
+                  <c:v>6309625</c:v>
+                </c:pt>
+                <c:pt idx="142">
+                  <c:v>6364328</c:v>
+                </c:pt>
+                <c:pt idx="143">
+                  <c:v>6139433</c:v>
+                </c:pt>
+                <c:pt idx="144">
+                  <c:v>9755509</c:v>
+                </c:pt>
+                <c:pt idx="145">
+                  <c:v>9629024</c:v>
+                </c:pt>
+                <c:pt idx="146">
+                  <c:v>9896127</c:v>
+                </c:pt>
+                <c:pt idx="147">
+                  <c:v>9697603</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-CB23-4043-B240-6CCDEEC5BCC1}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="54788368"/>
+        <c:axId val="1795294656"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="54788368"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="ru-RU"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1795294656"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="1795294656"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="ru-RU"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="54788368"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="ru-RU"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="ru-RU"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="ru-RU"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Лист2!$A$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Length</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="25400" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Лист2!$A$2:$A$146</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="145"/>
+                <c:pt idx="0">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>40</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>40</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>40</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>40</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>80</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>80</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>80</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>80</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>160</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>160</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>160</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>160</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>250</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>250</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>250</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>250</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>320</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>320</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>320</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>320</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>640</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>640</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>640</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>640</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>1000</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>1000</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>1000</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>1000</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>1000</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>1000</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>1000</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>1000</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>1050</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>1050</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>1050</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>1050</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>1100</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>1100</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>1100</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>1100</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>1100</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>1100</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>1100</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>1100</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>1150</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>1150</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>1150</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>1150</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>1200</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>1200</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>1200</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>1200</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>1200</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>1200</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>1200</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>1200</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>1250</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>1250</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>1250</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>1250</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>1250</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>1250</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>1250</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>1250</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>1280</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>1280</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>1280</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>1280</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>1300</c:v>
+                </c:pt>
+                <c:pt idx="85">
+                  <c:v>1300</c:v>
+                </c:pt>
+                <c:pt idx="86">
+                  <c:v>1300</c:v>
+                </c:pt>
+                <c:pt idx="87">
+                  <c:v>1300</c:v>
+                </c:pt>
+                <c:pt idx="88">
+                  <c:v>1300</c:v>
+                </c:pt>
+                <c:pt idx="89">
+                  <c:v>1300</c:v>
+                </c:pt>
+                <c:pt idx="90">
+                  <c:v>1300</c:v>
+                </c:pt>
+                <c:pt idx="91">
+                  <c:v>1300</c:v>
+                </c:pt>
+                <c:pt idx="92">
+                  <c:v>1400</c:v>
+                </c:pt>
+                <c:pt idx="93">
+                  <c:v>1400</c:v>
+                </c:pt>
+                <c:pt idx="94">
+                  <c:v>1400</c:v>
+                </c:pt>
+                <c:pt idx="95">
+                  <c:v>1400</c:v>
+                </c:pt>
+                <c:pt idx="96">
+                  <c:v>1500</c:v>
+                </c:pt>
+                <c:pt idx="97">
+                  <c:v>1500</c:v>
+                </c:pt>
+                <c:pt idx="98">
+                  <c:v>1500</c:v>
+                </c:pt>
+                <c:pt idx="99">
+                  <c:v>1500</c:v>
+                </c:pt>
+                <c:pt idx="100">
+                  <c:v>1600</c:v>
+                </c:pt>
+                <c:pt idx="101">
+                  <c:v>1600</c:v>
+                </c:pt>
+                <c:pt idx="102">
+                  <c:v>1600</c:v>
+                </c:pt>
+                <c:pt idx="103">
+                  <c:v>1600</c:v>
+                </c:pt>
+                <c:pt idx="104">
+                  <c:v>1700</c:v>
+                </c:pt>
+                <c:pt idx="105">
+                  <c:v>1700</c:v>
+                </c:pt>
+                <c:pt idx="106">
+                  <c:v>1700</c:v>
+                </c:pt>
+                <c:pt idx="107">
+                  <c:v>1700</c:v>
+                </c:pt>
+                <c:pt idx="108">
+                  <c:v>1800</c:v>
+                </c:pt>
+                <c:pt idx="109">
+                  <c:v>1800</c:v>
+                </c:pt>
+                <c:pt idx="110">
+                  <c:v>1800</c:v>
+                </c:pt>
+                <c:pt idx="111">
+                  <c:v>1800</c:v>
+                </c:pt>
+                <c:pt idx="112">
+                  <c:v>1900</c:v>
+                </c:pt>
+                <c:pt idx="113">
+                  <c:v>1900</c:v>
+                </c:pt>
+                <c:pt idx="114">
+                  <c:v>1900</c:v>
+                </c:pt>
+                <c:pt idx="115">
+                  <c:v>1900</c:v>
+                </c:pt>
+                <c:pt idx="116">
+                  <c:v>2000</c:v>
+                </c:pt>
+                <c:pt idx="117">
+                  <c:v>2000</c:v>
+                </c:pt>
+                <c:pt idx="118">
+                  <c:v>2000</c:v>
+                </c:pt>
+                <c:pt idx="119">
+                  <c:v>2000</c:v>
+                </c:pt>
+                <c:pt idx="120">
+                  <c:v>2000</c:v>
+                </c:pt>
+                <c:pt idx="121">
+                  <c:v>2000</c:v>
+                </c:pt>
+                <c:pt idx="122">
+                  <c:v>2000</c:v>
+                </c:pt>
+                <c:pt idx="123">
+                  <c:v>2000</c:v>
+                </c:pt>
+                <c:pt idx="124">
+                  <c:v>2100</c:v>
+                </c:pt>
+                <c:pt idx="125">
+                  <c:v>2100</c:v>
+                </c:pt>
+                <c:pt idx="126">
+                  <c:v>2100</c:v>
+                </c:pt>
+                <c:pt idx="127">
+                  <c:v>2100</c:v>
+                </c:pt>
+                <c:pt idx="128">
+                  <c:v>2200</c:v>
+                </c:pt>
+                <c:pt idx="129">
+                  <c:v>2200</c:v>
+                </c:pt>
+                <c:pt idx="130">
+                  <c:v>2200</c:v>
+                </c:pt>
+                <c:pt idx="131">
+                  <c:v>2200</c:v>
+                </c:pt>
+                <c:pt idx="132">
+                  <c:v>2300</c:v>
+                </c:pt>
+                <c:pt idx="133">
+                  <c:v>2300</c:v>
+                </c:pt>
+                <c:pt idx="134">
+                  <c:v>2300</c:v>
+                </c:pt>
+                <c:pt idx="135">
+                  <c:v>2300</c:v>
+                </c:pt>
+                <c:pt idx="136">
+                  <c:v>2560</c:v>
+                </c:pt>
+                <c:pt idx="137">
+                  <c:v>2560</c:v>
+                </c:pt>
+                <c:pt idx="138">
+                  <c:v>2560</c:v>
+                </c:pt>
+                <c:pt idx="139">
+                  <c:v>2560</c:v>
+                </c:pt>
+                <c:pt idx="140">
+                  <c:v>5120</c:v>
+                </c:pt>
+                <c:pt idx="141">
+                  <c:v>5120</c:v>
+                </c:pt>
+                <c:pt idx="142">
+                  <c:v>5120</c:v>
+                </c:pt>
+                <c:pt idx="143">
+                  <c:v>5120</c:v>
+                </c:pt>
+                <c:pt idx="144">
+                  <c:v>6250</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Лист2!$C$2:$C$146</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="145"/>
+                <c:pt idx="0">
+                  <c:v>24.439315835938867</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>24.439315835938867</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>24.439315835938867</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>24.439315835938867</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>24.439315835938867</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>24.439315835938867</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>24.439315835938867</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>24.439315835938867</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>97.757263343755469</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>97.757263343755469</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>97.757263343755469</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>97.757263343755469</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>391.02905337502187</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>391.02905337502187</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>391.02905337502187</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>391.02905337502187</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>610.98289589847172</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>610.98289589847172</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>610.98289589847172</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>610.98289589847172</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>1564.1162135000875</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>1564.1162135000875</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>1564.1162135000875</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>1564.1162135000875</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>6256.46485400035</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>6256.46485400035</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>6256.46485400035</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>6256.46485400035</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>15274.572397461792</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>15274.572397461792</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>15274.572397461792</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>15274.572397461792</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>25025.8594160014</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>25025.8594160014</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>25025.8594160014</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>25025.8594160014</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>100103.4376640056</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>100103.4376640056</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>100103.4376640056</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>100103.4376640056</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>244393.15835938868</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>244393.15835938868</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>244393.15835938868</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>244393.15835938868</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>244393.15835938868</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>244393.15835938868</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>244393.15835938868</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>244393.15835938868</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>269443.45709122601</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>269443.45709122601</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>269443.45709122601</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>269443.45709122601</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>295715.72161486029</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>295715.72161486029</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>295715.72161486029</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>295715.72161486029</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>295715.72161486029</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>295715.72161486029</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>295715.72161486029</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>295715.72161486029</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>323209.95193029154</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>323209.95193029154</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>323209.95193029154</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>323209.95193029154</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>351926.14803751971</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>351926.14803751971</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>351926.14803751971</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>351926.14803751971</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>351926.14803751971</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>351926.14803751971</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>351926.14803751971</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>351926.14803751971</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>381864.3099365448</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>381864.3099365448</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>381864.3099365448</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>381864.3099365448</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>381864.3099365448</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>381864.3099365448</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>381864.3099365448</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>381864.3099365448</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>400413.7506560224</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>400413.7506560224</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>400413.7506560224</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>400413.7506560224</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>413024.43762736686</c:v>
+                </c:pt>
+                <c:pt idx="85">
+                  <c:v>413024.43762736686</c:v>
+                </c:pt>
+                <c:pt idx="86">
+                  <c:v>413024.43762736686</c:v>
+                </c:pt>
+                <c:pt idx="87">
+                  <c:v>413024.43762736686</c:v>
+                </c:pt>
+                <c:pt idx="88">
+                  <c:v>413024.43762736686</c:v>
+                </c:pt>
+                <c:pt idx="89">
+                  <c:v>413024.43762736686</c:v>
+                </c:pt>
+                <c:pt idx="90">
+                  <c:v>413024.43762736686</c:v>
+                </c:pt>
+                <c:pt idx="91">
+                  <c:v>413024.43762736686</c:v>
+                </c:pt>
+                <c:pt idx="92">
+                  <c:v>479010.59038440185</c:v>
+                </c:pt>
+                <c:pt idx="93">
+                  <c:v>479010.59038440185</c:v>
+                </c:pt>
+                <c:pt idx="94">
+                  <c:v>479010.59038440185</c:v>
+                </c:pt>
+                <c:pt idx="95">
+                  <c:v>479010.59038440185</c:v>
+                </c:pt>
+                <c:pt idx="96">
+                  <c:v>549884.6063086245</c:v>
+                </c:pt>
+                <c:pt idx="97">
+                  <c:v>549884.6063086245</c:v>
+                </c:pt>
+                <c:pt idx="98">
+                  <c:v>549884.6063086245</c:v>
+                </c:pt>
+                <c:pt idx="99">
+                  <c:v>549884.6063086245</c:v>
+                </c:pt>
+                <c:pt idx="100">
+                  <c:v>625646.48540003505</c:v>
+                </c:pt>
+                <c:pt idx="101">
+                  <c:v>625646.48540003505</c:v>
+                </c:pt>
+                <c:pt idx="102">
+                  <c:v>625646.48540003505</c:v>
+                </c:pt>
+                <c:pt idx="103">
+                  <c:v>625646.48540003505</c:v>
+                </c:pt>
+                <c:pt idx="104">
+                  <c:v>706296.22765863326</c:v>
+                </c:pt>
+                <c:pt idx="105">
+                  <c:v>706296.22765863326</c:v>
+                </c:pt>
+                <c:pt idx="106">
+                  <c:v>706296.22765863326</c:v>
+                </c:pt>
+                <c:pt idx="107">
+                  <c:v>706296.22765863326</c:v>
+                </c:pt>
+                <c:pt idx="108">
+                  <c:v>791833.83308441937</c:v>
+                </c:pt>
+                <c:pt idx="109">
+                  <c:v>791833.83308441937</c:v>
+                </c:pt>
+                <c:pt idx="110">
+                  <c:v>791833.83308441937</c:v>
+                </c:pt>
+                <c:pt idx="111">
+                  <c:v>791833.83308441937</c:v>
+                </c:pt>
+                <c:pt idx="112">
+                  <c:v>882259.30167739314</c:v>
+                </c:pt>
+                <c:pt idx="113">
+                  <c:v>882259.30167739314</c:v>
+                </c:pt>
+                <c:pt idx="114">
+                  <c:v>882259.30167739314</c:v>
+                </c:pt>
+                <c:pt idx="115">
+                  <c:v>882259.30167739314</c:v>
+                </c:pt>
+                <c:pt idx="116">
+                  <c:v>977572.6334375547</c:v>
+                </c:pt>
+                <c:pt idx="117">
+                  <c:v>977572.6334375547</c:v>
+                </c:pt>
+                <c:pt idx="118">
+                  <c:v>977572.6334375547</c:v>
+                </c:pt>
+                <c:pt idx="119">
+                  <c:v>977572.6334375547</c:v>
+                </c:pt>
+                <c:pt idx="120">
+                  <c:v>977572.6334375547</c:v>
+                </c:pt>
+                <c:pt idx="121">
+                  <c:v>977572.6334375547</c:v>
+                </c:pt>
+                <c:pt idx="122">
+                  <c:v>977572.6334375547</c:v>
+                </c:pt>
+                <c:pt idx="123">
+                  <c:v>977572.6334375547</c:v>
+                </c:pt>
+                <c:pt idx="124">
+                  <c:v>1077773.828364904</c:v>
+                </c:pt>
+                <c:pt idx="125">
+                  <c:v>1077773.828364904</c:v>
+                </c:pt>
+                <c:pt idx="126">
+                  <c:v>1077773.828364904</c:v>
+                </c:pt>
+                <c:pt idx="127">
+                  <c:v>1077773.828364904</c:v>
+                </c:pt>
+                <c:pt idx="128">
+                  <c:v>1182862.8864594412</c:v>
+                </c:pt>
+                <c:pt idx="129">
+                  <c:v>1182862.8864594412</c:v>
+                </c:pt>
+                <c:pt idx="130">
+                  <c:v>1182862.8864594412</c:v>
+                </c:pt>
+                <c:pt idx="131">
+                  <c:v>1182862.8864594412</c:v>
+                </c:pt>
+                <c:pt idx="132">
+                  <c:v>1292839.8077211662</c:v>
+                </c:pt>
+                <c:pt idx="133">
+                  <c:v>1292839.8077211662</c:v>
+                </c:pt>
+                <c:pt idx="134">
+                  <c:v>1292839.8077211662</c:v>
+                </c:pt>
+                <c:pt idx="135">
+                  <c:v>1292839.8077211662</c:v>
+                </c:pt>
+                <c:pt idx="136">
+                  <c:v>1601655.0026240896</c:v>
+                </c:pt>
+                <c:pt idx="137">
+                  <c:v>1601655.0026240896</c:v>
+                </c:pt>
+                <c:pt idx="138">
+                  <c:v>1601655.0026240896</c:v>
+                </c:pt>
+                <c:pt idx="139">
+                  <c:v>1601655.0026240896</c:v>
+                </c:pt>
+                <c:pt idx="140">
+                  <c:v>6406620.0104963584</c:v>
+                </c:pt>
+                <c:pt idx="141">
+                  <c:v>6406620.0104963584</c:v>
+                </c:pt>
+                <c:pt idx="142">
+                  <c:v>6406620.0104963584</c:v>
+                </c:pt>
+                <c:pt idx="143">
+                  <c:v>6406620.0104963584</c:v>
+                </c:pt>
+                <c:pt idx="144">
+                  <c:v>9546607.7484136205</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-521F-4BDC-9E39-BCAD544FFCEF}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="57463024"/>
+        <c:axId val="176095024"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="57463024"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="ru-RU"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="176095024"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="176095024"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="ru-RU"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="57463024"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="ru-RU"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
 <file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors3.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
   <a:schemeClr val="accent1"/>
   <a:schemeClr val="accent2"/>
@@ -1782,6 +4265,1038 @@
 </cs:chartStyle>
 </file>
 
+<file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
@@ -1815,6 +5330,83 @@
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
           <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>376917</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>17690</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>69396</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>93890</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Диаграмма 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{BC954B08-5652-4172-B77D-5D924519BB53}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>117022</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>21772</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>25</xdr:col>
+      <xdr:colOff>424544</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>97972</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="3" name="Диаграмма 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{661FC9EB-F3BA-40F9-B889-D3B67A455427}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -2122,8 +5714,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F605B2A8-1D74-4E61-9639-5D58CD8D76FF}">
   <dimension ref="A1:G127"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C3" sqref="C3"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C1" sqref="C1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4690,4 +8282,3018 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00FFAF72-EC39-464A-953C-11FB735BFD3F}">
+  <dimension ref="A1:G149"/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="G9" sqref="G9"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="10.85546875" style="1" customWidth="1"/>
+    <col min="2" max="2" width="13.42578125" customWidth="1"/>
+    <col min="6" max="6" width="12.28515625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D1" t="s">
+        <v>10</v>
+      </c>
+      <c r="E1" t="s">
+        <v>11</v>
+      </c>
+      <c r="F1" t="s">
+        <v>12</v>
+      </c>
+      <c r="G1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A2" s="1">
+        <v>10</v>
+      </c>
+      <c r="B2">
+        <v>22</v>
+      </c>
+      <c r="C2">
+        <f>(A2^2)*$G$2</f>
+        <v>24.439315835938867</v>
+      </c>
+      <c r="D2">
+        <f>C2-B2</f>
+        <v>2.4393158359388671</v>
+      </c>
+      <c r="E2">
+        <f>D2^2</f>
+        <v>5.9502617474621342</v>
+      </c>
+      <c r="F2">
+        <f>SUM(E:E)</f>
+        <v>4677052662543.0654</v>
+      </c>
+      <c r="G2">
+        <v>0.24439315835938868</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A3" s="1">
+        <v>10</v>
+      </c>
+      <c r="B3">
+        <v>25</v>
+      </c>
+      <c r="C3">
+        <f t="shared" ref="C3:C66" si="0">(A3^2)*$G$2</f>
+        <v>24.439315835938867</v>
+      </c>
+      <c r="D3">
+        <f t="shared" ref="D3:D66" si="1">C3-B3</f>
+        <v>-0.56068416406113286</v>
+      </c>
+      <c r="E3">
+        <f t="shared" ref="E3:E66" si="2">D3^2</f>
+        <v>0.31436673182893138</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A4" s="1">
+        <v>10</v>
+      </c>
+      <c r="B4">
+        <v>32</v>
+      </c>
+      <c r="C4">
+        <f t="shared" si="0"/>
+        <v>24.439315835938867</v>
+      </c>
+      <c r="D4">
+        <f t="shared" si="1"/>
+        <v>-7.5606841640611329</v>
+      </c>
+      <c r="E4">
+        <f t="shared" si="2"/>
+        <v>57.163945028684793</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A5" s="1">
+        <v>10</v>
+      </c>
+      <c r="B5">
+        <v>26</v>
+      </c>
+      <c r="C5">
+        <f t="shared" si="0"/>
+        <v>24.439315835938867</v>
+      </c>
+      <c r="D5">
+        <f t="shared" si="1"/>
+        <v>-1.5606841640611329</v>
+      </c>
+      <c r="E5">
+        <f t="shared" si="2"/>
+        <v>2.4357350599511971</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A6" s="1">
+        <v>10</v>
+      </c>
+      <c r="B6">
+        <v>12</v>
+      </c>
+      <c r="C6">
+        <f t="shared" si="0"/>
+        <v>24.439315835938867</v>
+      </c>
+      <c r="D6">
+        <f t="shared" si="1"/>
+        <v>12.439315835938867</v>
+      </c>
+      <c r="E6">
+        <f t="shared" si="2"/>
+        <v>154.73657846623948</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A7" s="1">
+        <v>10</v>
+      </c>
+      <c r="B7">
+        <v>18</v>
+      </c>
+      <c r="C7">
+        <f t="shared" si="0"/>
+        <v>24.439315835938867</v>
+      </c>
+      <c r="D7">
+        <f t="shared" si="1"/>
+        <v>6.4393158359388671</v>
+      </c>
+      <c r="E7">
+        <f t="shared" si="2"/>
+        <v>41.464788434973073</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A8" s="1">
+        <v>10</v>
+      </c>
+      <c r="B8">
+        <v>14</v>
+      </c>
+      <c r="C8">
+        <f t="shared" si="0"/>
+        <v>24.439315835938867</v>
+      </c>
+      <c r="D8">
+        <f t="shared" si="1"/>
+        <v>10.439315835938867</v>
+      </c>
+      <c r="E8">
+        <f t="shared" si="2"/>
+        <v>108.97931512248401</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A9" s="1">
+        <v>10</v>
+      </c>
+      <c r="B9">
+        <v>16</v>
+      </c>
+      <c r="C9">
+        <f t="shared" si="0"/>
+        <v>24.439315835938867</v>
+      </c>
+      <c r="D9">
+        <f t="shared" si="1"/>
+        <v>8.4393158359388671</v>
+      </c>
+      <c r="E9">
+        <f t="shared" si="2"/>
+        <v>71.222051778728542</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A10" s="1">
+        <v>20</v>
+      </c>
+      <c r="B10">
+        <v>91</v>
+      </c>
+      <c r="C10">
+        <f t="shared" si="0"/>
+        <v>97.757263343755469</v>
+      </c>
+      <c r="D10">
+        <f t="shared" si="1"/>
+        <v>6.7572633437554686</v>
+      </c>
+      <c r="E10">
+        <f t="shared" si="2"/>
+        <v>45.660607896861336</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A11" s="1">
+        <v>20</v>
+      </c>
+      <c r="B11">
+        <v>67</v>
+      </c>
+      <c r="C11">
+        <f t="shared" si="0"/>
+        <v>97.757263343755469</v>
+      </c>
+      <c r="D11">
+        <f t="shared" si="1"/>
+        <v>30.757263343755469</v>
+      </c>
+      <c r="E11">
+        <f t="shared" si="2"/>
+        <v>946.00924839712377</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A12" s="1">
+        <v>20</v>
+      </c>
+      <c r="B12">
+        <v>1</v>
+      </c>
+      <c r="C12">
+        <f t="shared" si="0"/>
+        <v>97.757263343755469</v>
+      </c>
+      <c r="D12">
+        <f t="shared" si="1"/>
+        <v>96.757263343755469</v>
+      </c>
+      <c r="E12">
+        <f t="shared" si="2"/>
+        <v>9361.9680097728451</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A13" s="1">
+        <v>20</v>
+      </c>
+      <c r="B13">
+        <v>82</v>
+      </c>
+      <c r="C13">
+        <f t="shared" si="0"/>
+        <v>97.757263343755469</v>
+      </c>
+      <c r="D13">
+        <f t="shared" si="1"/>
+        <v>15.757263343755469</v>
+      </c>
+      <c r="E13">
+        <f t="shared" si="2"/>
+        <v>248.29134808445977</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A14" s="1">
+        <v>40</v>
+      </c>
+      <c r="B14">
+        <v>391</v>
+      </c>
+      <c r="C14">
+        <f t="shared" si="0"/>
+        <v>391.02905337502187</v>
+      </c>
+      <c r="D14">
+        <f t="shared" si="1"/>
+        <v>2.9053375021874217E-2</v>
+      </c>
+      <c r="E14">
+        <f t="shared" si="2"/>
+        <v>8.4409860016166466E-4</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A15" s="1">
+        <v>40</v>
+      </c>
+      <c r="B15">
+        <v>354</v>
+      </c>
+      <c r="C15">
+        <f t="shared" si="0"/>
+        <v>391.02905337502187</v>
+      </c>
+      <c r="D15">
+        <f t="shared" si="1"/>
+        <v>37.029053375021874</v>
+      </c>
+      <c r="E15">
+        <f t="shared" si="2"/>
+        <v>1371.1507938502189</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A16" s="1">
+        <v>40</v>
+      </c>
+      <c r="B16">
+        <v>342</v>
+      </c>
+      <c r="C16">
+        <f t="shared" si="0"/>
+        <v>391.02905337502187</v>
+      </c>
+      <c r="D16">
+        <f t="shared" si="1"/>
+        <v>49.029053375021874</v>
+      </c>
+      <c r="E16">
+        <f t="shared" si="2"/>
+        <v>2403.8480748507436</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A17" s="1">
+        <v>40</v>
+      </c>
+      <c r="B17">
+        <v>405</v>
+      </c>
+      <c r="C17">
+        <f t="shared" si="0"/>
+        <v>391.02905337502187</v>
+      </c>
+      <c r="D17">
+        <f t="shared" si="1"/>
+        <v>-13.970946624978126</v>
+      </c>
+      <c r="E17">
+        <f t="shared" si="2"/>
+        <v>195.18734959798769</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A18" s="1">
+        <v>50</v>
+      </c>
+      <c r="B18">
+        <v>612</v>
+      </c>
+      <c r="C18">
+        <f t="shared" si="0"/>
+        <v>610.98289589847172</v>
+      </c>
+      <c r="D18">
+        <f t="shared" si="1"/>
+        <v>-1.0171041015282754</v>
+      </c>
+      <c r="E18">
+        <f t="shared" si="2"/>
+        <v>1.0345007533456403</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A19" s="1">
+        <v>50</v>
+      </c>
+      <c r="B19">
+        <v>626</v>
+      </c>
+      <c r="C19">
+        <f t="shared" si="0"/>
+        <v>610.98289589847172</v>
+      </c>
+      <c r="D19">
+        <f t="shared" si="1"/>
+        <v>-15.017104101528275</v>
+      </c>
+      <c r="E19">
+        <f t="shared" si="2"/>
+        <v>225.51341559613735</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A20" s="1">
+        <v>50</v>
+      </c>
+      <c r="B20">
+        <v>526</v>
+      </c>
+      <c r="C20">
+        <f t="shared" si="0"/>
+        <v>610.98289589847172</v>
+      </c>
+      <c r="D20">
+        <f t="shared" si="1"/>
+        <v>84.982895898471725</v>
+      </c>
+      <c r="E20">
+        <f t="shared" si="2"/>
+        <v>7222.0925952904827</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A21" s="1">
+        <v>50</v>
+      </c>
+      <c r="B21">
+        <v>569</v>
+      </c>
+      <c r="C21">
+        <f t="shared" si="0"/>
+        <v>610.98289589847172</v>
+      </c>
+      <c r="D21">
+        <f t="shared" si="1"/>
+        <v>41.982895898471725</v>
+      </c>
+      <c r="E21">
+        <f t="shared" si="2"/>
+        <v>1762.5635480219139</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A22" s="1">
+        <v>80</v>
+      </c>
+      <c r="B22">
+        <v>1412</v>
+      </c>
+      <c r="C22">
+        <f t="shared" si="0"/>
+        <v>1564.1162135000875</v>
+      </c>
+      <c r="D22">
+        <f t="shared" si="1"/>
+        <v>152.1162135000875</v>
+      </c>
+      <c r="E22">
+        <f t="shared" si="2"/>
+        <v>23139.3424096042</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A23" s="1">
+        <v>80</v>
+      </c>
+      <c r="B23">
+        <v>1573</v>
+      </c>
+      <c r="C23">
+        <f t="shared" si="0"/>
+        <v>1564.1162135000875</v>
+      </c>
+      <c r="D23">
+        <f t="shared" si="1"/>
+        <v>-8.8837864999125031</v>
+      </c>
+      <c r="E23">
+        <f t="shared" si="2"/>
+        <v>78.921662576027643</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A24" s="1">
+        <v>80</v>
+      </c>
+      <c r="B24">
+        <v>1436</v>
+      </c>
+      <c r="C24">
+        <f t="shared" si="0"/>
+        <v>1564.1162135000875</v>
+      </c>
+      <c r="D24">
+        <f t="shared" si="1"/>
+        <v>128.1162135000875</v>
+      </c>
+      <c r="E24">
+        <f t="shared" si="2"/>
+        <v>16413.7641616</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A25" s="1">
+        <v>80</v>
+      </c>
+      <c r="B25">
+        <v>1288</v>
+      </c>
+      <c r="C25">
+        <f t="shared" si="0"/>
+        <v>1564.1162135000875</v>
+      </c>
+      <c r="D25">
+        <f t="shared" si="1"/>
+        <v>276.1162135000875</v>
+      </c>
+      <c r="E25">
+        <f t="shared" si="2"/>
+        <v>76240.163357625905</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A26" s="1">
+        <v>160</v>
+      </c>
+      <c r="B26">
+        <v>6611</v>
+      </c>
+      <c r="C26">
+        <f t="shared" si="0"/>
+        <v>6256.46485400035</v>
+      </c>
+      <c r="D26">
+        <f t="shared" si="1"/>
+        <v>-354.53514599965001</v>
+      </c>
+      <c r="E26">
+        <f t="shared" si="2"/>
+        <v>125695.16974899315</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A27" s="1">
+        <v>160</v>
+      </c>
+      <c r="B27">
+        <v>706</v>
+      </c>
+      <c r="C27">
+        <f t="shared" si="0"/>
+        <v>6256.46485400035</v>
+      </c>
+      <c r="D27">
+        <f t="shared" si="1"/>
+        <v>5550.46485400035</v>
+      </c>
+      <c r="E27">
+        <f t="shared" si="2"/>
+        <v>30807660.095493127</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A28" s="1">
+        <v>160</v>
+      </c>
+      <c r="B28">
+        <v>5474</v>
+      </c>
+      <c r="C28">
+        <f t="shared" si="0"/>
+        <v>6256.46485400035</v>
+      </c>
+      <c r="D28">
+        <f t="shared" si="1"/>
+        <v>782.46485400034999</v>
+      </c>
+      <c r="E28">
+        <f t="shared" si="2"/>
+        <v>612251.24774578901</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A29" s="1">
+        <v>160</v>
+      </c>
+      <c r="B29">
+        <v>581</v>
+      </c>
+      <c r="C29">
+        <f t="shared" si="0"/>
+        <v>6256.46485400035</v>
+      </c>
+      <c r="D29">
+        <f t="shared" si="1"/>
+        <v>5675.46485400035</v>
+      </c>
+      <c r="E29">
+        <f t="shared" si="2"/>
+        <v>32210901.308993213</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A30" s="1">
+        <v>250</v>
+      </c>
+      <c r="B30">
+        <v>15318</v>
+      </c>
+      <c r="C30">
+        <f t="shared" si="0"/>
+        <v>15274.572397461792</v>
+      </c>
+      <c r="D30">
+        <f t="shared" si="1"/>
+        <v>-43.427602538207793</v>
+      </c>
+      <c r="E30">
+        <f t="shared" si="2"/>
+        <v>1885.9566622165519</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A31" s="1">
+        <v>250</v>
+      </c>
+      <c r="B31">
+        <v>15509</v>
+      </c>
+      <c r="C31">
+        <f t="shared" si="0"/>
+        <v>15274.572397461792</v>
+      </c>
+      <c r="D31">
+        <f t="shared" si="1"/>
+        <v>-234.42760253820779</v>
+      </c>
+      <c r="E31">
+        <f t="shared" si="2"/>
+        <v>54956.300831811932</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A32" s="1">
+        <v>250</v>
+      </c>
+      <c r="B32">
+        <v>16998</v>
+      </c>
+      <c r="C32">
+        <f t="shared" si="0"/>
+        <v>15274.572397461792</v>
+      </c>
+      <c r="D32">
+        <f t="shared" si="1"/>
+        <v>-1723.4276025382078</v>
+      </c>
+      <c r="E32">
+        <f t="shared" si="2"/>
+        <v>2970202.7011905946</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A33" s="1">
+        <v>250</v>
+      </c>
+      <c r="B33">
+        <v>16022</v>
+      </c>
+      <c r="C33">
+        <f t="shared" si="0"/>
+        <v>15274.572397461792</v>
+      </c>
+      <c r="D33">
+        <f t="shared" si="1"/>
+        <v>-747.42760253820779</v>
+      </c>
+      <c r="E33">
+        <f t="shared" si="2"/>
+        <v>558648.02103601315</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A34" s="1">
+        <v>320</v>
+      </c>
+      <c r="B34">
+        <v>23965</v>
+      </c>
+      <c r="C34">
+        <f t="shared" si="0"/>
+        <v>25025.8594160014</v>
+      </c>
+      <c r="D34">
+        <f t="shared" si="1"/>
+        <v>1060.8594160013999</v>
+      </c>
+      <c r="E34">
+        <f t="shared" si="2"/>
+        <v>1125422.7005188314</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A35" s="1">
+        <v>320</v>
+      </c>
+      <c r="B35">
+        <v>23943</v>
+      </c>
+      <c r="C35">
+        <f t="shared" si="0"/>
+        <v>25025.8594160014</v>
+      </c>
+      <c r="D35">
+        <f t="shared" si="1"/>
+        <v>1082.8594160013999</v>
+      </c>
+      <c r="E35">
+        <f t="shared" si="2"/>
+        <v>1172584.5148228928</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A36" s="1">
+        <v>320</v>
+      </c>
+      <c r="B36">
+        <v>23697</v>
+      </c>
+      <c r="C36">
+        <f t="shared" si="0"/>
+        <v>25025.8594160014</v>
+      </c>
+      <c r="D36">
+        <f t="shared" si="1"/>
+        <v>1328.8594160013999</v>
+      </c>
+      <c r="E36">
+        <f t="shared" si="2"/>
+        <v>1765867.3474955817</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A37" s="1">
+        <v>320</v>
+      </c>
+      <c r="B37">
+        <v>24316</v>
+      </c>
+      <c r="C37">
+        <f t="shared" si="0"/>
+        <v>25025.8594160014</v>
+      </c>
+      <c r="D37">
+        <f t="shared" si="1"/>
+        <v>709.85941600139995</v>
+      </c>
+      <c r="E37">
+        <f t="shared" si="2"/>
+        <v>503900.39048584859</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A38" s="1">
+        <v>640</v>
+      </c>
+      <c r="B38">
+        <v>94705</v>
+      </c>
+      <c r="C38">
+        <f t="shared" si="0"/>
+        <v>100103.4376640056</v>
+      </c>
+      <c r="D38">
+        <f t="shared" si="1"/>
+        <v>5398.4376640055998</v>
+      </c>
+      <c r="E38">
+        <f t="shared" si="2"/>
+        <v>29143129.212154236</v>
+      </c>
+    </row>
+    <row r="39" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A39" s="1">
+        <v>640</v>
+      </c>
+      <c r="B39">
+        <v>96736</v>
+      </c>
+      <c r="C39">
+        <f t="shared" si="0"/>
+        <v>100103.4376640056</v>
+      </c>
+      <c r="D39">
+        <f t="shared" si="1"/>
+        <v>3367.4376640055998</v>
+      </c>
+      <c r="E39">
+        <f t="shared" si="2"/>
+        <v>11339636.42096349</v>
+      </c>
+    </row>
+    <row r="40" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A40" s="1">
+        <v>640</v>
+      </c>
+      <c r="B40">
+        <v>101589</v>
+      </c>
+      <c r="C40">
+        <f t="shared" si="0"/>
+        <v>100103.4376640056</v>
+      </c>
+      <c r="D40">
+        <f t="shared" si="1"/>
+        <v>-1485.5623359944002</v>
+      </c>
+      <c r="E40">
+        <f t="shared" si="2"/>
+        <v>2206895.4541251394</v>
+      </c>
+    </row>
+    <row r="41" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A41" s="1">
+        <v>640</v>
+      </c>
+      <c r="B41">
+        <v>96925</v>
+      </c>
+      <c r="C41">
+        <f t="shared" si="0"/>
+        <v>100103.4376640056</v>
+      </c>
+      <c r="D41">
+        <f t="shared" si="1"/>
+        <v>3178.4376640055998</v>
+      </c>
+      <c r="E41">
+        <f t="shared" si="2"/>
+        <v>10102465.983969374</v>
+      </c>
+    </row>
+    <row r="42" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A42" s="1">
+        <v>1000</v>
+      </c>
+      <c r="B42">
+        <v>256784</v>
+      </c>
+      <c r="C42">
+        <f t="shared" si="0"/>
+        <v>244393.15835938868</v>
+      </c>
+      <c r="D42">
+        <f t="shared" si="1"/>
+        <v>-12390.841640611325</v>
+      </c>
+      <c r="E42">
+        <f t="shared" si="2"/>
+        <v>153532956.56270754</v>
+      </c>
+    </row>
+    <row r="43" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A43" s="1">
+        <v>1000</v>
+      </c>
+      <c r="B43">
+        <v>249461</v>
+      </c>
+      <c r="C43">
+        <f t="shared" si="0"/>
+        <v>244393.15835938868</v>
+      </c>
+      <c r="D43">
+        <f t="shared" si="1"/>
+        <v>-5067.8416406113247</v>
+      </c>
+      <c r="E43">
+        <f t="shared" si="2"/>
+        <v>25683018.894314084</v>
+      </c>
+    </row>
+    <row r="44" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A44" s="1">
+        <v>1000</v>
+      </c>
+      <c r="B44">
+        <v>25007</v>
+      </c>
+      <c r="C44">
+        <f t="shared" si="0"/>
+        <v>244393.15835938868</v>
+      </c>
+      <c r="D44">
+        <f t="shared" si="1"/>
+        <v>219386.15835938868</v>
+      </c>
+      <c r="E44">
+        <f t="shared" si="2"/>
+        <v>48130286479.690765</v>
+      </c>
+    </row>
+    <row r="45" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A45" s="1">
+        <v>1000</v>
+      </c>
+      <c r="B45">
+        <v>246685</v>
+      </c>
+      <c r="C45">
+        <f t="shared" si="0"/>
+        <v>244393.15835938868</v>
+      </c>
+      <c r="D45">
+        <f t="shared" si="1"/>
+        <v>-2291.8416406113247</v>
+      </c>
+      <c r="E45">
+        <f t="shared" si="2"/>
+        <v>5252538.1056400081</v>
+      </c>
+    </row>
+    <row r="46" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A46" s="1">
+        <v>1000</v>
+      </c>
+      <c r="B46">
+        <v>254518</v>
+      </c>
+      <c r="C46">
+        <f t="shared" si="0"/>
+        <v>244393.15835938868</v>
+      </c>
+      <c r="D46">
+        <f t="shared" si="1"/>
+        <v>-10124.841640611325</v>
+      </c>
+      <c r="E46">
+        <f t="shared" si="2"/>
+        <v>102512418.24745703</v>
+      </c>
+    </row>
+    <row r="47" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A47" s="1">
+        <v>1000</v>
+      </c>
+      <c r="B47">
+        <v>243197</v>
+      </c>
+      <c r="C47">
+        <f t="shared" si="0"/>
+        <v>244393.15835938868</v>
+      </c>
+      <c r="D47">
+        <f t="shared" si="1"/>
+        <v>1196.1583593886753</v>
+      </c>
+      <c r="E47">
+        <f t="shared" si="2"/>
+        <v>1430794.8207354073</v>
+      </c>
+    </row>
+    <row r="48" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A48" s="1">
+        <v>1000</v>
+      </c>
+      <c r="B48">
+        <v>248279</v>
+      </c>
+      <c r="C48">
+        <f t="shared" si="0"/>
+        <v>244393.15835938868</v>
+      </c>
+      <c r="D48">
+        <f t="shared" si="1"/>
+        <v>-3885.8416406113247</v>
+      </c>
+      <c r="E48">
+        <f t="shared" si="2"/>
+        <v>15099765.255908912</v>
+      </c>
+    </row>
+    <row r="49" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A49" s="1">
+        <v>1000</v>
+      </c>
+      <c r="B49">
+        <v>249544</v>
+      </c>
+      <c r="C49">
+        <f t="shared" si="0"/>
+        <v>244393.15835938868</v>
+      </c>
+      <c r="D49">
+        <f t="shared" si="1"/>
+        <v>-5150.8416406113247</v>
+      </c>
+      <c r="E49">
+        <f t="shared" si="2"/>
+        <v>26531169.606655564</v>
+      </c>
+    </row>
+    <row r="50" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A50" s="1">
+        <v>1050</v>
+      </c>
+      <c r="B50">
+        <v>27672</v>
+      </c>
+      <c r="C50">
+        <f t="shared" si="0"/>
+        <v>269443.45709122601</v>
+      </c>
+      <c r="D50">
+        <f t="shared" si="1"/>
+        <v>241771.45709122601</v>
+      </c>
+      <c r="E50">
+        <f t="shared" si="2"/>
+        <v>58453437464.014542</v>
+      </c>
+    </row>
+    <row r="51" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A51" s="1">
+        <v>1050</v>
+      </c>
+      <c r="B51">
+        <v>274186</v>
+      </c>
+      <c r="C51">
+        <f t="shared" si="0"/>
+        <v>269443.45709122601</v>
+      </c>
+      <c r="D51">
+        <f t="shared" si="1"/>
+        <v>-4742.5429087739903</v>
+      </c>
+      <c r="E51">
+        <f t="shared" si="2"/>
+        <v>22491713.24156246</v>
+      </c>
+    </row>
+    <row r="52" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A52" s="1">
+        <v>1050</v>
+      </c>
+      <c r="B52">
+        <v>268765</v>
+      </c>
+      <c r="C52">
+        <f t="shared" si="0"/>
+        <v>269443.45709122601</v>
+      </c>
+      <c r="D52">
+        <f t="shared" si="1"/>
+        <v>678.45709122600965</v>
+      </c>
+      <c r="E52">
+        <f t="shared" si="2"/>
+        <v>460304.02463485801</v>
+      </c>
+    </row>
+    <row r="53" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A53" s="1">
+        <v>1050</v>
+      </c>
+      <c r="B53">
+        <v>271934</v>
+      </c>
+      <c r="C53">
+        <f t="shared" si="0"/>
+        <v>269443.45709122601</v>
+      </c>
+      <c r="D53">
+        <f t="shared" si="1"/>
+        <v>-2490.5429087739903</v>
+      </c>
+      <c r="E53">
+        <f t="shared" si="2"/>
+        <v>6202803.980444409</v>
+      </c>
+    </row>
+    <row r="54" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A54" s="1">
+        <v>1100</v>
+      </c>
+      <c r="B54">
+        <v>296036</v>
+      </c>
+      <c r="C54">
+        <f t="shared" si="0"/>
+        <v>295715.72161486029</v>
+      </c>
+      <c r="D54">
+        <f t="shared" si="1"/>
+        <v>-320.27838513971074</v>
+      </c>
+      <c r="E54">
+        <f t="shared" si="2"/>
+        <v>102578.24398770089</v>
+      </c>
+    </row>
+    <row r="55" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A55" s="1">
+        <v>1100</v>
+      </c>
+      <c r="B55">
+        <v>29803</v>
+      </c>
+      <c r="C55">
+        <f t="shared" si="0"/>
+        <v>295715.72161486029</v>
+      </c>
+      <c r="D55">
+        <f t="shared" si="1"/>
+        <v>265912.72161486029</v>
+      </c>
+      <c r="E55">
+        <f t="shared" si="2"/>
+        <v>70709575516.622192</v>
+      </c>
+    </row>
+    <row r="56" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A56" s="1">
+        <v>1100</v>
+      </c>
+      <c r="B56">
+        <v>29884</v>
+      </c>
+      <c r="C56">
+        <f t="shared" si="0"/>
+        <v>295715.72161486029</v>
+      </c>
+      <c r="D56">
+        <f t="shared" si="1"/>
+        <v>265831.72161486029</v>
+      </c>
+      <c r="E56">
+        <f t="shared" si="2"/>
+        <v>70666504216.720581</v>
+      </c>
+    </row>
+    <row r="57" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A57" s="1">
+        <v>1100</v>
+      </c>
+      <c r="B57">
+        <v>306935</v>
+      </c>
+      <c r="C57">
+        <f t="shared" si="0"/>
+        <v>295715.72161486029</v>
+      </c>
+      <c r="D57">
+        <f t="shared" si="1"/>
+        <v>-11219.278385139711</v>
+      </c>
+      <c r="E57">
+        <f t="shared" si="2"/>
+        <v>125872207.48326312</v>
+      </c>
+    </row>
+    <row r="58" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A58" s="1">
+        <v>1100</v>
+      </c>
+      <c r="B58">
+        <v>305598</v>
+      </c>
+      <c r="C58">
+        <f t="shared" si="0"/>
+        <v>295715.72161486029</v>
+      </c>
+      <c r="D58">
+        <f t="shared" si="1"/>
+        <v>-9882.2783851397107</v>
+      </c>
+      <c r="E58">
+        <f t="shared" si="2"/>
+        <v>97659426.08139953</v>
+      </c>
+    </row>
+    <row r="59" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A59" s="1">
+        <v>1100</v>
+      </c>
+      <c r="B59">
+        <v>298582</v>
+      </c>
+      <c r="C59">
+        <f t="shared" si="0"/>
+        <v>295715.72161486029</v>
+      </c>
+      <c r="D59">
+        <f t="shared" si="1"/>
+        <v>-2866.2783851397107</v>
+      </c>
+      <c r="E59">
+        <f t="shared" si="2"/>
+        <v>8215551.7811191082</v>
+      </c>
+    </row>
+    <row r="60" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A60" s="1">
+        <v>1100</v>
+      </c>
+      <c r="B60">
+        <v>295794</v>
+      </c>
+      <c r="C60">
+        <f t="shared" si="0"/>
+        <v>295715.72161486029</v>
+      </c>
+      <c r="D60">
+        <f t="shared" si="1"/>
+        <v>-78.278385139710736</v>
+      </c>
+      <c r="E60">
+        <f t="shared" si="2"/>
+        <v>6127.5055800808868</v>
+      </c>
+    </row>
+    <row r="61" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A61" s="1">
+        <v>1100</v>
+      </c>
+      <c r="B61">
+        <v>308025</v>
+      </c>
+      <c r="C61">
+        <f t="shared" si="0"/>
+        <v>295715.72161486029</v>
+      </c>
+      <c r="D61">
+        <f t="shared" si="1"/>
+        <v>-12309.278385139711</v>
+      </c>
+      <c r="E61">
+        <f t="shared" si="2"/>
+        <v>151518334.36286768</v>
+      </c>
+    </row>
+    <row r="62" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A62" s="1">
+        <v>1150</v>
+      </c>
+      <c r="B62">
+        <v>333772</v>
+      </c>
+      <c r="C62">
+        <f t="shared" si="0"/>
+        <v>323209.95193029154</v>
+      </c>
+      <c r="D62">
+        <f t="shared" si="1"/>
+        <v>-10562.048069708457</v>
+      </c>
+      <c r="E62">
+        <f t="shared" si="2"/>
+        <v>111556859.42683214</v>
+      </c>
+    </row>
+    <row r="63" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A63" s="1">
+        <v>1150</v>
+      </c>
+      <c r="B63">
+        <v>329904</v>
+      </c>
+      <c r="C63">
+        <f t="shared" si="0"/>
+        <v>323209.95193029154</v>
+      </c>
+      <c r="D63">
+        <f t="shared" si="1"/>
+        <v>-6694.0480697084568</v>
+      </c>
+      <c r="E63">
+        <f t="shared" si="2"/>
+        <v>44810279.559567519</v>
+      </c>
+    </row>
+    <row r="64" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A64" s="1">
+        <v>1150</v>
+      </c>
+      <c r="B64">
+        <v>330967</v>
+      </c>
+      <c r="C64">
+        <f t="shared" si="0"/>
+        <v>323209.95193029154</v>
+      </c>
+      <c r="D64">
+        <f t="shared" si="1"/>
+        <v>-7757.0480697084568</v>
+      </c>
+      <c r="E64">
+        <f t="shared" si="2"/>
+        <v>60171794.755767696</v>
+      </c>
+    </row>
+    <row r="65" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A65" s="1">
+        <v>1150</v>
+      </c>
+      <c r="B65">
+        <v>325513</v>
+      </c>
+      <c r="C65">
+        <f t="shared" si="0"/>
+        <v>323209.95193029154</v>
+      </c>
+      <c r="D65">
+        <f t="shared" si="1"/>
+        <v>-2303.0480697084568</v>
+      </c>
+      <c r="E65">
+        <f t="shared" si="2"/>
+        <v>5304030.4113878487</v>
+      </c>
+    </row>
+    <row r="66" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A66" s="1">
+        <v>1200</v>
+      </c>
+      <c r="B66">
+        <v>366895</v>
+      </c>
+      <c r="C66">
+        <f t="shared" si="0"/>
+        <v>351926.14803751971</v>
+      </c>
+      <c r="D66">
+        <f t="shared" si="1"/>
+        <v>-14968.851962480287</v>
+      </c>
+      <c r="E66">
+        <f t="shared" si="2"/>
+        <v>224066529.07464993</v>
+      </c>
+    </row>
+    <row r="67" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A67" s="1">
+        <v>1200</v>
+      </c>
+      <c r="B67">
+        <v>354967</v>
+      </c>
+      <c r="C67">
+        <f t="shared" ref="C67:C130" si="3">(A67^2)*$G$2</f>
+        <v>351926.14803751971</v>
+      </c>
+      <c r="D67">
+        <f t="shared" ref="D67:D130" si="4">C67-B67</f>
+        <v>-3040.8519624802866</v>
+      </c>
+      <c r="E67">
+        <f t="shared" ref="E67:E130" si="5">D67^2</f>
+        <v>9246780.65772021</v>
+      </c>
+    </row>
+    <row r="68" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A68" s="1">
+        <v>1200</v>
+      </c>
+      <c r="B68">
+        <v>358419</v>
+      </c>
+      <c r="C68">
+        <f t="shared" si="3"/>
+        <v>351926.14803751971</v>
+      </c>
+      <c r="D68">
+        <f t="shared" si="4"/>
+        <v>-6492.8519624802866</v>
+      </c>
+      <c r="E68">
+        <f t="shared" si="5"/>
+        <v>42157126.606684111</v>
+      </c>
+    </row>
+    <row r="69" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A69" s="1">
+        <v>1200</v>
+      </c>
+      <c r="B69">
+        <v>365176</v>
+      </c>
+      <c r="C69">
+        <f t="shared" si="3"/>
+        <v>351926.14803751971</v>
+      </c>
+      <c r="D69">
+        <f t="shared" si="4"/>
+        <v>-13249.851962480287</v>
+      </c>
+      <c r="E69">
+        <f t="shared" si="5"/>
+        <v>175558577.0276427</v>
+      </c>
+    </row>
+    <row r="70" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A70" s="1">
+        <v>1200</v>
+      </c>
+      <c r="B70">
+        <v>35663</v>
+      </c>
+      <c r="C70">
+        <f t="shared" si="3"/>
+        <v>351926.14803751971</v>
+      </c>
+      <c r="D70">
+        <f t="shared" si="4"/>
+        <v>316263.14803751971</v>
+      </c>
+      <c r="E70">
+        <f t="shared" si="5"/>
+        <v>100022378806.60211</v>
+      </c>
+    </row>
+    <row r="71" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A71" s="1">
+        <v>1200</v>
+      </c>
+      <c r="B71">
+        <v>361886</v>
+      </c>
+      <c r="C71">
+        <f t="shared" si="3"/>
+        <v>351926.14803751971</v>
+      </c>
+      <c r="D71">
+        <f t="shared" si="4"/>
+        <v>-9959.8519624802866</v>
+      </c>
+      <c r="E71">
+        <f t="shared" si="5"/>
+        <v>99198651.114522412</v>
+      </c>
+    </row>
+    <row r="72" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A72" s="1">
+        <v>1200</v>
+      </c>
+      <c r="B72">
+        <v>359263</v>
+      </c>
+      <c r="C72">
+        <f t="shared" si="3"/>
+        <v>351926.14803751971</v>
+      </c>
+      <c r="D72">
+        <f t="shared" si="4"/>
+        <v>-7336.8519624802866</v>
+      </c>
+      <c r="E72">
+        <f t="shared" si="5"/>
+        <v>53829396.71935083</v>
+      </c>
+    </row>
+    <row r="73" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A73" s="1">
+        <v>1200</v>
+      </c>
+      <c r="B73">
+        <v>35473</v>
+      </c>
+      <c r="C73">
+        <f t="shared" si="3"/>
+        <v>351926.14803751971</v>
+      </c>
+      <c r="D73">
+        <f t="shared" si="4"/>
+        <v>316453.14803751971</v>
+      </c>
+      <c r="E73">
+        <f t="shared" si="5"/>
+        <v>100142594902.85637</v>
+      </c>
+    </row>
+    <row r="74" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A74" s="1">
+        <v>1250</v>
+      </c>
+      <c r="B74">
+        <v>385639</v>
+      </c>
+      <c r="C74">
+        <f t="shared" si="3"/>
+        <v>381864.3099365448</v>
+      </c>
+      <c r="D74">
+        <f t="shared" si="4"/>
+        <v>-3774.6900634552003</v>
+      </c>
+      <c r="E74">
+        <f t="shared" si="5"/>
+        <v>14248285.075147424</v>
+      </c>
+    </row>
+    <row r="75" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A75" s="1">
+        <v>1250</v>
+      </c>
+      <c r="B75">
+        <v>384115</v>
+      </c>
+      <c r="C75">
+        <f t="shared" si="3"/>
+        <v>381864.3099365448</v>
+      </c>
+      <c r="D75">
+        <f t="shared" si="4"/>
+        <v>-2250.6900634552003</v>
+      </c>
+      <c r="E75">
+        <f t="shared" si="5"/>
+        <v>5065605.7617359739</v>
+      </c>
+    </row>
+    <row r="76" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A76" s="1">
+        <v>1250</v>
+      </c>
+      <c r="B76">
+        <v>397066</v>
+      </c>
+      <c r="C76">
+        <f t="shared" si="3"/>
+        <v>381864.3099365448</v>
+      </c>
+      <c r="D76">
+        <f t="shared" si="4"/>
+        <v>-15201.6900634552</v>
+      </c>
+      <c r="E76">
+        <f t="shared" si="5"/>
+        <v>231091380.78535256</v>
+      </c>
+    </row>
+    <row r="77" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A77" s="1">
+        <v>1250</v>
+      </c>
+      <c r="B77">
+        <v>392708</v>
+      </c>
+      <c r="C77">
+        <f t="shared" si="3"/>
+        <v>381864.3099365448</v>
+      </c>
+      <c r="D77">
+        <f t="shared" si="4"/>
+        <v>-10843.6900634552</v>
+      </c>
+      <c r="E77">
+        <f t="shared" si="5"/>
+        <v>117585614.19227704</v>
+      </c>
+    </row>
+    <row r="78" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A78" s="1">
+        <v>1250</v>
+      </c>
+      <c r="B78">
+        <v>376552</v>
+      </c>
+      <c r="C78">
+        <f t="shared" si="3"/>
+        <v>381864.3099365448</v>
+      </c>
+      <c r="D78">
+        <f t="shared" si="4"/>
+        <v>5312.3099365447997</v>
+      </c>
+      <c r="E78">
+        <f t="shared" si="5"/>
+        <v>28220636.861912616</v>
+      </c>
+    </row>
+    <row r="79" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A79" s="1">
+        <v>1250</v>
+      </c>
+      <c r="B79">
+        <v>386868</v>
+      </c>
+      <c r="C79">
+        <f t="shared" si="3"/>
+        <v>381864.3099365448</v>
+      </c>
+      <c r="D79">
+        <f t="shared" si="4"/>
+        <v>-5003.6900634552003</v>
+      </c>
+      <c r="E79">
+        <f t="shared" si="5"/>
+        <v>25036914.251120307</v>
+      </c>
+    </row>
+    <row r="80" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A80" s="1">
+        <v>1250</v>
+      </c>
+      <c r="B80">
+        <v>388408</v>
+      </c>
+      <c r="C80">
+        <f t="shared" si="3"/>
+        <v>381864.3099365448</v>
+      </c>
+      <c r="D80">
+        <f t="shared" si="4"/>
+        <v>-6543.6900634552003</v>
+      </c>
+      <c r="E80">
+        <f t="shared" si="5"/>
+        <v>42819879.646562323</v>
+      </c>
+    </row>
+    <row r="81" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A81" s="1">
+        <v>1250</v>
+      </c>
+      <c r="B81">
+        <v>385033</v>
+      </c>
+      <c r="C81">
+        <f t="shared" si="3"/>
+        <v>381864.3099365448</v>
+      </c>
+      <c r="D81">
+        <f t="shared" si="4"/>
+        <v>-3168.6900634552003</v>
+      </c>
+      <c r="E81">
+        <f t="shared" si="5"/>
+        <v>10040596.718239721</v>
+      </c>
+    </row>
+    <row r="82" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A82" s="1">
+        <v>1280</v>
+      </c>
+      <c r="B82">
+        <v>380873</v>
+      </c>
+      <c r="C82">
+        <f t="shared" si="3"/>
+        <v>400413.7506560224</v>
+      </c>
+      <c r="D82">
+        <f t="shared" si="4"/>
+        <v>19540.750656022399</v>
+      </c>
+      <c r="E82">
+        <f t="shared" si="5"/>
+        <v>381840936.20083982</v>
+      </c>
+    </row>
+    <row r="83" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A83" s="1">
+        <v>1280</v>
+      </c>
+      <c r="B83">
+        <v>382365</v>
+      </c>
+      <c r="C83">
+        <f t="shared" si="3"/>
+        <v>400413.7506560224</v>
+      </c>
+      <c r="D83">
+        <f t="shared" si="4"/>
+        <v>18048.750656022399</v>
+      </c>
+      <c r="E83">
+        <f t="shared" si="5"/>
+        <v>325757400.24326897</v>
+      </c>
+    </row>
+    <row r="84" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A84" s="1">
+        <v>1280</v>
+      </c>
+      <c r="B84">
+        <v>389973</v>
+      </c>
+      <c r="C84">
+        <f t="shared" si="3"/>
+        <v>400413.7506560224</v>
+      </c>
+      <c r="D84">
+        <f t="shared" si="4"/>
+        <v>10440.750656022399</v>
+      </c>
+      <c r="E84">
+        <f t="shared" si="5"/>
+        <v>109009274.26123215</v>
+      </c>
+    </row>
+    <row r="85" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A85" s="1">
+        <v>1280</v>
+      </c>
+      <c r="B85">
+        <v>382346</v>
+      </c>
+      <c r="C85">
+        <f t="shared" si="3"/>
+        <v>400413.7506560224</v>
+      </c>
+      <c r="D85">
+        <f t="shared" si="4"/>
+        <v>18067.750656022399</v>
+      </c>
+      <c r="E85">
+        <f t="shared" si="5"/>
+        <v>326443613.76819783</v>
+      </c>
+    </row>
+    <row r="86" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A86" s="1">
+        <v>1300</v>
+      </c>
+      <c r="B86">
+        <v>41893</v>
+      </c>
+      <c r="C86">
+        <f t="shared" si="3"/>
+        <v>413024.43762736686</v>
+      </c>
+      <c r="D86">
+        <f t="shared" si="4"/>
+        <v>371131.43762736686</v>
+      </c>
+      <c r="E86">
+        <f t="shared" si="5"/>
+        <v>137738543995.35611</v>
+      </c>
+    </row>
+    <row r="87" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A87" s="1">
+        <v>1300</v>
+      </c>
+      <c r="B87">
+        <v>413853</v>
+      </c>
+      <c r="C87">
+        <f t="shared" si="3"/>
+        <v>413024.43762736686</v>
+      </c>
+      <c r="D87">
+        <f t="shared" si="4"/>
+        <v>-828.5623726331396</v>
+      </c>
+      <c r="E87">
+        <f t="shared" si="5"/>
+        <v>686515.60534345766</v>
+      </c>
+    </row>
+    <row r="88" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A88" s="1">
+        <v>1300</v>
+      </c>
+      <c r="B88">
+        <v>410922</v>
+      </c>
+      <c r="C88">
+        <f t="shared" si="3"/>
+        <v>413024.43762736686</v>
+      </c>
+      <c r="D88">
+        <f t="shared" si="4"/>
+        <v>2102.4376273668604</v>
+      </c>
+      <c r="E88">
+        <f t="shared" si="5"/>
+        <v>4420243.9769679932</v>
+      </c>
+    </row>
+    <row r="89" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A89" s="1">
+        <v>1300</v>
+      </c>
+      <c r="B89">
+        <v>407456</v>
+      </c>
+      <c r="C89">
+        <f t="shared" si="3"/>
+        <v>413024.43762736686</v>
+      </c>
+      <c r="D89">
+        <f t="shared" si="4"/>
+        <v>5568.4376273668604</v>
+      </c>
+      <c r="E89">
+        <f t="shared" si="5"/>
+        <v>31007497.609875068</v>
+      </c>
+    </row>
+    <row r="90" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A90" s="1">
+        <v>1300</v>
+      </c>
+      <c r="B90">
+        <v>427894</v>
+      </c>
+      <c r="C90">
+        <f t="shared" si="3"/>
+        <v>413024.43762736686</v>
+      </c>
+      <c r="D90">
+        <f t="shared" si="4"/>
+        <v>-14869.56237263314</v>
+      </c>
+      <c r="E90">
+        <f t="shared" si="5"/>
+        <v>221103885.15362728</v>
+      </c>
+    </row>
+    <row r="91" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A91" s="1">
+        <v>1300</v>
+      </c>
+      <c r="B91">
+        <v>427512</v>
+      </c>
+      <c r="C91">
+        <f t="shared" si="3"/>
+        <v>413024.43762736686</v>
+      </c>
+      <c r="D91">
+        <f t="shared" si="4"/>
+        <v>-14487.56237263314</v>
+      </c>
+      <c r="E91">
+        <f t="shared" si="5"/>
+        <v>209889463.50093555</v>
+      </c>
+    </row>
+    <row r="92" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A92" s="1">
+        <v>1300</v>
+      </c>
+      <c r="B92">
+        <v>420154</v>
+      </c>
+      <c r="C92">
+        <f t="shared" si="3"/>
+        <v>413024.43762736686</v>
+      </c>
+      <c r="D92">
+        <f t="shared" si="4"/>
+        <v>-7129.5623726331396</v>
+      </c>
+      <c r="E92">
+        <f t="shared" si="5"/>
+        <v>50830659.625266284</v>
+      </c>
+    </row>
+    <row r="93" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A93" s="1">
+        <v>1300</v>
+      </c>
+      <c r="B93">
+        <v>427788</v>
+      </c>
+      <c r="C93">
+        <f t="shared" si="3"/>
+        <v>413024.43762736686</v>
+      </c>
+      <c r="D93">
+        <f t="shared" si="4"/>
+        <v>-14763.56237263314</v>
+      </c>
+      <c r="E93">
+        <f t="shared" si="5"/>
+        <v>217962773.93062904</v>
+      </c>
+    </row>
+    <row r="94" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A94" s="1">
+        <v>1400</v>
+      </c>
+      <c r="B94">
+        <v>478075</v>
+      </c>
+      <c r="C94">
+        <f t="shared" si="3"/>
+        <v>479010.59038440185</v>
+      </c>
+      <c r="D94">
+        <f t="shared" si="4"/>
+        <v>935.59038440184668</v>
+      </c>
+      <c r="E94">
+        <f t="shared" si="5"/>
+        <v>875329.36738519522</v>
+      </c>
+    </row>
+    <row r="95" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A95" s="1">
+        <v>1400</v>
+      </c>
+      <c r="B95">
+        <v>482121</v>
+      </c>
+      <c r="C95">
+        <f t="shared" si="3"/>
+        <v>479010.59038440185</v>
+      </c>
+      <c r="D95">
+        <f t="shared" si="4"/>
+        <v>-3110.4096155981533</v>
+      </c>
+      <c r="E95">
+        <f t="shared" si="5"/>
+        <v>9674647.9768054523</v>
+      </c>
+    </row>
+    <row r="96" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A96" s="1">
+        <v>1400</v>
+      </c>
+      <c r="B96">
+        <v>499829</v>
+      </c>
+      <c r="C96">
+        <f t="shared" si="3"/>
+        <v>479010.59038440185</v>
+      </c>
+      <c r="D96">
+        <f t="shared" si="4"/>
+        <v>-20818.409615598153</v>
+      </c>
+      <c r="E96">
+        <f t="shared" si="5"/>
+        <v>433406178.92282963</v>
+      </c>
+    </row>
+    <row r="97" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A97" s="1">
+        <v>1400</v>
+      </c>
+      <c r="B97">
+        <v>47737</v>
+      </c>
+      <c r="C97">
+        <f t="shared" si="3"/>
+        <v>479010.59038440185</v>
+      </c>
+      <c r="D97">
+        <f t="shared" si="4"/>
+        <v>431273.59038440185</v>
+      </c>
+      <c r="E97">
+        <f t="shared" si="5"/>
+        <v>185996909763.05283</v>
+      </c>
+    </row>
+    <row r="98" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A98" s="1">
+        <v>1500</v>
+      </c>
+      <c r="B98">
+        <v>562751</v>
+      </c>
+      <c r="C98">
+        <f t="shared" si="3"/>
+        <v>549884.6063086245</v>
+      </c>
+      <c r="D98">
+        <f t="shared" si="4"/>
+        <v>-12866.393691375502</v>
+      </c>
+      <c r="E98">
+        <f t="shared" si="5"/>
+        <v>165544086.62146732</v>
+      </c>
+    </row>
+    <row r="99" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A99" s="1">
+        <v>1500</v>
+      </c>
+      <c r="B99">
+        <v>544034</v>
+      </c>
+      <c r="C99">
+        <f t="shared" si="3"/>
+        <v>549884.6063086245</v>
+      </c>
+      <c r="D99">
+        <f t="shared" si="4"/>
+        <v>5850.6063086244976</v>
+      </c>
+      <c r="E99">
+        <f t="shared" si="5"/>
+        <v>34229594.178516768</v>
+      </c>
+    </row>
+    <row r="100" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A100" s="1">
+        <v>1500</v>
+      </c>
+      <c r="B100">
+        <v>554532</v>
+      </c>
+      <c r="C100">
+        <f t="shared" si="3"/>
+        <v>549884.6063086245</v>
+      </c>
+      <c r="D100">
+        <f t="shared" si="4"/>
+        <v>-4647.3936913755024</v>
+      </c>
+      <c r="E100">
+        <f t="shared" si="5"/>
+        <v>21598268.122636817</v>
+      </c>
+    </row>
+    <row r="101" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A101" s="1">
+        <v>1500</v>
+      </c>
+      <c r="B101">
+        <v>546829</v>
+      </c>
+      <c r="C101">
+        <f t="shared" si="3"/>
+        <v>549884.6063086245</v>
+      </c>
+      <c r="D101">
+        <f t="shared" si="4"/>
+        <v>3055.6063086244976</v>
+      </c>
+      <c r="E101">
+        <f t="shared" si="5"/>
+        <v>9336729.9133058283</v>
+      </c>
+    </row>
+    <row r="102" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A102" s="1">
+        <v>1600</v>
+      </c>
+      <c r="B102">
+        <v>64272</v>
+      </c>
+      <c r="C102">
+        <f t="shared" si="3"/>
+        <v>625646.48540003505</v>
+      </c>
+      <c r="D102">
+        <f t="shared" si="4"/>
+        <v>561374.48540003505</v>
+      </c>
+      <c r="E102">
+        <f t="shared" si="5"/>
+        <v>315141312858.15417</v>
+      </c>
+    </row>
+    <row r="103" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A103" s="1">
+        <v>1600</v>
+      </c>
+      <c r="B103">
+        <v>640111</v>
+      </c>
+      <c r="C103">
+        <f t="shared" si="3"/>
+        <v>625646.48540003505</v>
+      </c>
+      <c r="D103">
+        <f t="shared" si="4"/>
+        <v>-14464.514599964954</v>
+      </c>
+      <c r="E103">
+        <f t="shared" si="5"/>
+        <v>209222182.61259931</v>
+      </c>
+    </row>
+    <row r="104" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A104" s="1">
+        <v>1600</v>
+      </c>
+      <c r="B104">
+        <v>621981</v>
+      </c>
+      <c r="C104">
+        <f t="shared" si="3"/>
+        <v>625646.48540003505</v>
+      </c>
+      <c r="D104">
+        <f t="shared" si="4"/>
+        <v>3665.485400035046</v>
+      </c>
+      <c r="E104">
+        <f t="shared" si="5"/>
+        <v>13435783.217870081</v>
+      </c>
+    </row>
+    <row r="105" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A105" s="1">
+        <v>1600</v>
+      </c>
+      <c r="B105">
+        <v>649332</v>
+      </c>
+      <c r="C105">
+        <f t="shared" si="3"/>
+        <v>625646.48540003505</v>
+      </c>
+      <c r="D105">
+        <f t="shared" si="4"/>
+        <v>-23685.514599964954</v>
+      </c>
+      <c r="E105">
+        <f t="shared" si="5"/>
+        <v>561003601.86515296</v>
+      </c>
+    </row>
+    <row r="106" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A106" s="1">
+        <v>1700</v>
+      </c>
+      <c r="B106">
+        <v>714493</v>
+      </c>
+      <c r="C106">
+        <f t="shared" si="3"/>
+        <v>706296.22765863326</v>
+      </c>
+      <c r="D106">
+        <f t="shared" si="4"/>
+        <v>-8196.7723413667409</v>
+      </c>
+      <c r="E106">
+        <f t="shared" si="5"/>
+        <v>67187076.816194803</v>
+      </c>
+    </row>
+    <row r="107" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A107" s="1">
+        <v>1700</v>
+      </c>
+      <c r="B107">
+        <v>70962</v>
+      </c>
+      <c r="C107">
+        <f t="shared" si="3"/>
+        <v>706296.22765863326</v>
+      </c>
+      <c r="D107">
+        <f t="shared" si="4"/>
+        <v>635334.22765863326</v>
+      </c>
+      <c r="E107">
+        <f t="shared" si="5"/>
+        <v>403649580834.59204</v>
+      </c>
+    </row>
+    <row r="108" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A108" s="1">
+        <v>1700</v>
+      </c>
+      <c r="B108">
+        <v>731895</v>
+      </c>
+      <c r="C108">
+        <f t="shared" si="3"/>
+        <v>706296.22765863326</v>
+      </c>
+      <c r="D108">
+        <f t="shared" si="4"/>
+        <v>-25598.772341366741</v>
+      </c>
+      <c r="E108">
+        <f t="shared" si="5"/>
+        <v>655297145.3851229</v>
+      </c>
+    </row>
+    <row r="109" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A109" s="1">
+        <v>1700</v>
+      </c>
+      <c r="B109">
+        <v>715599</v>
+      </c>
+      <c r="C109">
+        <f t="shared" si="3"/>
+        <v>706296.22765863326</v>
+      </c>
+      <c r="D109">
+        <f t="shared" si="4"/>
+        <v>-9302.7723413667409</v>
+      </c>
+      <c r="E109">
+        <f t="shared" si="5"/>
+        <v>86541573.235298038</v>
+      </c>
+    </row>
+    <row r="110" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A110" s="1">
+        <v>1800</v>
+      </c>
+      <c r="B110">
+        <v>824006</v>
+      </c>
+      <c r="C110">
+        <f t="shared" si="3"/>
+        <v>791833.83308441937</v>
+      </c>
+      <c r="D110">
+        <f t="shared" si="4"/>
+        <v>-32172.16691558063</v>
+      </c>
+      <c r="E110">
+        <f t="shared" si="5"/>
+        <v>1035048324.0439808</v>
+      </c>
+    </row>
+    <row r="111" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A111" s="1">
+        <v>1800</v>
+      </c>
+      <c r="B111">
+        <v>815508</v>
+      </c>
+      <c r="C111">
+        <f t="shared" si="3"/>
+        <v>791833.83308441937</v>
+      </c>
+      <c r="D111">
+        <f t="shared" si="4"/>
+        <v>-23674.16691558063</v>
+      </c>
+      <c r="E111">
+        <f t="shared" si="5"/>
+        <v>560466179.1467725</v>
+      </c>
+    </row>
+    <row r="112" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A112" s="1">
+        <v>1800</v>
+      </c>
+      <c r="B112">
+        <v>801986</v>
+      </c>
+      <c r="C112">
+        <f t="shared" si="3"/>
+        <v>791833.83308441937</v>
+      </c>
+      <c r="D112">
+        <f t="shared" si="4"/>
+        <v>-10152.16691558063</v>
+      </c>
+      <c r="E112">
+        <f t="shared" si="5"/>
+        <v>103066493.08180992</v>
+      </c>
+    </row>
+    <row r="113" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A113" s="1">
+        <v>1800</v>
+      </c>
+      <c r="B113">
+        <v>818894</v>
+      </c>
+      <c r="C113">
+        <f t="shared" si="3"/>
+        <v>791833.83308441937</v>
+      </c>
+      <c r="D113">
+        <f t="shared" si="4"/>
+        <v>-27060.16691558063</v>
+      </c>
+      <c r="E113">
+        <f t="shared" si="5"/>
+        <v>732252633.49908447</v>
+      </c>
+    </row>
+    <row r="114" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A114" s="1">
+        <v>1900</v>
+      </c>
+      <c r="B114">
+        <v>908253</v>
+      </c>
+      <c r="C114">
+        <f t="shared" si="3"/>
+        <v>882259.30167739314</v>
+      </c>
+      <c r="D114">
+        <f t="shared" si="4"/>
+        <v>-25993.698322606855</v>
+      </c>
+      <c r="E114">
+        <f t="shared" si="5"/>
+        <v>675672352.48669446</v>
+      </c>
+    </row>
+    <row r="115" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A115" s="1">
+        <v>1900</v>
+      </c>
+      <c r="B115">
+        <v>925529</v>
+      </c>
+      <c r="C115">
+        <f t="shared" si="3"/>
+        <v>882259.30167739314</v>
+      </c>
+      <c r="D115">
+        <f t="shared" si="4"/>
+        <v>-43269.698322606855</v>
+      </c>
+      <c r="E115">
+        <f t="shared" si="5"/>
+        <v>1872266792.9294064</v>
+      </c>
+    </row>
+    <row r="116" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A116" s="1">
+        <v>1900</v>
+      </c>
+      <c r="B116">
+        <v>885891</v>
+      </c>
+      <c r="C116">
+        <f t="shared" si="3"/>
+        <v>882259.30167739314</v>
+      </c>
+      <c r="D116">
+        <f t="shared" si="4"/>
+        <v>-3631.6983226068551</v>
+      </c>
+      <c r="E116">
+        <f t="shared" si="5"/>
+        <v>13189232.706425445</v>
+      </c>
+    </row>
+    <row r="117" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A117" s="1">
+        <v>1900</v>
+      </c>
+      <c r="B117">
+        <v>9099</v>
+      </c>
+      <c r="C117">
+        <f t="shared" si="3"/>
+        <v>882259.30167739314</v>
+      </c>
+      <c r="D117">
+        <f t="shared" si="4"/>
+        <v>873160.30167739314</v>
+      </c>
+      <c r="E117">
+        <f t="shared" si="5"/>
+        <v>762408912425.3562</v>
+      </c>
+    </row>
+    <row r="118" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A118" s="1">
+        <v>2000</v>
+      </c>
+      <c r="B118">
+        <v>995229</v>
+      </c>
+      <c r="C118">
+        <f t="shared" si="3"/>
+        <v>977572.6334375547</v>
+      </c>
+      <c r="D118">
+        <f t="shared" si="4"/>
+        <v>-17656.366562445299</v>
+      </c>
+      <c r="E118">
+        <f t="shared" si="5"/>
+        <v>311747280.1874364</v>
+      </c>
+    </row>
+    <row r="119" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A119" s="1">
+        <v>2000</v>
+      </c>
+      <c r="B119">
+        <v>1009027</v>
+      </c>
+      <c r="C119">
+        <f t="shared" si="3"/>
+        <v>977572.6334375547</v>
+      </c>
+      <c r="D119">
+        <f t="shared" si="4"/>
+        <v>-31454.366562445299</v>
+      </c>
+      <c r="E119">
+        <f t="shared" si="5"/>
+        <v>989377175.84467685</v>
+      </c>
+    </row>
+    <row r="120" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A120" s="1">
+        <v>2000</v>
+      </c>
+      <c r="B120">
+        <v>983814</v>
+      </c>
+      <c r="C120">
+        <f t="shared" si="3"/>
+        <v>977572.6334375547</v>
+      </c>
+      <c r="D120">
+        <f t="shared" si="4"/>
+        <v>-6241.3665624452988</v>
+      </c>
+      <c r="E120">
+        <f t="shared" si="5"/>
+        <v>38954656.566810243</v>
+      </c>
+    </row>
+    <row r="121" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A121" s="1">
+        <v>2000</v>
+      </c>
+      <c r="B121">
+        <v>993108</v>
+      </c>
+      <c r="C121">
+        <f t="shared" si="3"/>
+        <v>977572.6334375547</v>
+      </c>
+      <c r="D121">
+        <f t="shared" si="4"/>
+        <v>-15535.366562445299</v>
+      </c>
+      <c r="E121">
+        <f t="shared" si="5"/>
+        <v>241347614.22954345</v>
+      </c>
+    </row>
+    <row r="122" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A122" s="1">
+        <v>2000</v>
+      </c>
+      <c r="B122">
+        <v>1007254</v>
+      </c>
+      <c r="C122">
+        <f t="shared" si="3"/>
+        <v>977572.6334375547</v>
+      </c>
+      <c r="D122">
+        <f t="shared" si="4"/>
+        <v>-29681.366562445299</v>
+      </c>
+      <c r="E122">
+        <f t="shared" si="5"/>
+        <v>880983521.01424587</v>
+      </c>
+    </row>
+    <row r="123" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A123" s="1">
+        <v>2000</v>
+      </c>
+      <c r="B123">
+        <v>1008806</v>
+      </c>
+      <c r="C123">
+        <f t="shared" si="3"/>
+        <v>977572.6334375547</v>
+      </c>
+      <c r="D123">
+        <f t="shared" si="4"/>
+        <v>-31233.366562445299</v>
+      </c>
+      <c r="E123">
+        <f t="shared" si="5"/>
+        <v>975523186.82407606</v>
+      </c>
+    </row>
+    <row r="124" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A124" s="1">
+        <v>2000</v>
+      </c>
+      <c r="B124">
+        <v>981646</v>
+      </c>
+      <c r="C124">
+        <f t="shared" si="3"/>
+        <v>977572.6334375547</v>
+      </c>
+      <c r="D124">
+        <f t="shared" si="4"/>
+        <v>-4073.3665624452988</v>
+      </c>
+      <c r="E124">
+        <f t="shared" si="5"/>
+        <v>16592315.152047429</v>
+      </c>
+    </row>
+    <row r="125" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A125" s="1">
+        <v>2000</v>
+      </c>
+      <c r="B125">
+        <v>1008194</v>
+      </c>
+      <c r="C125">
+        <f t="shared" si="3"/>
+        <v>977572.6334375547</v>
+      </c>
+      <c r="D125">
+        <f t="shared" si="4"/>
+        <v>-30621.366562445299</v>
+      </c>
+      <c r="E125">
+        <f t="shared" si="5"/>
+        <v>937668090.15164304</v>
+      </c>
+    </row>
+    <row r="126" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A126" s="1">
+        <v>2100</v>
+      </c>
+      <c r="B126">
+        <v>1118695</v>
+      </c>
+      <c r="C126">
+        <f t="shared" si="3"/>
+        <v>1077773.828364904</v>
+      </c>
+      <c r="D126">
+        <f t="shared" si="4"/>
+        <v>-40921.171635095961</v>
+      </c>
+      <c r="E126">
+        <f t="shared" si="5"/>
+        <v>1674542287.9889822</v>
+      </c>
+    </row>
+    <row r="127" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A127" s="1">
+        <v>2100</v>
+      </c>
+      <c r="B127">
+        <v>1065904</v>
+      </c>
+      <c r="C127">
+        <f t="shared" si="3"/>
+        <v>1077773.828364904</v>
+      </c>
+      <c r="D127">
+        <f t="shared" si="4"/>
+        <v>11869.828364904039</v>
+      </c>
+      <c r="E127">
+        <f t="shared" si="5"/>
+        <v>140892825.41228047</v>
+      </c>
+    </row>
+    <row r="128" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A128" s="1">
+        <v>2100</v>
+      </c>
+      <c r="B128">
+        <v>1124311</v>
+      </c>
+      <c r="C128">
+        <f t="shared" si="3"/>
+        <v>1077773.828364904</v>
+      </c>
+      <c r="D128">
+        <f t="shared" si="4"/>
+        <v>-46537.171635095961</v>
+      </c>
+      <c r="E128">
+        <f t="shared" si="5"/>
+        <v>2165708343.7943802</v>
+      </c>
+    </row>
+    <row r="129" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A129" s="1">
+        <v>2100</v>
+      </c>
+      <c r="B129">
+        <v>1102654</v>
+      </c>
+      <c r="C129">
+        <f t="shared" si="3"/>
+        <v>1077773.828364904</v>
+      </c>
+      <c r="D129">
+        <f t="shared" si="4"/>
+        <v>-24880.171635095961</v>
+      </c>
+      <c r="E129">
+        <f t="shared" si="5"/>
+        <v>619022940.59183359</v>
+      </c>
+    </row>
+    <row r="130" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A130" s="1">
+        <v>2200</v>
+      </c>
+      <c r="B130">
+        <v>1184204</v>
+      </c>
+      <c r="C130">
+        <f t="shared" si="3"/>
+        <v>1182862.8864594412</v>
+      </c>
+      <c r="D130">
+        <f t="shared" si="4"/>
+        <v>-1341.1135405588429</v>
+      </c>
+      <c r="E130">
+        <f t="shared" si="5"/>
+        <v>1798585.5286702754</v>
+      </c>
+    </row>
+    <row r="131" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A131" s="1">
+        <v>2200</v>
+      </c>
+      <c r="B131">
+        <v>1233999</v>
+      </c>
+      <c r="C131">
+        <f t="shared" ref="C131:C149" si="6">(A131^2)*$G$2</f>
+        <v>1182862.8864594412</v>
+      </c>
+      <c r="D131">
+        <f t="shared" ref="D131:D149" si="7">C131-B131</f>
+        <v>-51136.113540558843</v>
+      </c>
+      <c r="E131">
+        <f t="shared" ref="E131:E149" si="8">D131^2</f>
+        <v>2614902108.0329256</v>
+      </c>
+    </row>
+    <row r="132" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A132" s="1">
+        <v>2200</v>
+      </c>
+      <c r="B132">
+        <v>1185565</v>
+      </c>
+      <c r="C132">
+        <f t="shared" si="6"/>
+        <v>1182862.8864594412</v>
+      </c>
+      <c r="D132">
+        <f t="shared" si="7"/>
+        <v>-2702.1135405588429</v>
+      </c>
+      <c r="E132">
+        <f t="shared" si="8"/>
+        <v>7301417.5860714456</v>
+      </c>
+    </row>
+    <row r="133" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A133" s="1">
+        <v>2200</v>
+      </c>
+      <c r="B133">
+        <v>1218555</v>
+      </c>
+      <c r="C133">
+        <f t="shared" si="6"/>
+        <v>1182862.8864594412</v>
+      </c>
+      <c r="D133">
+        <f t="shared" si="7"/>
+        <v>-35692.113540558843</v>
+      </c>
+      <c r="E133">
+        <f t="shared" si="8"/>
+        <v>1273926968.9921439</v>
+      </c>
+    </row>
+    <row r="134" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A134" s="1">
+        <v>2300</v>
+      </c>
+      <c r="B134">
+        <v>1316825</v>
+      </c>
+      <c r="C134">
+        <f t="shared" si="6"/>
+        <v>1292839.8077211662</v>
+      </c>
+      <c r="D134">
+        <f t="shared" si="7"/>
+        <v>-23985.192278833827</v>
+      </c>
+      <c r="E134">
+        <f t="shared" si="8"/>
+        <v>575289448.65262985</v>
+      </c>
+    </row>
+    <row r="135" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A135" s="1">
+        <v>2300</v>
+      </c>
+      <c r="B135">
+        <v>1286322</v>
+      </c>
+      <c r="C135">
+        <f t="shared" si="6"/>
+        <v>1292839.8077211662</v>
+      </c>
+      <c r="D135">
+        <f t="shared" si="7"/>
+        <v>6517.807721166173</v>
+      </c>
+      <c r="E135">
+        <f t="shared" si="8"/>
+        <v>42481817.49009338</v>
+      </c>
+    </row>
+    <row r="136" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A136" s="1">
+        <v>2300</v>
+      </c>
+      <c r="B136">
+        <v>1270672</v>
+      </c>
+      <c r="C136">
+        <f t="shared" si="6"/>
+        <v>1292839.8077211662</v>
+      </c>
+      <c r="D136">
+        <f t="shared" si="7"/>
+        <v>22167.807721166173</v>
+      </c>
+      <c r="E136">
+        <f t="shared" si="8"/>
+        <v>491411699.16259462</v>
+      </c>
+    </row>
+    <row r="137" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A137" s="1">
+        <v>2300</v>
+      </c>
+      <c r="B137">
+        <v>1308453</v>
+      </c>
+      <c r="C137">
+        <f t="shared" si="6"/>
+        <v>1292839.8077211662</v>
+      </c>
+      <c r="D137">
+        <f t="shared" si="7"/>
+        <v>-15613.192278833827</v>
+      </c>
+      <c r="E137">
+        <f t="shared" si="8"/>
+        <v>243771773.13583624</v>
+      </c>
+    </row>
+    <row r="138" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A138" s="1">
+        <v>2560</v>
+      </c>
+      <c r="B138">
+        <v>1509115</v>
+      </c>
+      <c r="C138">
+        <f t="shared" si="6"/>
+        <v>1601655.0026240896</v>
+      </c>
+      <c r="D138">
+        <f t="shared" si="7"/>
+        <v>92540.002624089597</v>
+      </c>
+      <c r="E138">
+        <f t="shared" si="8"/>
+        <v>8563652085.6665096</v>
+      </c>
+    </row>
+    <row r="139" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A139" s="1">
+        <v>2560</v>
+      </c>
+      <c r="B139">
+        <v>1542117</v>
+      </c>
+      <c r="C139">
+        <f t="shared" si="6"/>
+        <v>1601655.0026240896</v>
+      </c>
+      <c r="D139">
+        <f t="shared" si="7"/>
+        <v>59538.002624089597</v>
+      </c>
+      <c r="E139">
+        <f t="shared" si="8"/>
+        <v>3544773756.4660997</v>
+      </c>
+    </row>
+    <row r="140" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A140" s="1">
+        <v>2560</v>
+      </c>
+      <c r="B140">
+        <v>153235</v>
+      </c>
+      <c r="C140">
+        <f t="shared" si="6"/>
+        <v>1601655.0026240896</v>
+      </c>
+      <c r="D140">
+        <f t="shared" si="7"/>
+        <v>1448420.0026240896</v>
+      </c>
+      <c r="E140">
+        <f t="shared" si="8"/>
+        <v>2097920504001.5676</v>
+      </c>
+    </row>
+    <row r="141" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A141" s="1">
+        <v>2560</v>
+      </c>
+      <c r="B141">
+        <v>1539195</v>
+      </c>
+      <c r="C141">
+        <f t="shared" si="6"/>
+        <v>1601655.0026240896</v>
+      </c>
+      <c r="D141">
+        <f t="shared" si="7"/>
+        <v>62460.002624089597</v>
+      </c>
+      <c r="E141">
+        <f t="shared" si="8"/>
+        <v>3901251927.8012795</v>
+      </c>
+    </row>
+    <row r="142" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A142" s="1">
+        <v>5120</v>
+      </c>
+      <c r="B142">
+        <v>6325796</v>
+      </c>
+      <c r="C142">
+        <f t="shared" si="6"/>
+        <v>6406620.0104963584</v>
+      </c>
+      <c r="D142">
+        <f t="shared" si="7"/>
+        <v>80824.010496358387</v>
+      </c>
+      <c r="E142">
+        <f t="shared" si="8"/>
+        <v>6532520672.7154503</v>
+      </c>
+    </row>
+    <row r="143" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A143" s="1">
+        <v>5120</v>
+      </c>
+      <c r="B143">
+        <v>6309625</v>
+      </c>
+      <c r="C143">
+        <f t="shared" si="6"/>
+        <v>6406620.0104963584</v>
+      </c>
+      <c r="D143">
+        <f t="shared" si="7"/>
+        <v>96995.010496358387</v>
+      </c>
+      <c r="E143">
+        <f t="shared" si="8"/>
+        <v>9408032061.188673</v>
+      </c>
+    </row>
+    <row r="144" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A144" s="1">
+        <v>5120</v>
+      </c>
+      <c r="B144">
+        <v>6364328</v>
+      </c>
+      <c r="C144">
+        <f t="shared" si="6"/>
+        <v>6406620.0104963584</v>
+      </c>
+      <c r="D144">
+        <f t="shared" si="7"/>
+        <v>42292.010496358387</v>
+      </c>
+      <c r="E144">
+        <f t="shared" si="8"/>
+        <v>1788614151.8240881</v>
+      </c>
+    </row>
+    <row r="145" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A145" s="1">
+        <v>5120</v>
+      </c>
+      <c r="B145">
+        <v>6139433</v>
+      </c>
+      <c r="C145">
+        <f t="shared" si="6"/>
+        <v>6406620.0104963584</v>
+      </c>
+      <c r="D145">
+        <f t="shared" si="7"/>
+        <v>267187.01049635839</v>
+      </c>
+      <c r="E145">
+        <f t="shared" si="8"/>
+        <v>71388898577.981125</v>
+      </c>
+    </row>
+    <row r="146" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A146" s="1">
+        <v>6250</v>
+      </c>
+      <c r="B146">
+        <v>9755509</v>
+      </c>
+      <c r="C146">
+        <f t="shared" si="6"/>
+        <v>9546607.7484136205</v>
+      </c>
+      <c r="D146">
+        <f t="shared" si="7"/>
+        <v>-208901.25158637948</v>
+      </c>
+      <c r="E146">
+        <f t="shared" si="8"/>
+        <v>43639732914.35582</v>
+      </c>
+    </row>
+    <row r="147" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A147" s="1">
+        <v>6250</v>
+      </c>
+      <c r="B147">
+        <v>9629024</v>
+      </c>
+      <c r="C147">
+        <f t="shared" si="6"/>
+        <v>9546607.7484136205</v>
+      </c>
+      <c r="D147">
+        <f t="shared" si="7"/>
+        <v>-82416.251586379483</v>
+      </c>
+      <c r="E147">
+        <f t="shared" si="8"/>
+        <v>6792438525.5493984</v>
+      </c>
+    </row>
+    <row r="148" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A148" s="1">
+        <v>6250</v>
+      </c>
+      <c r="B148">
+        <v>9896127</v>
+      </c>
+      <c r="C148">
+        <f t="shared" si="6"/>
+        <v>9546607.7484136205</v>
+      </c>
+      <c r="D148">
+        <f t="shared" si="7"/>
+        <v>-349519.25158637948</v>
+      </c>
+      <c r="E148">
+        <f t="shared" si="8"/>
+        <v>122163707229.50284</v>
+      </c>
+    </row>
+    <row r="149" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A149" s="1">
+        <v>6250</v>
+      </c>
+      <c r="B149">
+        <v>9697603</v>
+      </c>
+      <c r="C149">
+        <f t="shared" si="6"/>
+        <v>9546607.7484136205</v>
+      </c>
+      <c r="D149">
+        <f t="shared" si="7"/>
+        <v>-150995.25158637948</v>
+      </c>
+      <c r="E149">
+        <f t="shared" si="8"/>
+        <v>22799566001.634037</v>
+      </c>
+    </row>
+  </sheetData>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:B149">
+    <sortCondition ref="A1"/>
+  </sortState>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
 </file>